--- a/inst/extdata/basisghana.xlsx
+++ b/inst/extdata/basisghana.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
   <si>
     <t xml:space="preserve">no</t>
   </si>
@@ -141,6 +141,513 @@
   </si>
   <si>
     <t xml:space="preserve">Bokor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaklu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akpakope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koklonyikope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agortoe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akakpokope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSREFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wuve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akatsi North</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ave-Dakpa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ave Nyive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avevi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorsakofe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agbokope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashiagborvi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akolikope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aglagokope</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Agbogbokofe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashikortor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akatsi South</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gafia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asafotsi Dzogbekope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asafotsi Amenorpekope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agbedrafor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Live- Kpoyiadzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Live Dzivorkope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avenorpeme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badikope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dodzikope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biakoye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NKONYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Messiah Healing Community</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odormitor No.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korfikope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avenorkope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bompaso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basarikura No.I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basarikura No.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dutasor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matse Lowcost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ho West</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yingor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dodome Teleafenu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amedikukofe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anyirawase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekekofe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abalakpe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weto-Xedzefe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anfoeta Habitat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kpale Xorse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agudavikope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holuta/Aflakpe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asifiafe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agbawukorfe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gbedekope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hohoe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dzenana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agumatsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fodome Ando # 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fodome Biletorle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fodome Lormnava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanko/Akpafu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akpafu Sokpo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alufakorfe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torgbadza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dorgbefukorfe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gbi Torlenu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonglo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likpe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agbodzikorfe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahedorkorfe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atikorpe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anyanui/ Shime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gblipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atiavi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agboletekope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gallekope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vodza Newtown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amaglokope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zukpe- Dawubokope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akpadzrakofe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abotsikope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dzodze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volu-Gavorkope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zukpe-Senagbekope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zukpe-Kortokope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dzikusedekope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tugeykope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kpando Muni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nicipalGBEFI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gbortsua Kope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPANDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulanikope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hevikope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gborpe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ganyakope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOVIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dzawulame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kudzra Ando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBEFI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dorm Kope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melevevio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gadza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debidebi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avagakope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korkodzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sikakrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torkor Gasikakope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atsame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sedzrokope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ketepi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wawaso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dodi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soviekodzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asuboe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aboabo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dodo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kokotikope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pepesu Zongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadjebi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agbokodzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breketekope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahamansu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kpandokope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosamba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kordibenum Nyarko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asowoe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dodi Papase Junction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borlorkope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konsu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dunyokope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gideonkope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mangoase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaklukope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kpomkpa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dompa Sekor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsikata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haleluyakope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kpalime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borhor Junction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atakofi Newtown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ketu South</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aflao Wego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kpanokope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seyemekope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somey Wego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Govinakope (Benkofe)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Dayi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kpalime Tongor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glah Fredkorpe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dziwornu Korpe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bedzokorpe/Soevi Ayivi Korpe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Headmankorpe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wugbadzi No 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peki Town Council</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anyensu Peki</t>
   </si>
 </sst>
 </file>
@@ -962,6 +1469,3588 @@
       </c>
       <c r="J16"/>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="n">
+        <v>73</v>
+      </c>
+      <c r="G17" t="n">
+        <v>15</v>
+      </c>
+      <c r="H17" t="n">
+        <v>12</v>
+      </c>
+      <c r="I17" t="n">
+        <v>13</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" t="n">
+        <v>23</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" t="n">
+        <v>73</v>
+      </c>
+      <c r="G20" t="n">
+        <v>10</v>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8</v>
+      </c>
+      <c r="J20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" t="n">
+        <v>12</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" t="n">
+        <v>32</v>
+      </c>
+      <c r="G22" t="n">
+        <v>8</v>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+      <c r="I22" t="n">
+        <v>7</v>
+      </c>
+      <c r="J22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" t="n">
+        <v>81</v>
+      </c>
+      <c r="G23" t="n">
+        <v>14</v>
+      </c>
+      <c r="H23" t="n">
+        <v>14</v>
+      </c>
+      <c r="I23" t="n">
+        <v>14</v>
+      </c>
+      <c r="J23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" t="n">
+        <v>17</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" t="n">
+        <v>75</v>
+      </c>
+      <c r="G25" t="n">
+        <v>10</v>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+      <c r="I25" t="n">
+        <v>10</v>
+      </c>
+      <c r="J25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2</v>
+      </c>
+      <c r="J26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" t="n">
+        <v>36</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5</v>
+      </c>
+      <c r="J27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" t="n">
+        <v>21</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4</v>
+      </c>
+      <c r="J28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" t="n">
+        <v>120</v>
+      </c>
+      <c r="G29" t="n">
+        <v>22</v>
+      </c>
+      <c r="H29" t="n">
+        <v>21</v>
+      </c>
+      <c r="I29" t="n">
+        <v>18</v>
+      </c>
+      <c r="J29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="n">
+        <v>96</v>
+      </c>
+      <c r="G30" t="n">
+        <v>18</v>
+      </c>
+      <c r="H30" t="n">
+        <v>16</v>
+      </c>
+      <c r="I30" t="n">
+        <v>16</v>
+      </c>
+      <c r="J30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" t="n">
+        <v>68</v>
+      </c>
+      <c r="G31" t="n">
+        <v>15</v>
+      </c>
+      <c r="H31" t="n">
+        <v>16</v>
+      </c>
+      <c r="I31" t="n">
+        <v>15</v>
+      </c>
+      <c r="J31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" t="n">
+        <v>63</v>
+      </c>
+      <c r="G32" t="n">
+        <v>15</v>
+      </c>
+      <c r="H32" t="n">
+        <v>13</v>
+      </c>
+      <c r="I32" t="n">
+        <v>13</v>
+      </c>
+      <c r="J32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" t="n">
+        <v>66</v>
+      </c>
+      <c r="G33" t="n">
+        <v>17</v>
+      </c>
+      <c r="H33" t="n">
+        <v>16</v>
+      </c>
+      <c r="I33" t="n">
+        <v>16</v>
+      </c>
+      <c r="J33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" t="n">
+        <v>44</v>
+      </c>
+      <c r="G34" t="n">
+        <v>6</v>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+      <c r="I34" t="n">
+        <v>6</v>
+      </c>
+      <c r="J34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" t="n">
+        <v>87</v>
+      </c>
+      <c r="G35" t="n">
+        <v>12</v>
+      </c>
+      <c r="H35" t="n">
+        <v>13</v>
+      </c>
+      <c r="I35" t="n">
+        <v>13</v>
+      </c>
+      <c r="J35" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" t="n">
+        <v>101</v>
+      </c>
+      <c r="G36" t="n">
+        <v>23</v>
+      </c>
+      <c r="H36" t="n">
+        <v>23</v>
+      </c>
+      <c r="I36" t="n">
+        <v>23</v>
+      </c>
+      <c r="J36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" t="n">
+        <v>56</v>
+      </c>
+      <c r="G37" t="n">
+        <v>8</v>
+      </c>
+      <c r="H37" t="n">
+        <v>17</v>
+      </c>
+      <c r="I37" t="n">
+        <v>14</v>
+      </c>
+      <c r="J37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" t="n">
+        <v>42</v>
+      </c>
+      <c r="G38" t="n">
+        <v>8</v>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+      <c r="I38" t="n">
+        <v>7</v>
+      </c>
+      <c r="J38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" t="n">
+        <v>12</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2</v>
+      </c>
+      <c r="J39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>24</v>
+      </c>
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" t="n">
+        <v>24</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3</v>
+      </c>
+      <c r="J40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" t="n">
+        <v>21</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2</v>
+      </c>
+      <c r="J41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" t="n">
+        <v>120</v>
+      </c>
+      <c r="G42" t="n">
+        <v>12</v>
+      </c>
+      <c r="H42" t="n">
+        <v>13</v>
+      </c>
+      <c r="I42" t="n">
+        <v>11</v>
+      </c>
+      <c r="J42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" t="n">
+        <v>610</v>
+      </c>
+      <c r="G43" t="n">
+        <v>84</v>
+      </c>
+      <c r="H43" t="n">
+        <v>80</v>
+      </c>
+      <c r="I43" t="n">
+        <v>84</v>
+      </c>
+      <c r="J43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44" t="n">
+        <v>10</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3</v>
+      </c>
+      <c r="J44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" t="n">
+        <v>90</v>
+      </c>
+      <c r="G45" t="n">
+        <v>10</v>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+      <c r="I45" t="n">
+        <v>10</v>
+      </c>
+      <c r="J45"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" t="n">
+        <v>24</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3</v>
+      </c>
+      <c r="J46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47" t="n">
+        <v>53</v>
+      </c>
+      <c r="G47" t="n">
+        <v>20</v>
+      </c>
+      <c r="H47" t="n">
+        <v>20</v>
+      </c>
+      <c r="I47" t="n">
+        <v>20</v>
+      </c>
+      <c r="J47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" t="n">
+        <v>572</v>
+      </c>
+      <c r="G48" t="n">
+        <v>112</v>
+      </c>
+      <c r="H48" t="n">
+        <v>67</v>
+      </c>
+      <c r="I48" t="n">
+        <v>90</v>
+      </c>
+      <c r="J48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="n">
+        <v>25</v>
+      </c>
+      <c r="G49" t="n">
+        <v>4</v>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+      <c r="I49" t="n">
+        <v>4</v>
+      </c>
+      <c r="J49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="n">
+        <v>106</v>
+      </c>
+      <c r="G50" t="n">
+        <v>17</v>
+      </c>
+      <c r="H50" t="n">
+        <v>14</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5</v>
+      </c>
+      <c r="J50"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="n">
+        <v>38</v>
+      </c>
+      <c r="G51" t="n">
+        <v>10</v>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+      <c r="I51" t="n">
+        <v>8</v>
+      </c>
+      <c r="J51"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" t="n">
+        <v>17</v>
+      </c>
+      <c r="G52" t="n">
+        <v>4</v>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+      <c r="I52" t="n">
+        <v>5</v>
+      </c>
+      <c r="J52"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" t="n">
+        <v>122</v>
+      </c>
+      <c r="G53" t="n">
+        <v>14</v>
+      </c>
+      <c r="H53" t="n">
+        <v>16</v>
+      </c>
+      <c r="I53" t="n">
+        <v>14</v>
+      </c>
+      <c r="J53" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" t="n">
+        <v>72</v>
+      </c>
+      <c r="G54" t="n">
+        <v>12</v>
+      </c>
+      <c r="H54" t="n">
+        <v>13</v>
+      </c>
+      <c r="I54" t="n">
+        <v>8</v>
+      </c>
+      <c r="J54"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="n">
+        <v>13</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s">
+        <v>107</v>
+      </c>
+      <c r="F56" t="n">
+        <v>28</v>
+      </c>
+      <c r="G56" t="n">
+        <v>6</v>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+      <c r="I56" t="n">
+        <v>7</v>
+      </c>
+      <c r="J56"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" t="n">
+        <v>150</v>
+      </c>
+      <c r="G57" t="n">
+        <v>28</v>
+      </c>
+      <c r="H57" t="n">
+        <v>23</v>
+      </c>
+      <c r="I57" t="n">
+        <v>23</v>
+      </c>
+      <c r="J57"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="n">
+        <v>10</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2</v>
+      </c>
+      <c r="J58"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>111</v>
+      </c>
+      <c r="F59" t="n">
+        <v>29</v>
+      </c>
+      <c r="G59" t="n">
+        <v>8</v>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+      <c r="I59" t="n">
+        <v>9</v>
+      </c>
+      <c r="J59"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" t="n">
+        <v>16</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>113</v>
+      </c>
+      <c r="F61" t="n">
+        <v>20</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4</v>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62" t="n">
+        <v>34</v>
+      </c>
+      <c r="G62" t="n">
+        <v>6</v>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+      <c r="I62" t="n">
+        <v>8</v>
+      </c>
+      <c r="J62"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>116</v>
+      </c>
+      <c r="F63" t="n">
+        <v>17</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2</v>
+      </c>
+      <c r="J63"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>117</v>
+      </c>
+      <c r="F64" t="n">
+        <v>23</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5</v>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+      <c r="I64" t="n">
+        <v>4</v>
+      </c>
+      <c r="J64"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>118</v>
+      </c>
+      <c r="F65" t="n">
+        <v>32</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5</v>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+      <c r="I65" t="n">
+        <v>5</v>
+      </c>
+      <c r="J65"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" t="s">
+        <v>120</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>121</v>
+      </c>
+      <c r="F66" t="n">
+        <v>102</v>
+      </c>
+      <c r="G66" t="n">
+        <v>18</v>
+      </c>
+      <c r="H66" t="n">
+        <v>15</v>
+      </c>
+      <c r="I66" t="n">
+        <v>18</v>
+      </c>
+      <c r="J66" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" t="s">
+        <v>123</v>
+      </c>
+      <c r="F67" t="n">
+        <v>15</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3</v>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" t="s">
+        <v>122</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" t="s">
+        <v>124</v>
+      </c>
+      <c r="F68" t="n">
+        <v>15</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3</v>
+      </c>
+      <c r="J68"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" t="s">
+        <v>125</v>
+      </c>
+      <c r="F69" t="n">
+        <v>238</v>
+      </c>
+      <c r="G69" t="n">
+        <v>57</v>
+      </c>
+      <c r="H69" t="n">
+        <v>49</v>
+      </c>
+      <c r="I69" t="n">
+        <v>49</v>
+      </c>
+      <c r="J69"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>84</v>
+      </c>
+      <c r="B70" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" t="s">
+        <v>126</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" t="s">
+        <v>127</v>
+      </c>
+      <c r="F70" t="n">
+        <v>66</v>
+      </c>
+      <c r="G70" t="n">
+        <v>13</v>
+      </c>
+      <c r="H70" t="n">
+        <v>11</v>
+      </c>
+      <c r="I70" t="n">
+        <v>11</v>
+      </c>
+      <c r="J70"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>85</v>
+      </c>
+      <c r="B71" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" t="s">
+        <v>126</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" t="s">
+        <v>128</v>
+      </c>
+      <c r="F71" t="n">
+        <v>87</v>
+      </c>
+      <c r="G71" t="n">
+        <v>16</v>
+      </c>
+      <c r="H71" t="n">
+        <v>14</v>
+      </c>
+      <c r="I71" t="n">
+        <v>14</v>
+      </c>
+      <c r="J71"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>86</v>
+      </c>
+      <c r="B72" t="s">
+        <v>119</v>
+      </c>
+      <c r="C72" t="s">
+        <v>129</v>
+      </c>
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" t="s">
+        <v>130</v>
+      </c>
+      <c r="F72" t="n">
+        <v>26</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5</v>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+      <c r="I72" t="n">
+        <v>4</v>
+      </c>
+      <c r="J72"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>87</v>
+      </c>
+      <c r="B73" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" t="s">
+        <v>132</v>
+      </c>
+      <c r="F73" t="n">
+        <v>19</v>
+      </c>
+      <c r="G73" t="n">
+        <v>4</v>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+      <c r="I73" t="n">
+        <v>4</v>
+      </c>
+      <c r="J73"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>88</v>
+      </c>
+      <c r="B74" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" t="s">
+        <v>133</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" t="s">
+        <v>134</v>
+      </c>
+      <c r="F74" t="n">
+        <v>45</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5</v>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>89</v>
+      </c>
+      <c r="B75" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" t="s">
+        <v>126</v>
+      </c>
+      <c r="D75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" t="s">
+        <v>135</v>
+      </c>
+      <c r="F75" t="n">
+        <v>25</v>
+      </c>
+      <c r="G75" t="n">
+        <v>5</v>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+      <c r="I75" t="n">
+        <v>4</v>
+      </c>
+      <c r="J75"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>90</v>
+      </c>
+      <c r="B76" t="s">
+        <v>119</v>
+      </c>
+      <c r="C76" t="s">
+        <v>126</v>
+      </c>
+      <c r="D76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" t="s">
+        <v>136</v>
+      </c>
+      <c r="F76" t="n">
+        <v>24</v>
+      </c>
+      <c r="G76" t="n">
+        <v>4</v>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+      <c r="I76" t="n">
+        <v>4</v>
+      </c>
+      <c r="J76"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>91</v>
+      </c>
+      <c r="B77" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" t="s">
+        <v>133</v>
+      </c>
+      <c r="D77" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" t="s">
+        <v>137</v>
+      </c>
+      <c r="F77" t="n">
+        <v>30</v>
+      </c>
+      <c r="G77" t="n">
+        <v>5</v>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+      <c r="I77" t="n">
+        <v>5</v>
+      </c>
+      <c r="J77"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>92</v>
+      </c>
+      <c r="B78" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" t="s">
+        <v>138</v>
+      </c>
+      <c r="F78" t="n">
+        <v>34</v>
+      </c>
+      <c r="G78" t="n">
+        <v>5</v>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+      <c r="I78" t="n">
+        <v>5</v>
+      </c>
+      <c r="J78"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>93</v>
+      </c>
+      <c r="B79" t="s">
+        <v>139</v>
+      </c>
+      <c r="C79" t="s">
+        <v>140</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" t="s">
+        <v>141</v>
+      </c>
+      <c r="F79" t="n">
+        <v>14</v>
+      </c>
+      <c r="G79" t="n">
+        <v>4</v>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+      <c r="I79" t="n">
+        <v>4</v>
+      </c>
+      <c r="J79" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>94</v>
+      </c>
+      <c r="B80" t="s">
+        <v>139</v>
+      </c>
+      <c r="C80" t="s">
+        <v>142</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" t="s">
+        <v>143</v>
+      </c>
+      <c r="F80" t="n">
+        <v>300</v>
+      </c>
+      <c r="G80" t="n">
+        <v>38</v>
+      </c>
+      <c r="H80" t="n">
+        <v>32</v>
+      </c>
+      <c r="I80" t="n">
+        <v>28</v>
+      </c>
+      <c r="J80"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>95</v>
+      </c>
+      <c r="B81" t="s">
+        <v>139</v>
+      </c>
+      <c r="C81" t="s">
+        <v>142</v>
+      </c>
+      <c r="D81" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" t="s">
+        <v>144</v>
+      </c>
+      <c r="F81" t="n">
+        <v>71</v>
+      </c>
+      <c r="G81" t="n">
+        <v>8</v>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+      <c r="I81" t="n">
+        <v>8</v>
+      </c>
+      <c r="J81"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>96</v>
+      </c>
+      <c r="B82" t="s">
+        <v>139</v>
+      </c>
+      <c r="C82" t="s">
+        <v>142</v>
+      </c>
+      <c r="D82" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" t="s">
+        <v>145</v>
+      </c>
+      <c r="F82" t="n">
+        <v>24</v>
+      </c>
+      <c r="G82" t="n">
+        <v>5</v>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+      <c r="I82" t="n">
+        <v>5</v>
+      </c>
+      <c r="J82"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>97</v>
+      </c>
+      <c r="B83" t="s">
+        <v>139</v>
+      </c>
+      <c r="C83" t="s">
+        <v>142</v>
+      </c>
+      <c r="D83" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" t="s">
+        <v>146</v>
+      </c>
+      <c r="F83" t="n">
+        <v>200</v>
+      </c>
+      <c r="G83" t="n">
+        <v>26</v>
+      </c>
+      <c r="H83" t="n">
+        <v>23</v>
+      </c>
+      <c r="I83" t="n">
+        <v>12</v>
+      </c>
+      <c r="J83"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>98</v>
+      </c>
+      <c r="B84" t="s">
+        <v>139</v>
+      </c>
+      <c r="C84" t="s">
+        <v>142</v>
+      </c>
+      <c r="D84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" t="s">
+        <v>147</v>
+      </c>
+      <c r="F84" t="n">
+        <v>22</v>
+      </c>
+      <c r="G84" t="n">
+        <v>6</v>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+      <c r="I84" t="n">
+        <v>6</v>
+      </c>
+      <c r="J84"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>99</v>
+      </c>
+      <c r="B85" t="s">
+        <v>139</v>
+      </c>
+      <c r="C85" t="s">
+        <v>148</v>
+      </c>
+      <c r="D85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" t="s">
+        <v>149</v>
+      </c>
+      <c r="F85" t="n">
+        <v>151</v>
+      </c>
+      <c r="G85" t="n">
+        <v>39</v>
+      </c>
+      <c r="H85" t="n">
+        <v>38</v>
+      </c>
+      <c r="I85" t="n">
+        <v>29</v>
+      </c>
+      <c r="J85"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>100</v>
+      </c>
+      <c r="B86" t="s">
+        <v>139</v>
+      </c>
+      <c r="C86" t="s">
+        <v>148</v>
+      </c>
+      <c r="D86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" t="s">
+        <v>150</v>
+      </c>
+      <c r="F86" t="n">
+        <v>116</v>
+      </c>
+      <c r="G86" t="n">
+        <v>15</v>
+      </c>
+      <c r="H86" t="n">
+        <v>15</v>
+      </c>
+      <c r="I86" t="n">
+        <v>12</v>
+      </c>
+      <c r="J86"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>101</v>
+      </c>
+      <c r="B87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C87" t="s">
+        <v>151</v>
+      </c>
+      <c r="D87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" t="s">
+        <v>152</v>
+      </c>
+      <c r="F87" t="n">
+        <v>13</v>
+      </c>
+      <c r="G87" t="n">
+        <v>3</v>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+      <c r="I87" t="n">
+        <v>2</v>
+      </c>
+      <c r="J87"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>102</v>
+      </c>
+      <c r="B88" t="s">
+        <v>139</v>
+      </c>
+      <c r="C88" t="s">
+        <v>151</v>
+      </c>
+      <c r="D88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" t="s">
+        <v>153</v>
+      </c>
+      <c r="F88" t="n">
+        <v>164</v>
+      </c>
+      <c r="G88" t="n">
+        <v>5</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+      <c r="I88" t="n">
+        <v>5</v>
+      </c>
+      <c r="J88"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>103</v>
+      </c>
+      <c r="B89" t="s">
+        <v>139</v>
+      </c>
+      <c r="C89" t="s">
+        <v>142</v>
+      </c>
+      <c r="D89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" t="s">
+        <v>154</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1861</v>
+      </c>
+      <c r="G89" t="n">
+        <v>38</v>
+      </c>
+      <c r="H89" t="n">
+        <v>30</v>
+      </c>
+      <c r="I89" t="n">
+        <v>20</v>
+      </c>
+      <c r="J89"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>104</v>
+      </c>
+      <c r="B90" t="s">
+        <v>139</v>
+      </c>
+      <c r="C90" t="s">
+        <v>142</v>
+      </c>
+      <c r="D90" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" t="s">
+        <v>155</v>
+      </c>
+      <c r="F90" t="n">
+        <v>354</v>
+      </c>
+      <c r="G90" t="n">
+        <v>15</v>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+      <c r="I90" t="n">
+        <v>4</v>
+      </c>
+      <c r="J90"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>105</v>
+      </c>
+      <c r="B91" t="s">
+        <v>139</v>
+      </c>
+      <c r="C91" t="s">
+        <v>142</v>
+      </c>
+      <c r="D91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" t="s">
+        <v>156</v>
+      </c>
+      <c r="F91" t="n">
+        <v>123</v>
+      </c>
+      <c r="G91" t="n">
+        <v>13</v>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2</v>
+      </c>
+      <c r="J91"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>106</v>
+      </c>
+      <c r="B92" t="s">
+        <v>139</v>
+      </c>
+      <c r="C92" t="s">
+        <v>148</v>
+      </c>
+      <c r="D92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" t="s">
+        <v>157</v>
+      </c>
+      <c r="F92" t="n">
+        <v>24</v>
+      </c>
+      <c r="G92" t="n">
+        <v>4</v>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+      <c r="I92" t="n">
+        <v>3</v>
+      </c>
+      <c r="J92"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>107</v>
+      </c>
+      <c r="B93" t="s">
+        <v>139</v>
+      </c>
+      <c r="C93" t="s">
+        <v>148</v>
+      </c>
+      <c r="D93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" t="s">
+        <v>158</v>
+      </c>
+      <c r="F93" t="n">
+        <v>160</v>
+      </c>
+      <c r="G93" t="n">
+        <v>3</v>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>108</v>
+      </c>
+      <c r="B94" t="s">
+        <v>139</v>
+      </c>
+      <c r="C94" t="s">
+        <v>148</v>
+      </c>
+      <c r="D94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" t="s">
+        <v>159</v>
+      </c>
+      <c r="F94" t="n">
+        <v>96</v>
+      </c>
+      <c r="G94" t="n">
+        <v>10</v>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+      <c r="I94" t="n">
+        <v>10</v>
+      </c>
+      <c r="J94"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>109</v>
+      </c>
+      <c r="B95" t="s">
+        <v>139</v>
+      </c>
+      <c r="C95" t="s">
+        <v>142</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" t="s">
+        <v>160</v>
+      </c>
+      <c r="F95" t="n">
+        <v>21</v>
+      </c>
+      <c r="G95" t="n">
+        <v>5</v>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+      <c r="I95" t="n">
+        <v>5</v>
+      </c>
+      <c r="J95"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>110</v>
+      </c>
+      <c r="B96" t="s">
+        <v>139</v>
+      </c>
+      <c r="C96" t="s">
+        <v>148</v>
+      </c>
+      <c r="D96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" t="s">
+        <v>161</v>
+      </c>
+      <c r="F96" t="n">
+        <v>138</v>
+      </c>
+      <c r="G96" t="n">
+        <v>23</v>
+      </c>
+      <c r="H96" t="n">
+        <v>18</v>
+      </c>
+      <c r="I96" t="n">
+        <v>18</v>
+      </c>
+      <c r="J96"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>111</v>
+      </c>
+      <c r="B97" t="s">
+        <v>139</v>
+      </c>
+      <c r="C97" t="s">
+        <v>142</v>
+      </c>
+      <c r="D97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" t="s">
+        <v>162</v>
+      </c>
+      <c r="F97" t="n">
+        <v>78</v>
+      </c>
+      <c r="G97" t="n">
+        <v>13</v>
+      </c>
+      <c r="H97" t="n">
+        <v>11</v>
+      </c>
+      <c r="I97" t="n">
+        <v>11</v>
+      </c>
+      <c r="J97"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>128</v>
+      </c>
+      <c r="B98" t="s">
+        <v>139</v>
+      </c>
+      <c r="C98" t="s">
+        <v>163</v>
+      </c>
+      <c r="D98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" t="s">
+        <v>164</v>
+      </c>
+      <c r="F98" t="n">
+        <v>165</v>
+      </c>
+      <c r="G98" t="n">
+        <v>25</v>
+      </c>
+      <c r="H98" t="n">
+        <v>20</v>
+      </c>
+      <c r="I98" t="n">
+        <v>16</v>
+      </c>
+      <c r="J98"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>129</v>
+      </c>
+      <c r="B99" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" t="s">
+        <v>163</v>
+      </c>
+      <c r="D99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" t="s">
+        <v>165</v>
+      </c>
+      <c r="F99" t="n">
+        <v>468</v>
+      </c>
+      <c r="G99" t="n">
+        <v>54</v>
+      </c>
+      <c r="H99" t="n">
+        <v>47</v>
+      </c>
+      <c r="I99" t="n">
+        <v>50</v>
+      </c>
+      <c r="J99"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>130</v>
+      </c>
+      <c r="B100" t="s">
+        <v>139</v>
+      </c>
+      <c r="C100" t="s">
+        <v>166</v>
+      </c>
+      <c r="D100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" t="s">
+        <v>167</v>
+      </c>
+      <c r="F100" t="n">
+        <v>112</v>
+      </c>
+      <c r="G100" t="n">
+        <v>15</v>
+      </c>
+      <c r="H100" t="n">
+        <v>14</v>
+      </c>
+      <c r="I100" t="n">
+        <v>14</v>
+      </c>
+      <c r="J100"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>131</v>
+      </c>
+      <c r="B101" t="s">
+        <v>139</v>
+      </c>
+      <c r="C101" t="s">
+        <v>166</v>
+      </c>
+      <c r="D101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" t="s">
+        <v>168</v>
+      </c>
+      <c r="F101" t="n">
+        <v>336</v>
+      </c>
+      <c r="G101" t="n">
+        <v>48</v>
+      </c>
+      <c r="H101" t="n">
+        <v>38</v>
+      </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>132</v>
+      </c>
+      <c r="B102" t="s">
+        <v>139</v>
+      </c>
+      <c r="C102" t="s">
+        <v>166</v>
+      </c>
+      <c r="D102" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" t="s">
+        <v>169</v>
+      </c>
+      <c r="F102" t="n">
+        <v>102</v>
+      </c>
+      <c r="G102" t="n">
+        <v>14</v>
+      </c>
+      <c r="H102" t="n">
+        <v>12</v>
+      </c>
+      <c r="I102" t="n">
+        <v>12</v>
+      </c>
+      <c r="J102"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>133</v>
+      </c>
+      <c r="B103" t="s">
+        <v>139</v>
+      </c>
+      <c r="C103" t="s">
+        <v>170</v>
+      </c>
+      <c r="D103" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" t="s">
+        <v>171</v>
+      </c>
+      <c r="F103" t="n">
+        <v>48</v>
+      </c>
+      <c r="G103" t="n">
+        <v>9</v>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+      <c r="I103" t="n">
+        <v>6</v>
+      </c>
+      <c r="J103"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>134</v>
+      </c>
+      <c r="B104" t="s">
+        <v>139</v>
+      </c>
+      <c r="C104" t="s">
+        <v>170</v>
+      </c>
+      <c r="D104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" t="s">
+        <v>172</v>
+      </c>
+      <c r="F104" t="n">
+        <v>98</v>
+      </c>
+      <c r="G104" t="n">
+        <v>21</v>
+      </c>
+      <c r="H104" t="n">
+        <v>23</v>
+      </c>
+      <c r="I104" t="n">
+        <v>21</v>
+      </c>
+      <c r="J104"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>135</v>
+      </c>
+      <c r="B105" t="s">
+        <v>139</v>
+      </c>
+      <c r="C105" t="s">
+        <v>173</v>
+      </c>
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" t="s">
+        <v>174</v>
+      </c>
+      <c r="F105" t="n">
+        <v>272</v>
+      </c>
+      <c r="G105" t="n">
+        <v>57</v>
+      </c>
+      <c r="H105" t="n">
+        <v>38</v>
+      </c>
+      <c r="I105" t="n">
+        <v>46</v>
+      </c>
+      <c r="J105"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>136</v>
+      </c>
+      <c r="B106" t="s">
+        <v>139</v>
+      </c>
+      <c r="C106" t="s">
+        <v>173</v>
+      </c>
+      <c r="D106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" t="s">
+        <v>175</v>
+      </c>
+      <c r="F106" t="n">
+        <v>65</v>
+      </c>
+      <c r="G106" t="n">
+        <v>14</v>
+      </c>
+      <c r="H106" t="n">
+        <v>12</v>
+      </c>
+      <c r="I106" t="n">
+        <v>14</v>
+      </c>
+      <c r="J106"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>137</v>
+      </c>
+      <c r="B107" t="s">
+        <v>139</v>
+      </c>
+      <c r="C107" t="s">
+        <v>176</v>
+      </c>
+      <c r="D107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" t="s">
+        <v>177</v>
+      </c>
+      <c r="F107" t="n">
+        <v>120</v>
+      </c>
+      <c r="G107" t="n">
+        <v>17</v>
+      </c>
+      <c r="H107" t="n">
+        <v>14</v>
+      </c>
+      <c r="I107" t="n">
+        <v>14</v>
+      </c>
+      <c r="J107"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>138</v>
+      </c>
+      <c r="B108" t="s">
+        <v>139</v>
+      </c>
+      <c r="C108" t="s">
+        <v>163</v>
+      </c>
+      <c r="D108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" t="s">
+        <v>178</v>
+      </c>
+      <c r="F108" t="n">
+        <v>115</v>
+      </c>
+      <c r="G108" t="n">
+        <v>22</v>
+      </c>
+      <c r="H108" t="n">
+        <v>19</v>
+      </c>
+      <c r="I108" t="n">
+        <v>18</v>
+      </c>
+      <c r="J108"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>139</v>
+      </c>
+      <c r="B109" t="s">
+        <v>139</v>
+      </c>
+      <c r="C109" t="s">
+        <v>163</v>
+      </c>
+      <c r="D109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" t="s">
+        <v>179</v>
+      </c>
+      <c r="F109" t="n">
+        <v>565</v>
+      </c>
+      <c r="G109" t="n">
+        <v>32</v>
+      </c>
+      <c r="H109" t="n">
+        <v>25</v>
+      </c>
+      <c r="I109" t="n">
+        <v>25</v>
+      </c>
+      <c r="J109"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>140</v>
+      </c>
+      <c r="B110" t="s">
+        <v>139</v>
+      </c>
+      <c r="C110" t="s">
+        <v>166</v>
+      </c>
+      <c r="D110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" t="s">
+        <v>180</v>
+      </c>
+      <c r="F110" t="n">
+        <v>48</v>
+      </c>
+      <c r="G110" t="n">
+        <v>7</v>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+      <c r="I110" t="n">
+        <v>6</v>
+      </c>
+      <c r="J110"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>141</v>
+      </c>
+      <c r="B111" t="s">
+        <v>139</v>
+      </c>
+      <c r="C111" t="s">
+        <v>166</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" t="s">
+        <v>181</v>
+      </c>
+      <c r="F111" t="n">
+        <v>130</v>
+      </c>
+      <c r="G111" t="n">
+        <v>18</v>
+      </c>
+      <c r="H111" t="n">
+        <v>15</v>
+      </c>
+      <c r="I111" t="n">
+        <v>15</v>
+      </c>
+      <c r="J111"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>142</v>
+      </c>
+      <c r="B112" t="s">
+        <v>139</v>
+      </c>
+      <c r="C112" t="s">
+        <v>170</v>
+      </c>
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" t="s">
+        <v>182</v>
+      </c>
+      <c r="F112" t="n">
+        <v>32</v>
+      </c>
+      <c r="G112" t="n">
+        <v>11</v>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+      <c r="I112" t="n">
+        <v>5</v>
+      </c>
+      <c r="J112"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>143</v>
+      </c>
+      <c r="B113" t="s">
+        <v>139</v>
+      </c>
+      <c r="C113" t="s">
+        <v>173</v>
+      </c>
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" t="s">
+        <v>183</v>
+      </c>
+      <c r="F113" t="n">
+        <v>73</v>
+      </c>
+      <c r="G113" t="n">
+        <v>6</v>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+      <c r="I113" t="n">
+        <v>5</v>
+      </c>
+      <c r="J113"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>144</v>
+      </c>
+      <c r="B114" t="s">
+        <v>139</v>
+      </c>
+      <c r="C114" t="s">
+        <v>173</v>
+      </c>
+      <c r="D114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" t="s">
+        <v>184</v>
+      </c>
+      <c r="F114" t="n">
+        <v>154</v>
+      </c>
+      <c r="G114" t="n">
+        <v>23</v>
+      </c>
+      <c r="H114" t="n">
+        <v>18</v>
+      </c>
+      <c r="I114" t="n">
+        <v>18</v>
+      </c>
+      <c r="J114"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>145</v>
+      </c>
+      <c r="B115" t="s">
+        <v>139</v>
+      </c>
+      <c r="C115" t="s">
+        <v>173</v>
+      </c>
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" t="s">
+        <v>185</v>
+      </c>
+      <c r="F115" t="n">
+        <v>66</v>
+      </c>
+      <c r="G115" t="n">
+        <v>16</v>
+      </c>
+      <c r="H115" t="n">
+        <v>13</v>
+      </c>
+      <c r="I115" t="n">
+        <v>5</v>
+      </c>
+      <c r="J115"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>146</v>
+      </c>
+      <c r="B116" t="s">
+        <v>139</v>
+      </c>
+      <c r="C116" t="s">
+        <v>176</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s">
+        <v>186</v>
+      </c>
+      <c r="F116" t="n">
+        <v>74</v>
+      </c>
+      <c r="G116" t="n">
+        <v>10</v>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+      <c r="I116" t="n">
+        <v>8</v>
+      </c>
+      <c r="J116"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>147</v>
+      </c>
+      <c r="B117" t="s">
+        <v>139</v>
+      </c>
+      <c r="C117" t="s">
+        <v>163</v>
+      </c>
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" t="s">
+        <v>187</v>
+      </c>
+      <c r="F117" t="n">
+        <v>68</v>
+      </c>
+      <c r="G117" t="n">
+        <v>11</v>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+      <c r="I117" t="n">
+        <v>10</v>
+      </c>
+      <c r="J117"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>148</v>
+      </c>
+      <c r="B118" t="s">
+        <v>139</v>
+      </c>
+      <c r="C118" t="s">
+        <v>166</v>
+      </c>
+      <c r="D118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" t="s">
+        <v>188</v>
+      </c>
+      <c r="F118" t="n">
+        <v>173</v>
+      </c>
+      <c r="G118" t="n">
+        <v>33</v>
+      </c>
+      <c r="H118" t="n">
+        <v>29</v>
+      </c>
+      <c r="I118" t="n">
+        <v>28</v>
+      </c>
+      <c r="J118"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>149</v>
+      </c>
+      <c r="B119" t="s">
+        <v>139</v>
+      </c>
+      <c r="C119" t="s">
+        <v>170</v>
+      </c>
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" t="s">
+        <v>189</v>
+      </c>
+      <c r="F119" t="n">
+        <v>115</v>
+      </c>
+      <c r="G119" t="n">
+        <v>23</v>
+      </c>
+      <c r="H119" t="n">
+        <v>20</v>
+      </c>
+      <c r="I119" t="n">
+        <v>19</v>
+      </c>
+      <c r="J119"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>150</v>
+      </c>
+      <c r="B120" t="s">
+        <v>139</v>
+      </c>
+      <c r="C120" t="s">
+        <v>176</v>
+      </c>
+      <c r="D120" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" t="s">
+        <v>190</v>
+      </c>
+      <c r="F120" t="n">
+        <v>600</v>
+      </c>
+      <c r="G120"/>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+      <c r="I120" t="n">
+        <v>7</v>
+      </c>
+      <c r="J120"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>151</v>
+      </c>
+      <c r="B121" t="s">
+        <v>139</v>
+      </c>
+      <c r="C121" t="s">
+        <v>176</v>
+      </c>
+      <c r="D121" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" t="s">
+        <v>191</v>
+      </c>
+      <c r="F121" t="n">
+        <v>100</v>
+      </c>
+      <c r="G121" t="n">
+        <v>25</v>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+      <c r="I121" t="n">
+        <v>3</v>
+      </c>
+      <c r="J121"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>152</v>
+      </c>
+      <c r="B122" t="s">
+        <v>139</v>
+      </c>
+      <c r="C122" t="s">
+        <v>176</v>
+      </c>
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" t="s">
+        <v>192</v>
+      </c>
+      <c r="F122" t="n">
+        <v>250</v>
+      </c>
+      <c r="G122" t="n">
+        <v>63</v>
+      </c>
+      <c r="H122" t="n">
+        <v>14</v>
+      </c>
+      <c r="I122" t="n">
+        <v>12</v>
+      </c>
+      <c r="J122"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>153</v>
+      </c>
+      <c r="B123" t="s">
+        <v>139</v>
+      </c>
+      <c r="C123" t="s">
+        <v>176</v>
+      </c>
+      <c r="D123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" t="s">
+        <v>193</v>
+      </c>
+      <c r="F123" t="n">
+        <v>120</v>
+      </c>
+      <c r="G123" t="n">
+        <v>30</v>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+      <c r="I123" t="n">
+        <v>8</v>
+      </c>
+      <c r="J123"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>154</v>
+      </c>
+      <c r="B124" t="s">
+        <v>139</v>
+      </c>
+      <c r="C124" t="s">
+        <v>176</v>
+      </c>
+      <c r="D124" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" t="s">
+        <v>194</v>
+      </c>
+      <c r="F124" t="n">
+        <v>150</v>
+      </c>
+      <c r="G124"/>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+      <c r="I124" t="n">
+        <v>8</v>
+      </c>
+      <c r="J124"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>155</v>
+      </c>
+      <c r="B125" t="s">
+        <v>139</v>
+      </c>
+      <c r="C125" t="s">
+        <v>176</v>
+      </c>
+      <c r="D125" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" t="s">
+        <v>195</v>
+      </c>
+      <c r="F125" t="n">
+        <v>96</v>
+      </c>
+      <c r="G125" t="n">
+        <v>24</v>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+      <c r="I125" t="n">
+        <v>5</v>
+      </c>
+      <c r="J125"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>174</v>
+      </c>
+      <c r="B126" t="s">
+        <v>139</v>
+      </c>
+      <c r="C126" t="s">
+        <v>166</v>
+      </c>
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" t="s">
+        <v>196</v>
+      </c>
+      <c r="F126" t="n">
+        <v>98</v>
+      </c>
+      <c r="G126" t="n">
+        <v>12</v>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+      <c r="I126" t="n">
+        <v>10</v>
+      </c>
+      <c r="J126"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>175</v>
+      </c>
+      <c r="B127" t="s">
+        <v>197</v>
+      </c>
+      <c r="C127" t="s">
+        <v>198</v>
+      </c>
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" t="s">
+        <v>199</v>
+      </c>
+      <c r="F127" t="n">
+        <v>78</v>
+      </c>
+      <c r="G127" t="n">
+        <v>14</v>
+      </c>
+      <c r="H127" t="n">
+        <v>14</v>
+      </c>
+      <c r="I127" t="n">
+        <v>12</v>
+      </c>
+      <c r="J127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>176</v>
+      </c>
+      <c r="B128" t="s">
+        <v>197</v>
+      </c>
+      <c r="C128" t="s">
+        <v>198</v>
+      </c>
+      <c r="D128" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" t="s">
+        <v>200</v>
+      </c>
+      <c r="F128" t="n">
+        <v>74</v>
+      </c>
+      <c r="G128" t="n">
+        <v>23</v>
+      </c>
+      <c r="H128" t="n">
+        <v>23</v>
+      </c>
+      <c r="I128" t="n">
+        <v>20</v>
+      </c>
+      <c r="J128"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>177</v>
+      </c>
+      <c r="B129" t="s">
+        <v>197</v>
+      </c>
+      <c r="C129" t="s">
+        <v>201</v>
+      </c>
+      <c r="D129" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" t="s">
+        <v>202</v>
+      </c>
+      <c r="F129" t="n">
+        <v>102</v>
+      </c>
+      <c r="G129" t="n">
+        <v>17</v>
+      </c>
+      <c r="H129" t="n">
+        <v>14</v>
+      </c>
+      <c r="I129" t="n">
+        <v>14</v>
+      </c>
+      <c r="J129"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>178</v>
+      </c>
+      <c r="B130" t="s">
+        <v>203</v>
+      </c>
+      <c r="C130" t="s">
+        <v>204</v>
+      </c>
+      <c r="D130" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" t="s">
+        <v>205</v>
+      </c>
+      <c r="F130" t="n">
+        <v>17</v>
+      </c>
+      <c r="G130" t="n">
+        <v>4</v>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+      <c r="I130" t="n">
+        <v>4</v>
+      </c>
+      <c r="J130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>179</v>
+      </c>
+      <c r="B131" t="s">
+        <v>203</v>
+      </c>
+      <c r="C131" t="s">
+        <v>204</v>
+      </c>
+      <c r="D131" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" t="s">
+        <v>206</v>
+      </c>
+      <c r="F131" t="n">
+        <v>8</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>180</v>
+      </c>
+      <c r="B132" t="s">
+        <v>203</v>
+      </c>
+      <c r="C132" t="s">
+        <v>204</v>
+      </c>
+      <c r="D132" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" t="s">
+        <v>207</v>
+      </c>
+      <c r="F132" t="n">
+        <v>29</v>
+      </c>
+      <c r="G132" t="n">
+        <v>7</v>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+      <c r="I132" t="n">
+        <v>7</v>
+      </c>
+      <c r="J132"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>181</v>
+      </c>
+      <c r="B133" t="s">
+        <v>203</v>
+      </c>
+      <c r="C133" t="s">
+        <v>204</v>
+      </c>
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" t="s">
+        <v>208</v>
+      </c>
+      <c r="F133" t="n">
+        <v>16</v>
+      </c>
+      <c r="G133" t="n">
+        <v>3</v>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+      <c r="I133" t="n">
+        <v>3</v>
+      </c>
+      <c r="J133"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>182</v>
+      </c>
+      <c r="B134" t="s">
+        <v>203</v>
+      </c>
+      <c r="C134" t="s">
+        <v>204</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" t="s">
+        <v>209</v>
+      </c>
+      <c r="F134" t="n">
+        <v>86</v>
+      </c>
+      <c r="G134" t="n">
+        <v>16</v>
+      </c>
+      <c r="H134" t="n">
+        <v>16</v>
+      </c>
+      <c r="I134" t="n">
+        <v>14</v>
+      </c>
+      <c r="J134"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>183</v>
+      </c>
+      <c r="B135" t="s">
+        <v>203</v>
+      </c>
+      <c r="C135" t="s">
+        <v>210</v>
+      </c>
+      <c r="D135" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" t="s">
+        <v>211</v>
+      </c>
+      <c r="F135"/>
+      <c r="G135"/>
+      <c r="H135" t="n">
+        <v>6</v>
+      </c>
+      <c r="I135" t="n">
+        <v>6</v>
+      </c>
+      <c r="J135"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/inst/extdata/basisghana.xlsx
+++ b/inst/extdata/basisghana.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="453">
   <si>
     <t xml:space="preserve">no</t>
   </si>
@@ -648,6 +648,729 @@
   </si>
   <si>
     <t xml:space="preserve">Anyensu Peki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bawku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuka Zabugu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeeri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zabugu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anamda-Borin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamkok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamnatinga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nadbuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yakut- Natinga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mognori Area Council</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baribari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gumakutare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yumboko Area Council</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yomboko Nating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zorsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Widan-Nating (Binduri)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seegol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yomboko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yomboko Area Council</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bawku West</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapeliga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salpiiga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Googo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tilli Widnada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tilli (Azupupunga)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yapala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samboliga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binduri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bazua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aporinzua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koloko Gumbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuloko Tengri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koloko/Aweego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Widan-Bugri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yalugu/Mognori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zaago Bissa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azum-sapeliga Lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulugu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninsako</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poyamire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kulavai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tambiigu 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tansia-Zeego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atuba Mognori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agoldbod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tetauku-Tempeln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badaboga-Tengbeogo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zawse/Bansi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yalungugu Asikuni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nafkoliga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sakpari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zuatempelug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zamballa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolog - Arabok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azum-sapeliga Upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barabogo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asaliga-Zaago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wiespego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayugte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dunfoli - Yikeni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zemasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akinkalga-Doone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zorko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayuabisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azangabisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akutabongo Central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aniakunkua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apumbem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarongo Kunkua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akanserlinga C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akanserlinga A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Builsa North</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chuchuliga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akpari-yeri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deborinsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asanabiisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanwaasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siniensa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dawarinsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yangsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zundema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siniensi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anarisa-yeri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nankrisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abiisa-yeri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siniesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninvinsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banimonsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Builsa South</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chensa / Zamsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Champolinsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pindema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanjarga.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farinsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doninga / Bachonsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naverensa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanjarga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalaasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fumbisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musidema 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sikabsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chensa/Zamsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kambangsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyambisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naadem Yipala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kassena Nankana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kandiga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aduradoone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alaskadoone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dapoori No.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dapoori No. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doctor-Nurom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guuson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pogteengo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apera-Bia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayanabia Gugoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katiu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saboro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampusongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wurunia Yidania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kajenwala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sazona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sirigu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amutanga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buru/Nakol/Navor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakolo Kampwolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asunia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dazongo Aturadoone A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soganania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alabredoone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LongoTindoogo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumogladoone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anisoore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayuuribisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aworbokam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atibabiisi-Mogchaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirugu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atangadoone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adasongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakolo Kasile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zunko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anyanabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenzongu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atosale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yidania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yidania Kinkania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadognia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atia-Kadania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agoliyadoone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pusiga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakom/Zuobuliga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dabia Lalsaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dabia Zullugu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naranin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yaranatinga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madgu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugudi/Zong-Natiga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moshin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poanaba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Widana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yariga 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zong - Natinga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugudi-Simi Natinga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kulungugu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kultamise Nware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sangabuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tambiogo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garu Tempane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kpikpira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nambina 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worikambo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kugraogo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gotulsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denugu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankadiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bantafarugu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beantis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugrikwan/Yapala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jabdawur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jankwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabakwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanbongankwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kukbulig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunakwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tondankwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tubong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kugri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atamodabod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atampuudabod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gbangranteng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getuasig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kpatua 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malgaboug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinyua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siisi-Nadigri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tankpasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waskukwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zaazua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gagbiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kugaseigu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kariyata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pilogo-Malanten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sakpanateng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zumandiga No.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gbetusig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melgabod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vambara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngmaadug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zumadiga A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laarikwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tambona No. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sukrokoun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kukose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tankpasi-Busanteng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benguri No.1</t>
   </si>
 </sst>
 </file>
@@ -5051,6 +5774,5552 @@
       </c>
       <c r="J135"/>
     </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1</v>
+      </c>
+      <c r="B136" t="s">
+        <v>212</v>
+      </c>
+      <c r="C136" t="s">
+        <v>213</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" t="s">
+        <v>214</v>
+      </c>
+      <c r="F136" t="n">
+        <v>197</v>
+      </c>
+      <c r="G136" t="n">
+        <v>20</v>
+      </c>
+      <c r="H136" t="n">
+        <v>20</v>
+      </c>
+      <c r="I136" t="n">
+        <v>29</v>
+      </c>
+      <c r="J136" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>2</v>
+      </c>
+      <c r="B137" t="s">
+        <v>212</v>
+      </c>
+      <c r="C137" t="s">
+        <v>213</v>
+      </c>
+      <c r="D137" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" t="s">
+        <v>215</v>
+      </c>
+      <c r="F137" t="n">
+        <v>143</v>
+      </c>
+      <c r="G137" t="n">
+        <v>18</v>
+      </c>
+      <c r="H137" t="n">
+        <v>18</v>
+      </c>
+      <c r="I137" t="n">
+        <v>18</v>
+      </c>
+      <c r="J137"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>3</v>
+      </c>
+      <c r="B138" t="s">
+        <v>212</v>
+      </c>
+      <c r="C138" t="s">
+        <v>216</v>
+      </c>
+      <c r="D138" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" t="s">
+        <v>217</v>
+      </c>
+      <c r="F138" t="n">
+        <v>316</v>
+      </c>
+      <c r="G138" t="n">
+        <v>41</v>
+      </c>
+      <c r="H138" t="n">
+        <v>41</v>
+      </c>
+      <c r="I138" t="n">
+        <v>15</v>
+      </c>
+      <c r="J138"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>4</v>
+      </c>
+      <c r="B139" t="s">
+        <v>212</v>
+      </c>
+      <c r="C139" t="s">
+        <v>218</v>
+      </c>
+      <c r="D139" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" t="s">
+        <v>219</v>
+      </c>
+      <c r="F139" t="n">
+        <v>149</v>
+      </c>
+      <c r="G139" t="n">
+        <v>22</v>
+      </c>
+      <c r="H139" t="n">
+        <v>22</v>
+      </c>
+      <c r="I139" t="n">
+        <v>22</v>
+      </c>
+      <c r="J139"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>5</v>
+      </c>
+      <c r="B140" t="s">
+        <v>212</v>
+      </c>
+      <c r="C140" t="s">
+        <v>218</v>
+      </c>
+      <c r="D140" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" t="s">
+        <v>220</v>
+      </c>
+      <c r="F140" t="n">
+        <v>214</v>
+      </c>
+      <c r="G140" t="n">
+        <v>30</v>
+      </c>
+      <c r="H140" t="n">
+        <v>30</v>
+      </c>
+      <c r="I140" t="n">
+        <v>30</v>
+      </c>
+      <c r="J140"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>6</v>
+      </c>
+      <c r="B141" t="s">
+        <v>212</v>
+      </c>
+      <c r="C141" t="s">
+        <v>218</v>
+      </c>
+      <c r="D141" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" t="s">
+        <v>221</v>
+      </c>
+      <c r="F141" t="n">
+        <v>220</v>
+      </c>
+      <c r="G141" t="n">
+        <v>28</v>
+      </c>
+      <c r="H141" t="n">
+        <v>28</v>
+      </c>
+      <c r="I141" t="n">
+        <v>28</v>
+      </c>
+      <c r="J141"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>7</v>
+      </c>
+      <c r="B142" t="s">
+        <v>212</v>
+      </c>
+      <c r="C142" t="s">
+        <v>218</v>
+      </c>
+      <c r="D142" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" t="s">
+        <v>222</v>
+      </c>
+      <c r="F142" t="n">
+        <v>335</v>
+      </c>
+      <c r="G142" t="n">
+        <v>40</v>
+      </c>
+      <c r="H142" t="n">
+        <v>40</v>
+      </c>
+      <c r="I142" t="n">
+        <v>39</v>
+      </c>
+      <c r="J142"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>8</v>
+      </c>
+      <c r="B143" t="s">
+        <v>212</v>
+      </c>
+      <c r="C143" t="s">
+        <v>218</v>
+      </c>
+      <c r="D143" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" t="s">
+        <v>223</v>
+      </c>
+      <c r="F143" t="n">
+        <v>235</v>
+      </c>
+      <c r="G143" t="n">
+        <v>32</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>30</v>
+      </c>
+      <c r="J143"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>9</v>
+      </c>
+      <c r="B144" t="s">
+        <v>212</v>
+      </c>
+      <c r="C144" t="s">
+        <v>224</v>
+      </c>
+      <c r="D144" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" t="s">
+        <v>225</v>
+      </c>
+      <c r="F144"/>
+      <c r="G144" t="n">
+        <v>57</v>
+      </c>
+      <c r="H144" t="n">
+        <v>55</v>
+      </c>
+      <c r="I144" t="n">
+        <v>55</v>
+      </c>
+      <c r="J144"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>10</v>
+      </c>
+      <c r="B145" t="s">
+        <v>212</v>
+      </c>
+      <c r="C145" t="s">
+        <v>224</v>
+      </c>
+      <c r="D145" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145" t="s">
+        <v>226</v>
+      </c>
+      <c r="F145"/>
+      <c r="G145" t="n">
+        <v>67</v>
+      </c>
+      <c r="H145" t="n">
+        <v>67</v>
+      </c>
+      <c r="I145" t="n">
+        <v>67</v>
+      </c>
+      <c r="J145"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>11</v>
+      </c>
+      <c r="B146" t="s">
+        <v>212</v>
+      </c>
+      <c r="C146" t="s">
+        <v>213</v>
+      </c>
+      <c r="D146" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" t="s">
+        <v>227</v>
+      </c>
+      <c r="F146" t="n">
+        <v>208</v>
+      </c>
+      <c r="G146" t="n">
+        <v>39</v>
+      </c>
+      <c r="H146" t="n">
+        <v>38</v>
+      </c>
+      <c r="I146" t="n">
+        <v>38</v>
+      </c>
+      <c r="J146"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>12</v>
+      </c>
+      <c r="B147" t="s">
+        <v>212</v>
+      </c>
+      <c r="C147" t="s">
+        <v>213</v>
+      </c>
+      <c r="D147" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147" t="s">
+        <v>228</v>
+      </c>
+      <c r="F147" t="n">
+        <v>480</v>
+      </c>
+      <c r="G147"/>
+      <c r="H147"/>
+      <c r="I147"/>
+      <c r="J147"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>13</v>
+      </c>
+      <c r="B148" t="s">
+        <v>212</v>
+      </c>
+      <c r="C148" t="s">
+        <v>229</v>
+      </c>
+      <c r="D148" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" t="s">
+        <v>230</v>
+      </c>
+      <c r="F148" t="n">
+        <v>386</v>
+      </c>
+      <c r="G148"/>
+      <c r="H148"/>
+      <c r="I148"/>
+      <c r="J148"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>14</v>
+      </c>
+      <c r="B149" t="s">
+        <v>212</v>
+      </c>
+      <c r="C149" t="s">
+        <v>216</v>
+      </c>
+      <c r="D149" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" t="s">
+        <v>231</v>
+      </c>
+      <c r="F149" t="n">
+        <v>205</v>
+      </c>
+      <c r="G149" t="n">
+        <v>29</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149"/>
+      <c r="J149"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>15</v>
+      </c>
+      <c r="B150" t="s">
+        <v>212</v>
+      </c>
+      <c r="C150" t="s">
+        <v>232</v>
+      </c>
+      <c r="D150" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" t="s">
+        <v>233</v>
+      </c>
+      <c r="F150" t="n">
+        <v>208</v>
+      </c>
+      <c r="G150" t="n">
+        <v>39</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>16</v>
+      </c>
+      <c r="B151" t="s">
+        <v>234</v>
+      </c>
+      <c r="C151" t="s">
+        <v>235</v>
+      </c>
+      <c r="D151" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" t="s">
+        <v>236</v>
+      </c>
+      <c r="F151" t="n">
+        <v>153</v>
+      </c>
+      <c r="G151" t="n">
+        <v>15</v>
+      </c>
+      <c r="H151" t="n">
+        <v>15</v>
+      </c>
+      <c r="I151" t="n">
+        <v>15</v>
+      </c>
+      <c r="J151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>17</v>
+      </c>
+      <c r="B152" t="s">
+        <v>234</v>
+      </c>
+      <c r="C152" t="s">
+        <v>235</v>
+      </c>
+      <c r="D152" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152" t="s">
+        <v>237</v>
+      </c>
+      <c r="F152" t="n">
+        <v>500</v>
+      </c>
+      <c r="G152" t="n">
+        <v>42</v>
+      </c>
+      <c r="H152" t="n">
+        <v>47</v>
+      </c>
+      <c r="I152" t="n">
+        <v>47</v>
+      </c>
+      <c r="J152"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>18</v>
+      </c>
+      <c r="B153" t="s">
+        <v>234</v>
+      </c>
+      <c r="C153" t="s">
+        <v>235</v>
+      </c>
+      <c r="D153" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" t="s">
+        <v>238</v>
+      </c>
+      <c r="F153" t="n">
+        <v>470</v>
+      </c>
+      <c r="G153" t="n">
+        <v>41</v>
+      </c>
+      <c r="H153" t="n">
+        <v>41</v>
+      </c>
+      <c r="I153" t="n">
+        <v>41</v>
+      </c>
+      <c r="J153"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>19</v>
+      </c>
+      <c r="B154" t="s">
+        <v>234</v>
+      </c>
+      <c r="C154" t="s">
+        <v>239</v>
+      </c>
+      <c r="D154" t="s">
+        <v>12</v>
+      </c>
+      <c r="E154" t="s">
+        <v>240</v>
+      </c>
+      <c r="F154" t="n">
+        <v>490</v>
+      </c>
+      <c r="G154" t="n">
+        <v>26</v>
+      </c>
+      <c r="H154" t="n">
+        <v>22</v>
+      </c>
+      <c r="I154" t="n">
+        <v>25</v>
+      </c>
+      <c r="J154"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>20</v>
+      </c>
+      <c r="B155" t="s">
+        <v>234</v>
+      </c>
+      <c r="C155" t="s">
+        <v>235</v>
+      </c>
+      <c r="D155" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155" t="s">
+        <v>241</v>
+      </c>
+      <c r="F155" t="n">
+        <v>128</v>
+      </c>
+      <c r="G155" t="n">
+        <v>18</v>
+      </c>
+      <c r="H155" t="n">
+        <v>18</v>
+      </c>
+      <c r="I155" t="n">
+        <v>18</v>
+      </c>
+      <c r="J155"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>21</v>
+      </c>
+      <c r="B156" t="s">
+        <v>234</v>
+      </c>
+      <c r="C156" t="s">
+        <v>235</v>
+      </c>
+      <c r="D156" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156" t="s">
+        <v>242</v>
+      </c>
+      <c r="F156" t="n">
+        <v>326</v>
+      </c>
+      <c r="G156" t="n">
+        <v>18</v>
+      </c>
+      <c r="H156" t="n">
+        <v>17</v>
+      </c>
+      <c r="I156" t="n">
+        <v>18</v>
+      </c>
+      <c r="J156"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>22</v>
+      </c>
+      <c r="B157" t="s">
+        <v>243</v>
+      </c>
+      <c r="C157" t="s">
+        <v>244</v>
+      </c>
+      <c r="D157" t="s">
+        <v>12</v>
+      </c>
+      <c r="E157" t="s">
+        <v>245</v>
+      </c>
+      <c r="F157" t="n">
+        <v>460</v>
+      </c>
+      <c r="G157" t="n">
+        <v>41</v>
+      </c>
+      <c r="H157" t="n">
+        <v>41</v>
+      </c>
+      <c r="I157" t="n">
+        <v>41</v>
+      </c>
+      <c r="J157" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>23</v>
+      </c>
+      <c r="B158" t="s">
+        <v>243</v>
+      </c>
+      <c r="C158" t="s">
+        <v>244</v>
+      </c>
+      <c r="D158" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158" t="s">
+        <v>246</v>
+      </c>
+      <c r="F158" t="n">
+        <v>387</v>
+      </c>
+      <c r="G158" t="n">
+        <v>32</v>
+      </c>
+      <c r="H158" t="n">
+        <v>32</v>
+      </c>
+      <c r="I158" t="n">
+        <v>32</v>
+      </c>
+      <c r="J158"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>24</v>
+      </c>
+      <c r="B159" t="s">
+        <v>243</v>
+      </c>
+      <c r="C159" t="s">
+        <v>244</v>
+      </c>
+      <c r="D159" t="s">
+        <v>12</v>
+      </c>
+      <c r="E159" t="s">
+        <v>247</v>
+      </c>
+      <c r="F159" t="n">
+        <v>644</v>
+      </c>
+      <c r="G159" t="n">
+        <v>82</v>
+      </c>
+      <c r="H159" t="n">
+        <v>82</v>
+      </c>
+      <c r="I159" t="n">
+        <v>82</v>
+      </c>
+      <c r="J159"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>25</v>
+      </c>
+      <c r="B160" t="s">
+        <v>243</v>
+      </c>
+      <c r="C160" t="s">
+        <v>244</v>
+      </c>
+      <c r="D160" t="s">
+        <v>12</v>
+      </c>
+      <c r="E160" t="s">
+        <v>248</v>
+      </c>
+      <c r="F160" t="n">
+        <v>577</v>
+      </c>
+      <c r="G160" t="n">
+        <v>63</v>
+      </c>
+      <c r="H160" t="n">
+        <v>62</v>
+      </c>
+      <c r="I160" t="n">
+        <v>63</v>
+      </c>
+      <c r="J160"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>26</v>
+      </c>
+      <c r="B161" t="s">
+        <v>243</v>
+      </c>
+      <c r="C161" t="s">
+        <v>244</v>
+      </c>
+      <c r="D161" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161" t="s">
+        <v>249</v>
+      </c>
+      <c r="F161" t="n">
+        <v>349</v>
+      </c>
+      <c r="G161" t="n">
+        <v>52</v>
+      </c>
+      <c r="H161" t="n">
+        <v>52</v>
+      </c>
+      <c r="I161" t="n">
+        <v>52</v>
+      </c>
+      <c r="J161"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>27</v>
+      </c>
+      <c r="B162" t="s">
+        <v>243</v>
+      </c>
+      <c r="C162" t="s">
+        <v>244</v>
+      </c>
+      <c r="D162" t="s">
+        <v>12</v>
+      </c>
+      <c r="E162" t="s">
+        <v>250</v>
+      </c>
+      <c r="F162" t="n">
+        <v>876</v>
+      </c>
+      <c r="G162" t="n">
+        <v>70</v>
+      </c>
+      <c r="H162" t="n">
+        <v>70</v>
+      </c>
+      <c r="I162" t="n">
+        <v>70</v>
+      </c>
+      <c r="J162"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>28</v>
+      </c>
+      <c r="B163" t="s">
+        <v>243</v>
+      </c>
+      <c r="C163" t="s">
+        <v>244</v>
+      </c>
+      <c r="D163" t="s">
+        <v>12</v>
+      </c>
+      <c r="E163" t="s">
+        <v>251</v>
+      </c>
+      <c r="F163" t="n">
+        <v>457</v>
+      </c>
+      <c r="G163" t="n">
+        <v>19</v>
+      </c>
+      <c r="H163" t="n">
+        <v>19</v>
+      </c>
+      <c r="I163" t="n">
+        <v>19</v>
+      </c>
+      <c r="J163"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>29</v>
+      </c>
+      <c r="B164" t="s">
+        <v>243</v>
+      </c>
+      <c r="C164" t="s">
+        <v>243</v>
+      </c>
+      <c r="D164" t="s">
+        <v>12</v>
+      </c>
+      <c r="E164" t="s">
+        <v>252</v>
+      </c>
+      <c r="F164" t="n">
+        <v>451</v>
+      </c>
+      <c r="G164" t="n">
+        <v>43</v>
+      </c>
+      <c r="H164" t="n">
+        <v>43</v>
+      </c>
+      <c r="I164" t="n">
+        <v>43</v>
+      </c>
+      <c r="J164"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>30</v>
+      </c>
+      <c r="B165" t="s">
+        <v>243</v>
+      </c>
+      <c r="C165" t="s">
+        <v>243</v>
+      </c>
+      <c r="D165" t="s">
+        <v>12</v>
+      </c>
+      <c r="E165" t="s">
+        <v>253</v>
+      </c>
+      <c r="F165" t="n">
+        <v>324</v>
+      </c>
+      <c r="G165" t="n">
+        <v>42</v>
+      </c>
+      <c r="H165" t="n">
+        <v>42</v>
+      </c>
+      <c r="I165" t="n">
+        <v>42</v>
+      </c>
+      <c r="J165"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>31</v>
+      </c>
+      <c r="B166" t="s">
+        <v>243</v>
+      </c>
+      <c r="C166" t="s">
+        <v>243</v>
+      </c>
+      <c r="D166" t="s">
+        <v>12</v>
+      </c>
+      <c r="E166" t="s">
+        <v>254</v>
+      </c>
+      <c r="F166" t="n">
+        <v>501</v>
+      </c>
+      <c r="G166" t="n">
+        <v>103</v>
+      </c>
+      <c r="H166" t="n">
+        <v>103</v>
+      </c>
+      <c r="I166" t="n">
+        <v>103</v>
+      </c>
+      <c r="J166"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>32</v>
+      </c>
+      <c r="B167" t="s">
+        <v>243</v>
+      </c>
+      <c r="C167" t="s">
+        <v>243</v>
+      </c>
+      <c r="D167" t="s">
+        <v>12</v>
+      </c>
+      <c r="E167" t="s">
+        <v>255</v>
+      </c>
+      <c r="F167" t="n">
+        <v>519</v>
+      </c>
+      <c r="G167" t="n">
+        <v>56</v>
+      </c>
+      <c r="H167" t="n">
+        <v>56</v>
+      </c>
+      <c r="I167" t="n">
+        <v>56</v>
+      </c>
+      <c r="J167"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>33</v>
+      </c>
+      <c r="B168" t="s">
+        <v>243</v>
+      </c>
+      <c r="C168" t="s">
+        <v>256</v>
+      </c>
+      <c r="D168" t="s">
+        <v>12</v>
+      </c>
+      <c r="E168" t="s">
+        <v>257</v>
+      </c>
+      <c r="F168" t="n">
+        <v>380</v>
+      </c>
+      <c r="G168" t="n">
+        <v>100</v>
+      </c>
+      <c r="H168" t="n">
+        <v>100</v>
+      </c>
+      <c r="I168" t="n">
+        <v>100</v>
+      </c>
+      <c r="J168"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>34</v>
+      </c>
+      <c r="B169" t="s">
+        <v>243</v>
+      </c>
+      <c r="C169" t="s">
+        <v>256</v>
+      </c>
+      <c r="D169" t="s">
+        <v>12</v>
+      </c>
+      <c r="E169" t="s">
+        <v>258</v>
+      </c>
+      <c r="F169" t="n">
+        <v>998</v>
+      </c>
+      <c r="G169" t="n">
+        <v>185</v>
+      </c>
+      <c r="H169" t="n">
+        <v>185</v>
+      </c>
+      <c r="I169" t="n">
+        <v>185</v>
+      </c>
+      <c r="J169"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>35</v>
+      </c>
+      <c r="B170" t="s">
+        <v>243</v>
+      </c>
+      <c r="C170" t="s">
+        <v>256</v>
+      </c>
+      <c r="D170" t="s">
+        <v>12</v>
+      </c>
+      <c r="E170" t="s">
+        <v>259</v>
+      </c>
+      <c r="F170" t="n">
+        <v>665</v>
+      </c>
+      <c r="G170" t="n">
+        <v>44</v>
+      </c>
+      <c r="H170" t="n">
+        <v>44</v>
+      </c>
+      <c r="I170" t="n">
+        <v>44</v>
+      </c>
+      <c r="J170"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>36</v>
+      </c>
+      <c r="B171" t="s">
+        <v>243</v>
+      </c>
+      <c r="C171" t="s">
+        <v>256</v>
+      </c>
+      <c r="D171" t="s">
+        <v>12</v>
+      </c>
+      <c r="E171" t="s">
+        <v>260</v>
+      </c>
+      <c r="F171" t="n">
+        <v>218</v>
+      </c>
+      <c r="G171" t="n">
+        <v>26</v>
+      </c>
+      <c r="H171" t="n">
+        <v>26</v>
+      </c>
+      <c r="I171" t="n">
+        <v>26</v>
+      </c>
+      <c r="J171"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>37</v>
+      </c>
+      <c r="B172" t="s">
+        <v>243</v>
+      </c>
+      <c r="C172" t="s">
+        <v>256</v>
+      </c>
+      <c r="D172" t="s">
+        <v>12</v>
+      </c>
+      <c r="E172" t="s">
+        <v>261</v>
+      </c>
+      <c r="F172" t="n">
+        <v>207</v>
+      </c>
+      <c r="G172" t="n">
+        <v>54</v>
+      </c>
+      <c r="H172" t="n">
+        <v>54</v>
+      </c>
+      <c r="I172" t="n">
+        <v>54</v>
+      </c>
+      <c r="J172"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>38</v>
+      </c>
+      <c r="B173" t="s">
+        <v>243</v>
+      </c>
+      <c r="C173" t="s">
+        <v>256</v>
+      </c>
+      <c r="D173" t="s">
+        <v>12</v>
+      </c>
+      <c r="E173" t="s">
+        <v>262</v>
+      </c>
+      <c r="F173" t="n">
+        <v>220</v>
+      </c>
+      <c r="G173" t="n">
+        <v>27</v>
+      </c>
+      <c r="H173" t="n">
+        <v>27</v>
+      </c>
+      <c r="I173" t="n">
+        <v>27</v>
+      </c>
+      <c r="J173"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>39</v>
+      </c>
+      <c r="B174" t="s">
+        <v>243</v>
+      </c>
+      <c r="C174" t="s">
+        <v>256</v>
+      </c>
+      <c r="D174" t="s">
+        <v>12</v>
+      </c>
+      <c r="E174" t="s">
+        <v>263</v>
+      </c>
+      <c r="F174" t="n">
+        <v>656</v>
+      </c>
+      <c r="G174" t="n">
+        <v>130</v>
+      </c>
+      <c r="H174" t="n">
+        <v>130</v>
+      </c>
+      <c r="I174" t="n">
+        <v>130</v>
+      </c>
+      <c r="J174"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>40</v>
+      </c>
+      <c r="B175" t="s">
+        <v>243</v>
+      </c>
+      <c r="C175" t="s">
+        <v>244</v>
+      </c>
+      <c r="D175" t="s">
+        <v>12</v>
+      </c>
+      <c r="E175" t="s">
+        <v>264</v>
+      </c>
+      <c r="F175" t="n">
+        <v>400</v>
+      </c>
+      <c r="G175" t="n">
+        <v>67</v>
+      </c>
+      <c r="H175" t="n">
+        <v>67</v>
+      </c>
+      <c r="I175" t="n">
+        <v>67</v>
+      </c>
+      <c r="J175"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>41</v>
+      </c>
+      <c r="B176" t="s">
+        <v>243</v>
+      </c>
+      <c r="C176" t="s">
+        <v>265</v>
+      </c>
+      <c r="D176" t="s">
+        <v>12</v>
+      </c>
+      <c r="E176" t="s">
+        <v>266</v>
+      </c>
+      <c r="F176" t="n">
+        <v>381</v>
+      </c>
+      <c r="G176" t="n">
+        <v>23</v>
+      </c>
+      <c r="H176" t="n">
+        <v>23</v>
+      </c>
+      <c r="I176" t="n">
+        <v>23</v>
+      </c>
+      <c r="J176"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>42</v>
+      </c>
+      <c r="B177" t="s">
+        <v>243</v>
+      </c>
+      <c r="C177" t="s">
+        <v>256</v>
+      </c>
+      <c r="D177" t="s">
+        <v>12</v>
+      </c>
+      <c r="E177" t="s">
+        <v>267</v>
+      </c>
+      <c r="F177" t="n">
+        <v>796</v>
+      </c>
+      <c r="G177" t="n">
+        <v>109</v>
+      </c>
+      <c r="H177" t="n">
+        <v>109</v>
+      </c>
+      <c r="I177" t="n">
+        <v>109</v>
+      </c>
+      <c r="J177"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>43</v>
+      </c>
+      <c r="B178" t="s">
+        <v>243</v>
+      </c>
+      <c r="C178" t="s">
+        <v>256</v>
+      </c>
+      <c r="D178" t="s">
+        <v>12</v>
+      </c>
+      <c r="E178" t="s">
+        <v>268</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1660</v>
+      </c>
+      <c r="G178" t="n">
+        <v>102</v>
+      </c>
+      <c r="H178" t="n">
+        <v>102</v>
+      </c>
+      <c r="I178" t="n">
+        <v>102</v>
+      </c>
+      <c r="J178"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>44</v>
+      </c>
+      <c r="B179" t="s">
+        <v>243</v>
+      </c>
+      <c r="C179" t="s">
+        <v>256</v>
+      </c>
+      <c r="D179" t="s">
+        <v>12</v>
+      </c>
+      <c r="E179" t="s">
+        <v>269</v>
+      </c>
+      <c r="F179" t="n">
+        <v>450</v>
+      </c>
+      <c r="G179" t="n">
+        <v>48</v>
+      </c>
+      <c r="H179" t="n">
+        <v>48</v>
+      </c>
+      <c r="I179" t="n">
+        <v>48</v>
+      </c>
+      <c r="J179"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>45</v>
+      </c>
+      <c r="B180" t="s">
+        <v>243</v>
+      </c>
+      <c r="C180" t="s">
+        <v>256</v>
+      </c>
+      <c r="D180" t="s">
+        <v>12</v>
+      </c>
+      <c r="E180" t="s">
+        <v>270</v>
+      </c>
+      <c r="F180" t="n">
+        <v>335</v>
+      </c>
+      <c r="G180" t="n">
+        <v>68</v>
+      </c>
+      <c r="H180" t="n">
+        <v>68</v>
+      </c>
+      <c r="I180" t="n">
+        <v>68</v>
+      </c>
+      <c r="J180"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>46</v>
+      </c>
+      <c r="B181" t="s">
+        <v>243</v>
+      </c>
+      <c r="C181" t="s">
+        <v>244</v>
+      </c>
+      <c r="D181" t="s">
+        <v>12</v>
+      </c>
+      <c r="E181" t="s">
+        <v>271</v>
+      </c>
+      <c r="F181" t="n">
+        <v>203</v>
+      </c>
+      <c r="G181" t="n">
+        <v>10</v>
+      </c>
+      <c r="H181" t="n">
+        <v>10</v>
+      </c>
+      <c r="I181" t="n">
+        <v>10</v>
+      </c>
+      <c r="J181"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>47</v>
+      </c>
+      <c r="B182" t="s">
+        <v>243</v>
+      </c>
+      <c r="C182" t="s">
+        <v>243</v>
+      </c>
+      <c r="D182" t="s">
+        <v>12</v>
+      </c>
+      <c r="E182" t="s">
+        <v>272</v>
+      </c>
+      <c r="F182" t="n">
+        <v>945</v>
+      </c>
+      <c r="G182" t="n">
+        <v>183</v>
+      </c>
+      <c r="H182" t="n">
+        <v>183</v>
+      </c>
+      <c r="I182" t="n">
+        <v>183</v>
+      </c>
+      <c r="J182"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>48</v>
+      </c>
+      <c r="B183" t="s">
+        <v>243</v>
+      </c>
+      <c r="C183" t="s">
+        <v>243</v>
+      </c>
+      <c r="D183" t="s">
+        <v>12</v>
+      </c>
+      <c r="E183" t="s">
+        <v>273</v>
+      </c>
+      <c r="F183" t="n">
+        <v>400</v>
+      </c>
+      <c r="G183" t="n">
+        <v>134</v>
+      </c>
+      <c r="H183" t="n">
+        <v>134</v>
+      </c>
+      <c r="I183" t="n">
+        <v>134</v>
+      </c>
+      <c r="J183"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>49</v>
+      </c>
+      <c r="B184" t="s">
+        <v>243</v>
+      </c>
+      <c r="C184" t="s">
+        <v>60</v>
+      </c>
+      <c r="D184" t="s">
+        <v>12</v>
+      </c>
+      <c r="E184" t="s">
+        <v>274</v>
+      </c>
+      <c r="F184"/>
+      <c r="G184"/>
+      <c r="H184"/>
+      <c r="I184"/>
+      <c r="J184"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>50</v>
+      </c>
+      <c r="B185" t="s">
+        <v>243</v>
+      </c>
+      <c r="C185" t="s">
+        <v>60</v>
+      </c>
+      <c r="D185" t="s">
+        <v>12</v>
+      </c>
+      <c r="E185" t="s">
+        <v>275</v>
+      </c>
+      <c r="F185"/>
+      <c r="G185"/>
+      <c r="H185"/>
+      <c r="I185"/>
+      <c r="J185"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>51</v>
+      </c>
+      <c r="B186" t="s">
+        <v>276</v>
+      </c>
+      <c r="C186" t="s">
+        <v>277</v>
+      </c>
+      <c r="D186" t="s">
+        <v>12</v>
+      </c>
+      <c r="E186" t="s">
+        <v>278</v>
+      </c>
+      <c r="F186" t="n">
+        <v>150</v>
+      </c>
+      <c r="G186" t="n">
+        <v>34</v>
+      </c>
+      <c r="H186" t="n">
+        <v>34</v>
+      </c>
+      <c r="I186" t="n">
+        <v>34</v>
+      </c>
+      <c r="J186" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>52</v>
+      </c>
+      <c r="B187" t="s">
+        <v>276</v>
+      </c>
+      <c r="C187" t="s">
+        <v>279</v>
+      </c>
+      <c r="D187" t="s">
+        <v>12</v>
+      </c>
+      <c r="E187" t="s">
+        <v>280</v>
+      </c>
+      <c r="F187" t="n">
+        <v>140</v>
+      </c>
+      <c r="G187" t="n">
+        <v>15</v>
+      </c>
+      <c r="H187" t="n">
+        <v>15</v>
+      </c>
+      <c r="I187" t="n">
+        <v>15</v>
+      </c>
+      <c r="J187"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>53</v>
+      </c>
+      <c r="B188" t="s">
+        <v>276</v>
+      </c>
+      <c r="C188" t="s">
+        <v>276</v>
+      </c>
+      <c r="D188" t="s">
+        <v>12</v>
+      </c>
+      <c r="E188" t="s">
+        <v>281</v>
+      </c>
+      <c r="F188" t="n">
+        <v>170</v>
+      </c>
+      <c r="G188" t="n">
+        <v>19</v>
+      </c>
+      <c r="H188" t="n">
+        <v>19</v>
+      </c>
+      <c r="I188" t="n">
+        <v>19</v>
+      </c>
+      <c r="J188"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>54</v>
+      </c>
+      <c r="B189" t="s">
+        <v>276</v>
+      </c>
+      <c r="C189" t="s">
+        <v>282</v>
+      </c>
+      <c r="D189" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189" t="s">
+        <v>283</v>
+      </c>
+      <c r="F189" t="n">
+        <v>163</v>
+      </c>
+      <c r="G189" t="n">
+        <v>36</v>
+      </c>
+      <c r="H189" t="n">
+        <v>36</v>
+      </c>
+      <c r="I189" t="n">
+        <v>36</v>
+      </c>
+      <c r="J189"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>55</v>
+      </c>
+      <c r="B190" t="s">
+        <v>276</v>
+      </c>
+      <c r="C190" t="s">
+        <v>282</v>
+      </c>
+      <c r="D190" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190" t="s">
+        <v>284</v>
+      </c>
+      <c r="F190" t="n">
+        <v>211</v>
+      </c>
+      <c r="G190" t="n">
+        <v>24</v>
+      </c>
+      <c r="H190" t="n">
+        <v>7</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>56</v>
+      </c>
+      <c r="B191" t="s">
+        <v>276</v>
+      </c>
+      <c r="C191" t="s">
+        <v>285</v>
+      </c>
+      <c r="D191" t="s">
+        <v>12</v>
+      </c>
+      <c r="E191" t="s">
+        <v>286</v>
+      </c>
+      <c r="F191" t="n">
+        <v>87</v>
+      </c>
+      <c r="G191" t="n">
+        <v>24</v>
+      </c>
+      <c r="H191" t="n">
+        <v>24</v>
+      </c>
+      <c r="I191" t="n">
+        <v>24</v>
+      </c>
+      <c r="J191"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>57</v>
+      </c>
+      <c r="B192" t="s">
+        <v>276</v>
+      </c>
+      <c r="C192" t="s">
+        <v>285</v>
+      </c>
+      <c r="D192" t="s">
+        <v>12</v>
+      </c>
+      <c r="E192" t="s">
+        <v>287</v>
+      </c>
+      <c r="F192" t="n">
+        <v>234</v>
+      </c>
+      <c r="G192"/>
+      <c r="H192" t="n">
+        <v>4</v>
+      </c>
+      <c r="I192"/>
+      <c r="J192"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>58</v>
+      </c>
+      <c r="B193" t="s">
+        <v>276</v>
+      </c>
+      <c r="C193" t="s">
+        <v>279</v>
+      </c>
+      <c r="D193" t="s">
+        <v>12</v>
+      </c>
+      <c r="E193" t="s">
+        <v>288</v>
+      </c>
+      <c r="F193" t="n">
+        <v>150</v>
+      </c>
+      <c r="G193" t="n">
+        <v>20</v>
+      </c>
+      <c r="H193" t="n">
+        <v>20</v>
+      </c>
+      <c r="I193" t="n">
+        <v>20</v>
+      </c>
+      <c r="J193"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>59</v>
+      </c>
+      <c r="B194" t="s">
+        <v>276</v>
+      </c>
+      <c r="C194" t="s">
+        <v>277</v>
+      </c>
+      <c r="D194" t="s">
+        <v>12</v>
+      </c>
+      <c r="E194" t="s">
+        <v>289</v>
+      </c>
+      <c r="F194" t="n">
+        <v>184</v>
+      </c>
+      <c r="G194" t="n">
+        <v>24</v>
+      </c>
+      <c r="H194" t="n">
+        <v>24</v>
+      </c>
+      <c r="I194" t="n">
+        <v>24</v>
+      </c>
+      <c r="J194"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>60</v>
+      </c>
+      <c r="B195" t="s">
+        <v>276</v>
+      </c>
+      <c r="C195" t="s">
+        <v>290</v>
+      </c>
+      <c r="D195" t="s">
+        <v>12</v>
+      </c>
+      <c r="E195" t="s">
+        <v>291</v>
+      </c>
+      <c r="F195" t="n">
+        <v>295</v>
+      </c>
+      <c r="G195" t="n">
+        <v>23</v>
+      </c>
+      <c r="H195" t="n">
+        <v>23</v>
+      </c>
+      <c r="I195" t="n">
+        <v>23</v>
+      </c>
+      <c r="J195"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>61</v>
+      </c>
+      <c r="B196" t="s">
+        <v>276</v>
+      </c>
+      <c r="C196" t="s">
+        <v>285</v>
+      </c>
+      <c r="D196" t="s">
+        <v>12</v>
+      </c>
+      <c r="E196" t="s">
+        <v>292</v>
+      </c>
+      <c r="F196" t="n">
+        <v>171</v>
+      </c>
+      <c r="G196" t="n">
+        <v>32</v>
+      </c>
+      <c r="H196" t="n">
+        <v>18</v>
+      </c>
+      <c r="I196" t="n">
+        <v>32</v>
+      </c>
+      <c r="J196"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>62</v>
+      </c>
+      <c r="B197" t="s">
+        <v>276</v>
+      </c>
+      <c r="C197" t="s">
+        <v>60</v>
+      </c>
+      <c r="D197" t="s">
+        <v>12</v>
+      </c>
+      <c r="E197" t="s">
+        <v>293</v>
+      </c>
+      <c r="F197" t="n">
+        <v>215</v>
+      </c>
+      <c r="G197" t="n">
+        <v>20</v>
+      </c>
+      <c r="H197" t="n">
+        <v>20</v>
+      </c>
+      <c r="I197" t="n">
+        <v>20</v>
+      </c>
+      <c r="J197"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>63</v>
+      </c>
+      <c r="B198" t="s">
+        <v>276</v>
+      </c>
+      <c r="C198" t="s">
+        <v>60</v>
+      </c>
+      <c r="D198" t="s">
+        <v>12</v>
+      </c>
+      <c r="E198" t="s">
+        <v>294</v>
+      </c>
+      <c r="F198" t="n">
+        <v>234</v>
+      </c>
+      <c r="G198" t="n">
+        <v>17</v>
+      </c>
+      <c r="H198" t="n">
+        <v>17</v>
+      </c>
+      <c r="I198" t="n">
+        <v>17</v>
+      </c>
+      <c r="J198"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>64</v>
+      </c>
+      <c r="B199" t="s">
+        <v>295</v>
+      </c>
+      <c r="C199" t="s">
+        <v>296</v>
+      </c>
+      <c r="D199" t="s">
+        <v>12</v>
+      </c>
+      <c r="E199" t="s">
+        <v>297</v>
+      </c>
+      <c r="F199" t="n">
+        <v>171</v>
+      </c>
+      <c r="G199" t="n">
+        <v>44</v>
+      </c>
+      <c r="H199" t="n">
+        <v>44</v>
+      </c>
+      <c r="I199" t="n">
+        <v>44</v>
+      </c>
+      <c r="J199" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>65</v>
+      </c>
+      <c r="B200" t="s">
+        <v>295</v>
+      </c>
+      <c r="C200" t="s">
+        <v>298</v>
+      </c>
+      <c r="D200" t="s">
+        <v>12</v>
+      </c>
+      <c r="E200" t="s">
+        <v>299</v>
+      </c>
+      <c r="F200" t="n">
+        <v>321</v>
+      </c>
+      <c r="G200" t="n">
+        <v>27</v>
+      </c>
+      <c r="H200" t="n">
+        <v>27</v>
+      </c>
+      <c r="I200" t="n">
+        <v>27</v>
+      </c>
+      <c r="J200"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>66</v>
+      </c>
+      <c r="B201" t="s">
+        <v>295</v>
+      </c>
+      <c r="C201" t="s">
+        <v>298</v>
+      </c>
+      <c r="D201" t="s">
+        <v>12</v>
+      </c>
+      <c r="E201" t="s">
+        <v>300</v>
+      </c>
+      <c r="F201" t="n">
+        <v>104</v>
+      </c>
+      <c r="G201" t="n">
+        <v>20</v>
+      </c>
+      <c r="H201" t="n">
+        <v>19</v>
+      </c>
+      <c r="I201" t="n">
+        <v>18</v>
+      </c>
+      <c r="J201"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>67</v>
+      </c>
+      <c r="B202" t="s">
+        <v>295</v>
+      </c>
+      <c r="C202" t="s">
+        <v>298</v>
+      </c>
+      <c r="D202" t="s">
+        <v>12</v>
+      </c>
+      <c r="E202" t="s">
+        <v>301</v>
+      </c>
+      <c r="F202" t="n">
+        <v>391</v>
+      </c>
+      <c r="G202" t="n">
+        <v>26</v>
+      </c>
+      <c r="H202" t="n">
+        <v>26</v>
+      </c>
+      <c r="I202" t="n">
+        <v>23</v>
+      </c>
+      <c r="J202"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>68</v>
+      </c>
+      <c r="B203" t="s">
+        <v>295</v>
+      </c>
+      <c r="C203" t="s">
+        <v>302</v>
+      </c>
+      <c r="D203" t="s">
+        <v>12</v>
+      </c>
+      <c r="E203" t="s">
+        <v>303</v>
+      </c>
+      <c r="F203" t="n">
+        <v>214</v>
+      </c>
+      <c r="G203" t="n">
+        <v>19</v>
+      </c>
+      <c r="H203" t="n">
+        <v>19</v>
+      </c>
+      <c r="I203" t="n">
+        <v>19</v>
+      </c>
+      <c r="J203"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>69</v>
+      </c>
+      <c r="B204" t="s">
+        <v>295</v>
+      </c>
+      <c r="C204" t="s">
+        <v>302</v>
+      </c>
+      <c r="D204" t="s">
+        <v>12</v>
+      </c>
+      <c r="E204" t="s">
+        <v>304</v>
+      </c>
+      <c r="F204" t="n">
+        <v>248</v>
+      </c>
+      <c r="G204" t="n">
+        <v>21</v>
+      </c>
+      <c r="H204" t="n">
+        <v>21</v>
+      </c>
+      <c r="I204" t="n">
+        <v>19</v>
+      </c>
+      <c r="J204"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>70</v>
+      </c>
+      <c r="B205" t="s">
+        <v>295</v>
+      </c>
+      <c r="C205" t="s">
+        <v>302</v>
+      </c>
+      <c r="D205" t="s">
+        <v>12</v>
+      </c>
+      <c r="E205" t="s">
+        <v>305</v>
+      </c>
+      <c r="F205" t="n">
+        <v>888</v>
+      </c>
+      <c r="G205" t="n">
+        <v>115</v>
+      </c>
+      <c r="H205" t="n">
+        <v>115</v>
+      </c>
+      <c r="I205" t="n">
+        <v>115</v>
+      </c>
+      <c r="J205"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>71</v>
+      </c>
+      <c r="B206" t="s">
+        <v>295</v>
+      </c>
+      <c r="C206" t="s">
+        <v>306</v>
+      </c>
+      <c r="D206" t="s">
+        <v>12</v>
+      </c>
+      <c r="E206" t="s">
+        <v>307</v>
+      </c>
+      <c r="F206" t="n">
+        <v>123</v>
+      </c>
+      <c r="G206" t="n">
+        <v>11</v>
+      </c>
+      <c r="H206" t="n">
+        <v>11</v>
+      </c>
+      <c r="I206" t="n">
+        <v>11</v>
+      </c>
+      <c r="J206"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>72</v>
+      </c>
+      <c r="B207" t="s">
+        <v>295</v>
+      </c>
+      <c r="C207" t="s">
+        <v>306</v>
+      </c>
+      <c r="D207" t="s">
+        <v>12</v>
+      </c>
+      <c r="E207" t="s">
+        <v>308</v>
+      </c>
+      <c r="F207" t="n">
+        <v>121</v>
+      </c>
+      <c r="G207" t="n">
+        <v>17</v>
+      </c>
+      <c r="H207" t="n">
+        <v>17</v>
+      </c>
+      <c r="I207" t="n">
+        <v>17</v>
+      </c>
+      <c r="J207"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>73</v>
+      </c>
+      <c r="B208" t="s">
+        <v>295</v>
+      </c>
+      <c r="C208" t="s">
+        <v>306</v>
+      </c>
+      <c r="D208" t="s">
+        <v>12</v>
+      </c>
+      <c r="E208" t="s">
+        <v>309</v>
+      </c>
+      <c r="F208" t="n">
+        <v>385</v>
+      </c>
+      <c r="G208" t="n">
+        <v>25</v>
+      </c>
+      <c r="H208" t="n">
+        <v>25</v>
+      </c>
+      <c r="I208" t="n">
+        <v>23</v>
+      </c>
+      <c r="J208"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>74</v>
+      </c>
+      <c r="B209" t="s">
+        <v>295</v>
+      </c>
+      <c r="C209" t="s">
+        <v>310</v>
+      </c>
+      <c r="D209" t="s">
+        <v>12</v>
+      </c>
+      <c r="E209" t="s">
+        <v>311</v>
+      </c>
+      <c r="F209" t="n">
+        <v>274</v>
+      </c>
+      <c r="G209"/>
+      <c r="H209"/>
+      <c r="I209"/>
+      <c r="J209"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>75</v>
+      </c>
+      <c r="B210" t="s">
+        <v>295</v>
+      </c>
+      <c r="C210" t="s">
+        <v>302</v>
+      </c>
+      <c r="D210" t="s">
+        <v>12</v>
+      </c>
+      <c r="E210" t="s">
+        <v>312</v>
+      </c>
+      <c r="F210" t="n">
+        <v>142</v>
+      </c>
+      <c r="G210" t="n">
+        <v>20</v>
+      </c>
+      <c r="H210" t="n">
+        <v>20</v>
+      </c>
+      <c r="I210" t="n">
+        <v>20</v>
+      </c>
+      <c r="J210"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>76</v>
+      </c>
+      <c r="B211" t="s">
+        <v>295</v>
+      </c>
+      <c r="C211" t="s">
+        <v>298</v>
+      </c>
+      <c r="D211" t="s">
+        <v>12</v>
+      </c>
+      <c r="E211" t="s">
+        <v>313</v>
+      </c>
+      <c r="F211" t="n">
+        <v>124</v>
+      </c>
+      <c r="G211" t="n">
+        <v>17</v>
+      </c>
+      <c r="H211" t="n">
+        <v>17</v>
+      </c>
+      <c r="I211" t="n">
+        <v>17</v>
+      </c>
+      <c r="J211"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>77</v>
+      </c>
+      <c r="B212" t="s">
+        <v>314</v>
+      </c>
+      <c r="C212" t="s">
+        <v>315</v>
+      </c>
+      <c r="D212" t="s">
+        <v>12</v>
+      </c>
+      <c r="E212" t="s">
+        <v>316</v>
+      </c>
+      <c r="F212" t="n">
+        <v>156</v>
+      </c>
+      <c r="G212" t="n">
+        <v>13</v>
+      </c>
+      <c r="H212" t="n">
+        <v>20</v>
+      </c>
+      <c r="I212" t="n">
+        <v>18</v>
+      </c>
+      <c r="J212" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>78</v>
+      </c>
+      <c r="B213" t="s">
+        <v>314</v>
+      </c>
+      <c r="C213" t="s">
+        <v>315</v>
+      </c>
+      <c r="D213" t="s">
+        <v>12</v>
+      </c>
+      <c r="E213" t="s">
+        <v>317</v>
+      </c>
+      <c r="F213" t="n">
+        <v>260</v>
+      </c>
+      <c r="G213" t="n">
+        <v>12</v>
+      </c>
+      <c r="H213" t="n">
+        <v>11</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>79</v>
+      </c>
+      <c r="B214" t="s">
+        <v>314</v>
+      </c>
+      <c r="C214" t="s">
+        <v>318</v>
+      </c>
+      <c r="D214" t="s">
+        <v>12</v>
+      </c>
+      <c r="E214" t="s">
+        <v>319</v>
+      </c>
+      <c r="F214" t="n">
+        <v>335</v>
+      </c>
+      <c r="G214" t="n">
+        <v>45</v>
+      </c>
+      <c r="H214" t="n">
+        <v>45</v>
+      </c>
+      <c r="I214" t="n">
+        <v>17</v>
+      </c>
+      <c r="J214"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>80</v>
+      </c>
+      <c r="B215" t="s">
+        <v>314</v>
+      </c>
+      <c r="C215" t="s">
+        <v>320</v>
+      </c>
+      <c r="D215" t="s">
+        <v>12</v>
+      </c>
+      <c r="E215" t="s">
+        <v>321</v>
+      </c>
+      <c r="F215" t="n">
+        <v>494</v>
+      </c>
+      <c r="G215" t="n">
+        <v>39</v>
+      </c>
+      <c r="H215" t="n">
+        <v>39</v>
+      </c>
+      <c r="I215" t="n">
+        <v>19</v>
+      </c>
+      <c r="J215"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>81</v>
+      </c>
+      <c r="B216" t="s">
+        <v>314</v>
+      </c>
+      <c r="C216" t="s">
+        <v>322</v>
+      </c>
+      <c r="D216" t="s">
+        <v>12</v>
+      </c>
+      <c r="E216" t="s">
+        <v>323</v>
+      </c>
+      <c r="F216" t="n">
+        <v>328</v>
+      </c>
+      <c r="G216" t="n">
+        <v>22</v>
+      </c>
+      <c r="H216" t="n">
+        <v>22</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>82</v>
+      </c>
+      <c r="B217" t="s">
+        <v>314</v>
+      </c>
+      <c r="C217" t="s">
+        <v>324</v>
+      </c>
+      <c r="D217" t="s">
+        <v>12</v>
+      </c>
+      <c r="E217" t="s">
+        <v>325</v>
+      </c>
+      <c r="F217" t="n">
+        <v>449</v>
+      </c>
+      <c r="G217" t="n">
+        <v>27</v>
+      </c>
+      <c r="H217" t="n">
+        <v>24</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>83</v>
+      </c>
+      <c r="B218" t="s">
+        <v>314</v>
+      </c>
+      <c r="C218" t="s">
+        <v>322</v>
+      </c>
+      <c r="D218" t="s">
+        <v>12</v>
+      </c>
+      <c r="E218" t="s">
+        <v>326</v>
+      </c>
+      <c r="F218" t="n">
+        <v>187</v>
+      </c>
+      <c r="G218" t="n">
+        <v>25</v>
+      </c>
+      <c r="H218" t="n">
+        <v>28</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>84</v>
+      </c>
+      <c r="B219" t="s">
+        <v>314</v>
+      </c>
+      <c r="C219" t="s">
+        <v>322</v>
+      </c>
+      <c r="D219" t="s">
+        <v>12</v>
+      </c>
+      <c r="E219" t="s">
+        <v>327</v>
+      </c>
+      <c r="F219" t="n">
+        <v>99</v>
+      </c>
+      <c r="G219" t="n">
+        <v>14</v>
+      </c>
+      <c r="H219" t="n">
+        <v>14</v>
+      </c>
+      <c r="I219" t="n">
+        <v>14</v>
+      </c>
+      <c r="J219"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>85</v>
+      </c>
+      <c r="B220" t="s">
+        <v>314</v>
+      </c>
+      <c r="C220" t="s">
+        <v>328</v>
+      </c>
+      <c r="D220" t="s">
+        <v>12</v>
+      </c>
+      <c r="E220" t="s">
+        <v>329</v>
+      </c>
+      <c r="F220" t="n">
+        <v>332</v>
+      </c>
+      <c r="G220" t="n">
+        <v>27</v>
+      </c>
+      <c r="H220" t="n">
+        <v>29</v>
+      </c>
+      <c r="I220" t="n">
+        <v>29</v>
+      </c>
+      <c r="J220"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>86</v>
+      </c>
+      <c r="B221" t="s">
+        <v>314</v>
+      </c>
+      <c r="C221" t="s">
+        <v>320</v>
+      </c>
+      <c r="D221" t="s">
+        <v>12</v>
+      </c>
+      <c r="E221" t="s">
+        <v>330</v>
+      </c>
+      <c r="F221" t="n">
+        <v>196</v>
+      </c>
+      <c r="G221" t="n">
+        <v>25</v>
+      </c>
+      <c r="H221" t="n">
+        <v>28</v>
+      </c>
+      <c r="I221" t="n">
+        <v>28</v>
+      </c>
+      <c r="J221"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>87</v>
+      </c>
+      <c r="B222" t="s">
+        <v>314</v>
+      </c>
+      <c r="C222" t="s">
+        <v>324</v>
+      </c>
+      <c r="D222" t="s">
+        <v>12</v>
+      </c>
+      <c r="E222" t="s">
+        <v>331</v>
+      </c>
+      <c r="F222" t="n">
+        <v>462</v>
+      </c>
+      <c r="G222" t="n">
+        <v>11</v>
+      </c>
+      <c r="H222" t="n">
+        <v>12</v>
+      </c>
+      <c r="I222" t="n">
+        <v>12</v>
+      </c>
+      <c r="J222"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>88</v>
+      </c>
+      <c r="B223" t="s">
+        <v>332</v>
+      </c>
+      <c r="C223" t="s">
+        <v>333</v>
+      </c>
+      <c r="D223" t="s">
+        <v>12</v>
+      </c>
+      <c r="E223" t="s">
+        <v>334</v>
+      </c>
+      <c r="F223" t="n">
+        <v>136</v>
+      </c>
+      <c r="G223" t="n">
+        <v>13</v>
+      </c>
+      <c r="H223" t="n">
+        <v>11</v>
+      </c>
+      <c r="I223" t="n">
+        <v>11</v>
+      </c>
+      <c r="J223" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>89</v>
+      </c>
+      <c r="B224" t="s">
+        <v>332</v>
+      </c>
+      <c r="C224" t="s">
+        <v>333</v>
+      </c>
+      <c r="D224" t="s">
+        <v>12</v>
+      </c>
+      <c r="E224" t="s">
+        <v>335</v>
+      </c>
+      <c r="F224" t="n">
+        <v>138</v>
+      </c>
+      <c r="G224" t="n">
+        <v>8</v>
+      </c>
+      <c r="H224" t="n">
+        <v>9</v>
+      </c>
+      <c r="I224" t="n">
+        <v>9</v>
+      </c>
+      <c r="J224"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>90</v>
+      </c>
+      <c r="B225" t="s">
+        <v>332</v>
+      </c>
+      <c r="C225" t="s">
+        <v>333</v>
+      </c>
+      <c r="D225" t="s">
+        <v>12</v>
+      </c>
+      <c r="E225" t="s">
+        <v>336</v>
+      </c>
+      <c r="F225" t="n">
+        <v>483</v>
+      </c>
+      <c r="G225" t="n">
+        <v>47</v>
+      </c>
+      <c r="H225" t="n">
+        <v>44</v>
+      </c>
+      <c r="I225" t="n">
+        <v>44</v>
+      </c>
+      <c r="J225"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>91</v>
+      </c>
+      <c r="B226" t="s">
+        <v>332</v>
+      </c>
+      <c r="C226" t="s">
+        <v>333</v>
+      </c>
+      <c r="D226" t="s">
+        <v>12</v>
+      </c>
+      <c r="E226" t="s">
+        <v>337</v>
+      </c>
+      <c r="F226" t="n">
+        <v>146</v>
+      </c>
+      <c r="G226" t="n">
+        <v>36</v>
+      </c>
+      <c r="H226" t="n">
+        <v>36</v>
+      </c>
+      <c r="I226" t="n">
+        <v>36</v>
+      </c>
+      <c r="J226"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>92</v>
+      </c>
+      <c r="B227" t="s">
+        <v>332</v>
+      </c>
+      <c r="C227" t="s">
+        <v>333</v>
+      </c>
+      <c r="D227" t="s">
+        <v>12</v>
+      </c>
+      <c r="E227" t="s">
+        <v>338</v>
+      </c>
+      <c r="F227" t="n">
+        <v>138</v>
+      </c>
+      <c r="G227" t="n">
+        <v>26</v>
+      </c>
+      <c r="H227" t="n">
+        <v>26</v>
+      </c>
+      <c r="I227" t="n">
+        <v>26</v>
+      </c>
+      <c r="J227"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>93</v>
+      </c>
+      <c r="B228" t="s">
+        <v>332</v>
+      </c>
+      <c r="C228" t="s">
+        <v>333</v>
+      </c>
+      <c r="D228" t="s">
+        <v>12</v>
+      </c>
+      <c r="E228" t="s">
+        <v>339</v>
+      </c>
+      <c r="F228" t="n">
+        <v>211</v>
+      </c>
+      <c r="G228" t="n">
+        <v>18</v>
+      </c>
+      <c r="H228" t="n">
+        <v>18</v>
+      </c>
+      <c r="I228" t="n">
+        <v>18</v>
+      </c>
+      <c r="J228"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>94</v>
+      </c>
+      <c r="B229" t="s">
+        <v>332</v>
+      </c>
+      <c r="C229" t="s">
+        <v>333</v>
+      </c>
+      <c r="D229" t="s">
+        <v>12</v>
+      </c>
+      <c r="E229" t="s">
+        <v>340</v>
+      </c>
+      <c r="F229" t="n">
+        <v>153</v>
+      </c>
+      <c r="G229" t="n">
+        <v>22</v>
+      </c>
+      <c r="H229" t="n">
+        <v>22</v>
+      </c>
+      <c r="I229" t="n">
+        <v>22</v>
+      </c>
+      <c r="J229"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>95</v>
+      </c>
+      <c r="B230" t="s">
+        <v>332</v>
+      </c>
+      <c r="C230" t="s">
+        <v>341</v>
+      </c>
+      <c r="D230" t="s">
+        <v>12</v>
+      </c>
+      <c r="E230" t="s">
+        <v>342</v>
+      </c>
+      <c r="F230" t="n">
+        <v>236</v>
+      </c>
+      <c r="G230" t="n">
+        <v>17</v>
+      </c>
+      <c r="H230" t="n">
+        <v>17</v>
+      </c>
+      <c r="I230" t="n">
+        <v>16</v>
+      </c>
+      <c r="J230"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>96</v>
+      </c>
+      <c r="B231" t="s">
+        <v>332</v>
+      </c>
+      <c r="C231" t="s">
+        <v>341</v>
+      </c>
+      <c r="D231" t="s">
+        <v>12</v>
+      </c>
+      <c r="E231" t="s">
+        <v>343</v>
+      </c>
+      <c r="F231" t="n">
+        <v>170</v>
+      </c>
+      <c r="G231" t="n">
+        <v>13</v>
+      </c>
+      <c r="H231" t="n">
+        <v>13</v>
+      </c>
+      <c r="I231" t="n">
+        <v>13</v>
+      </c>
+      <c r="J231"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>97</v>
+      </c>
+      <c r="B232" t="s">
+        <v>332</v>
+      </c>
+      <c r="C232" t="s">
+        <v>341</v>
+      </c>
+      <c r="D232" t="s">
+        <v>12</v>
+      </c>
+      <c r="E232" t="s">
+        <v>344</v>
+      </c>
+      <c r="F232" t="n">
+        <v>153</v>
+      </c>
+      <c r="G232" t="n">
+        <v>9</v>
+      </c>
+      <c r="H232" t="n">
+        <v>9</v>
+      </c>
+      <c r="I232" t="n">
+        <v>9</v>
+      </c>
+      <c r="J232"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>98</v>
+      </c>
+      <c r="B233" t="s">
+        <v>332</v>
+      </c>
+      <c r="C233" t="s">
+        <v>345</v>
+      </c>
+      <c r="D233" t="s">
+        <v>12</v>
+      </c>
+      <c r="E233" t="s">
+        <v>346</v>
+      </c>
+      <c r="F233" t="n">
+        <v>583</v>
+      </c>
+      <c r="G233" t="n">
+        <v>57</v>
+      </c>
+      <c r="H233" t="n">
+        <v>57</v>
+      </c>
+      <c r="I233" t="n">
+        <v>57</v>
+      </c>
+      <c r="J233"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>99</v>
+      </c>
+      <c r="B234" t="s">
+        <v>332</v>
+      </c>
+      <c r="C234" t="s">
+        <v>345</v>
+      </c>
+      <c r="D234" t="s">
+        <v>12</v>
+      </c>
+      <c r="E234" t="s">
+        <v>347</v>
+      </c>
+      <c r="F234" t="n">
+        <v>478</v>
+      </c>
+      <c r="G234" t="n">
+        <v>37</v>
+      </c>
+      <c r="H234" t="n">
+        <v>37</v>
+      </c>
+      <c r="I234" t="n">
+        <v>37</v>
+      </c>
+      <c r="J234"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>100</v>
+      </c>
+      <c r="B235" t="s">
+        <v>332</v>
+      </c>
+      <c r="C235" t="s">
+        <v>345</v>
+      </c>
+      <c r="D235" t="s">
+        <v>12</v>
+      </c>
+      <c r="E235" t="s">
+        <v>348</v>
+      </c>
+      <c r="F235" t="n">
+        <v>258</v>
+      </c>
+      <c r="G235" t="n">
+        <v>26</v>
+      </c>
+      <c r="H235" t="n">
+        <v>26</v>
+      </c>
+      <c r="I235" t="n">
+        <v>26</v>
+      </c>
+      <c r="J235"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>101</v>
+      </c>
+      <c r="B236" t="s">
+        <v>332</v>
+      </c>
+      <c r="C236" t="s">
+        <v>349</v>
+      </c>
+      <c r="D236" t="s">
+        <v>12</v>
+      </c>
+      <c r="E236" t="s">
+        <v>350</v>
+      </c>
+      <c r="F236" t="n">
+        <v>112</v>
+      </c>
+      <c r="G236" t="n">
+        <v>7</v>
+      </c>
+      <c r="H236" t="n">
+        <v>7</v>
+      </c>
+      <c r="I236" t="n">
+        <v>7</v>
+      </c>
+      <c r="J236"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>102</v>
+      </c>
+      <c r="B237" t="s">
+        <v>332</v>
+      </c>
+      <c r="C237" t="s">
+        <v>349</v>
+      </c>
+      <c r="D237" t="s">
+        <v>12</v>
+      </c>
+      <c r="E237" t="s">
+        <v>351</v>
+      </c>
+      <c r="F237" t="n">
+        <v>398</v>
+      </c>
+      <c r="G237" t="n">
+        <v>32</v>
+      </c>
+      <c r="H237" t="n">
+        <v>32</v>
+      </c>
+      <c r="I237" t="n">
+        <v>32</v>
+      </c>
+      <c r="J237"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>103</v>
+      </c>
+      <c r="B238" t="s">
+        <v>332</v>
+      </c>
+      <c r="C238" t="s">
+        <v>352</v>
+      </c>
+      <c r="D238" t="s">
+        <v>12</v>
+      </c>
+      <c r="E238" t="s">
+        <v>353</v>
+      </c>
+      <c r="F238" t="n">
+        <v>716</v>
+      </c>
+      <c r="G238" t="n">
+        <v>18</v>
+      </c>
+      <c r="H238" t="n">
+        <v>18</v>
+      </c>
+      <c r="I238" t="n">
+        <v>18</v>
+      </c>
+      <c r="J238"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>104</v>
+      </c>
+      <c r="B239" t="s">
+        <v>332</v>
+      </c>
+      <c r="C239" t="s">
+        <v>354</v>
+      </c>
+      <c r="D239" t="s">
+        <v>12</v>
+      </c>
+      <c r="E239" t="s">
+        <v>355</v>
+      </c>
+      <c r="F239" t="n">
+        <v>330</v>
+      </c>
+      <c r="G239" t="n">
+        <v>37</v>
+      </c>
+      <c r="H239" t="n">
+        <v>36</v>
+      </c>
+      <c r="I239" t="n">
+        <v>36</v>
+      </c>
+      <c r="J239"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>105</v>
+      </c>
+      <c r="B240" t="s">
+        <v>332</v>
+      </c>
+      <c r="C240" t="s">
+        <v>354</v>
+      </c>
+      <c r="D240" t="s">
+        <v>12</v>
+      </c>
+      <c r="E240" t="s">
+        <v>356</v>
+      </c>
+      <c r="F240" t="n">
+        <v>350</v>
+      </c>
+      <c r="G240" t="n">
+        <v>26</v>
+      </c>
+      <c r="H240" t="n">
+        <v>26</v>
+      </c>
+      <c r="I240" t="n">
+        <v>26</v>
+      </c>
+      <c r="J240"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>106</v>
+      </c>
+      <c r="B241" t="s">
+        <v>332</v>
+      </c>
+      <c r="C241" t="s">
+        <v>357</v>
+      </c>
+      <c r="D241" t="s">
+        <v>12</v>
+      </c>
+      <c r="E241" t="s">
+        <v>358</v>
+      </c>
+      <c r="F241" t="n">
+        <v>245</v>
+      </c>
+      <c r="G241"/>
+      <c r="H241" t="n">
+        <v>7</v>
+      </c>
+      <c r="I241"/>
+      <c r="J241"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>107</v>
+      </c>
+      <c r="B242" t="s">
+        <v>332</v>
+      </c>
+      <c r="C242" t="s">
+        <v>352</v>
+      </c>
+      <c r="D242" t="s">
+        <v>12</v>
+      </c>
+      <c r="E242" t="s">
+        <v>359</v>
+      </c>
+      <c r="F242" t="n">
+        <v>380</v>
+      </c>
+      <c r="G242" t="n">
+        <v>20</v>
+      </c>
+      <c r="H242" t="n">
+        <v>20</v>
+      </c>
+      <c r="I242" t="n">
+        <v>20</v>
+      </c>
+      <c r="J242"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>108</v>
+      </c>
+      <c r="B243" t="s">
+        <v>332</v>
+      </c>
+      <c r="C243" t="s">
+        <v>341</v>
+      </c>
+      <c r="D243" t="s">
+        <v>12</v>
+      </c>
+      <c r="E243" t="s">
+        <v>360</v>
+      </c>
+      <c r="F243" t="n">
+        <v>314</v>
+      </c>
+      <c r="G243" t="n">
+        <v>17</v>
+      </c>
+      <c r="H243" t="n">
+        <v>17</v>
+      </c>
+      <c r="I243" t="n">
+        <v>17</v>
+      </c>
+      <c r="J243"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>109</v>
+      </c>
+      <c r="B244" t="s">
+        <v>332</v>
+      </c>
+      <c r="C244" t="s">
+        <v>333</v>
+      </c>
+      <c r="D244" t="s">
+        <v>12</v>
+      </c>
+      <c r="E244" t="s">
+        <v>361</v>
+      </c>
+      <c r="F244" t="n">
+        <v>36</v>
+      </c>
+      <c r="G244" t="n">
+        <v>6</v>
+      </c>
+      <c r="H244" t="n">
+        <v>6</v>
+      </c>
+      <c r="I244" t="n">
+        <v>6</v>
+      </c>
+      <c r="J244"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>110</v>
+      </c>
+      <c r="B245" t="s">
+        <v>332</v>
+      </c>
+      <c r="C245" t="s">
+        <v>333</v>
+      </c>
+      <c r="D245" t="s">
+        <v>12</v>
+      </c>
+      <c r="E245" t="s">
+        <v>362</v>
+      </c>
+      <c r="F245" t="n">
+        <v>608</v>
+      </c>
+      <c r="G245" t="n">
+        <v>50</v>
+      </c>
+      <c r="H245" t="n">
+        <v>50</v>
+      </c>
+      <c r="I245" t="n">
+        <v>50</v>
+      </c>
+      <c r="J245"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>111</v>
+      </c>
+      <c r="B246" t="s">
+        <v>332</v>
+      </c>
+      <c r="C246" t="s">
+        <v>333</v>
+      </c>
+      <c r="D246" t="s">
+        <v>12</v>
+      </c>
+      <c r="E246" t="s">
+        <v>363</v>
+      </c>
+      <c r="F246" t="n">
+        <v>382</v>
+      </c>
+      <c r="G246" t="n">
+        <v>46</v>
+      </c>
+      <c r="H246" t="n">
+        <v>46</v>
+      </c>
+      <c r="I246" t="n">
+        <v>46</v>
+      </c>
+      <c r="J246"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>112</v>
+      </c>
+      <c r="B247" t="s">
+        <v>332</v>
+      </c>
+      <c r="C247" t="s">
+        <v>333</v>
+      </c>
+      <c r="D247" t="s">
+        <v>12</v>
+      </c>
+      <c r="E247" t="s">
+        <v>364</v>
+      </c>
+      <c r="F247" t="n">
+        <v>536</v>
+      </c>
+      <c r="G247" t="n">
+        <v>67</v>
+      </c>
+      <c r="H247" t="n">
+        <v>67</v>
+      </c>
+      <c r="I247" t="n">
+        <v>67</v>
+      </c>
+      <c r="J247"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>113</v>
+      </c>
+      <c r="B248" t="s">
+        <v>332</v>
+      </c>
+      <c r="C248" t="s">
+        <v>333</v>
+      </c>
+      <c r="D248" t="s">
+        <v>12</v>
+      </c>
+      <c r="E248" t="s">
+        <v>365</v>
+      </c>
+      <c r="F248" t="n">
+        <v>340</v>
+      </c>
+      <c r="G248" t="n">
+        <v>24</v>
+      </c>
+      <c r="H248" t="n">
+        <v>24</v>
+      </c>
+      <c r="I248" t="n">
+        <v>24</v>
+      </c>
+      <c r="J248"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>114</v>
+      </c>
+      <c r="B249" t="s">
+        <v>332</v>
+      </c>
+      <c r="C249" t="s">
+        <v>333</v>
+      </c>
+      <c r="D249" t="s">
+        <v>12</v>
+      </c>
+      <c r="E249" t="s">
+        <v>366</v>
+      </c>
+      <c r="F249" t="n">
+        <v>189</v>
+      </c>
+      <c r="G249" t="n">
+        <v>44</v>
+      </c>
+      <c r="H249" t="n">
+        <v>44</v>
+      </c>
+      <c r="I249" t="n">
+        <v>44</v>
+      </c>
+      <c r="J249"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>115</v>
+      </c>
+      <c r="B250" t="s">
+        <v>332</v>
+      </c>
+      <c r="C250" t="s">
+        <v>333</v>
+      </c>
+      <c r="D250" t="s">
+        <v>12</v>
+      </c>
+      <c r="E250" t="s">
+        <v>367</v>
+      </c>
+      <c r="F250" t="n">
+        <v>432</v>
+      </c>
+      <c r="G250" t="n">
+        <v>45</v>
+      </c>
+      <c r="H250" t="n">
+        <v>45</v>
+      </c>
+      <c r="I250" t="n">
+        <v>45</v>
+      </c>
+      <c r="J250"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>116</v>
+      </c>
+      <c r="B251" t="s">
+        <v>332</v>
+      </c>
+      <c r="C251" t="s">
+        <v>368</v>
+      </c>
+      <c r="D251" t="s">
+        <v>12</v>
+      </c>
+      <c r="E251" t="s">
+        <v>369</v>
+      </c>
+      <c r="F251" t="n">
+        <v>194</v>
+      </c>
+      <c r="G251" t="n">
+        <v>19</v>
+      </c>
+      <c r="H251" t="n">
+        <v>19</v>
+      </c>
+      <c r="I251" t="n">
+        <v>19</v>
+      </c>
+      <c r="J251"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>117</v>
+      </c>
+      <c r="B252" t="s">
+        <v>332</v>
+      </c>
+      <c r="C252" t="s">
+        <v>60</v>
+      </c>
+      <c r="D252" t="s">
+        <v>12</v>
+      </c>
+      <c r="E252" t="s">
+        <v>370</v>
+      </c>
+      <c r="F252" t="n">
+        <v>265</v>
+      </c>
+      <c r="G252" t="n">
+        <v>14</v>
+      </c>
+      <c r="H252" t="n">
+        <v>14</v>
+      </c>
+      <c r="I252" t="n">
+        <v>14</v>
+      </c>
+      <c r="J252"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>118</v>
+      </c>
+      <c r="B253" t="s">
+        <v>332</v>
+      </c>
+      <c r="C253" t="s">
+        <v>60</v>
+      </c>
+      <c r="D253" t="s">
+        <v>12</v>
+      </c>
+      <c r="E253" t="s">
+        <v>371</v>
+      </c>
+      <c r="F253" t="n">
+        <v>402</v>
+      </c>
+      <c r="G253" t="n">
+        <v>44</v>
+      </c>
+      <c r="H253" t="n">
+        <v>44</v>
+      </c>
+      <c r="I253" t="n">
+        <v>44</v>
+      </c>
+      <c r="J253"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>119</v>
+      </c>
+      <c r="B254" t="s">
+        <v>332</v>
+      </c>
+      <c r="C254" t="s">
+        <v>60</v>
+      </c>
+      <c r="D254" t="s">
+        <v>12</v>
+      </c>
+      <c r="E254" t="s">
+        <v>372</v>
+      </c>
+      <c r="F254" t="n">
+        <v>460</v>
+      </c>
+      <c r="G254" t="n">
+        <v>17</v>
+      </c>
+      <c r="H254" t="n">
+        <v>17</v>
+      </c>
+      <c r="I254" t="n">
+        <v>16</v>
+      </c>
+      <c r="J254"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>120</v>
+      </c>
+      <c r="B255" t="s">
+        <v>332</v>
+      </c>
+      <c r="C255" t="s">
+        <v>60</v>
+      </c>
+      <c r="D255" t="s">
+        <v>12</v>
+      </c>
+      <c r="E255" t="s">
+        <v>373</v>
+      </c>
+      <c r="F255" t="n">
+        <v>153</v>
+      </c>
+      <c r="G255" t="n">
+        <v>9</v>
+      </c>
+      <c r="H255" t="n">
+        <v>9</v>
+      </c>
+      <c r="I255" t="n">
+        <v>9</v>
+      </c>
+      <c r="J255"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>121</v>
+      </c>
+      <c r="B256" t="s">
+        <v>332</v>
+      </c>
+      <c r="C256" t="s">
+        <v>333</v>
+      </c>
+      <c r="D256" t="s">
+        <v>12</v>
+      </c>
+      <c r="E256" t="s">
+        <v>374</v>
+      </c>
+      <c r="F256" t="n">
+        <v>250</v>
+      </c>
+      <c r="G256" t="n">
+        <v>9</v>
+      </c>
+      <c r="H256" t="n">
+        <v>9</v>
+      </c>
+      <c r="I256" t="n">
+        <v>17</v>
+      </c>
+      <c r="J256"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>122</v>
+      </c>
+      <c r="B257" t="s">
+        <v>332</v>
+      </c>
+      <c r="C257" t="s">
+        <v>333</v>
+      </c>
+      <c r="D257" t="s">
+        <v>12</v>
+      </c>
+      <c r="E257" t="s">
+        <v>375</v>
+      </c>
+      <c r="F257" t="n">
+        <v>225</v>
+      </c>
+      <c r="G257" t="n">
+        <v>25</v>
+      </c>
+      <c r="H257" t="n">
+        <v>25</v>
+      </c>
+      <c r="I257" t="n">
+        <v>23</v>
+      </c>
+      <c r="J257"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>123</v>
+      </c>
+      <c r="B258" t="s">
+        <v>332</v>
+      </c>
+      <c r="C258" t="s">
+        <v>333</v>
+      </c>
+      <c r="D258" t="s">
+        <v>12</v>
+      </c>
+      <c r="E258" t="s">
+        <v>376</v>
+      </c>
+      <c r="F258" t="n">
+        <v>954</v>
+      </c>
+      <c r="G258" t="n">
+        <v>48</v>
+      </c>
+      <c r="H258" t="n">
+        <v>48</v>
+      </c>
+      <c r="I258" t="n">
+        <v>48</v>
+      </c>
+      <c r="J258"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>124</v>
+      </c>
+      <c r="B259" t="s">
+        <v>332</v>
+      </c>
+      <c r="C259" t="s">
+        <v>377</v>
+      </c>
+      <c r="D259" t="s">
+        <v>12</v>
+      </c>
+      <c r="E259" t="s">
+        <v>378</v>
+      </c>
+      <c r="F259" t="n">
+        <v>695</v>
+      </c>
+      <c r="G259" t="n">
+        <v>35</v>
+      </c>
+      <c r="H259" t="n">
+        <v>35</v>
+      </c>
+      <c r="I259" t="n">
+        <v>34</v>
+      </c>
+      <c r="J259"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>125</v>
+      </c>
+      <c r="B260" t="s">
+        <v>332</v>
+      </c>
+      <c r="C260" t="s">
+        <v>60</v>
+      </c>
+      <c r="D260" t="s">
+        <v>12</v>
+      </c>
+      <c r="E260" t="s">
+        <v>379</v>
+      </c>
+      <c r="F260"/>
+      <c r="G260"/>
+      <c r="H260"/>
+      <c r="I260"/>
+      <c r="J260"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>126</v>
+      </c>
+      <c r="B261" t="s">
+        <v>332</v>
+      </c>
+      <c r="C261" t="s">
+        <v>60</v>
+      </c>
+      <c r="D261" t="s">
+        <v>12</v>
+      </c>
+      <c r="E261" t="s">
+        <v>380</v>
+      </c>
+      <c r="F261"/>
+      <c r="G261"/>
+      <c r="H261"/>
+      <c r="I261"/>
+      <c r="J261"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>127</v>
+      </c>
+      <c r="B262" t="s">
+        <v>332</v>
+      </c>
+      <c r="C262" t="s">
+        <v>60</v>
+      </c>
+      <c r="D262" t="s">
+        <v>12</v>
+      </c>
+      <c r="E262" t="s">
+        <v>381</v>
+      </c>
+      <c r="F262"/>
+      <c r="G262"/>
+      <c r="H262"/>
+      <c r="I262"/>
+      <c r="J262"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>128</v>
+      </c>
+      <c r="B263" t="s">
+        <v>382</v>
+      </c>
+      <c r="C263" t="s">
+        <v>383</v>
+      </c>
+      <c r="D263" t="s">
+        <v>12</v>
+      </c>
+      <c r="E263" t="s">
+        <v>384</v>
+      </c>
+      <c r="F263" t="n">
+        <v>150</v>
+      </c>
+      <c r="G263" t="n">
+        <v>23</v>
+      </c>
+      <c r="H263" t="n">
+        <v>23</v>
+      </c>
+      <c r="I263" t="n">
+        <v>23</v>
+      </c>
+      <c r="J263" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>129</v>
+      </c>
+      <c r="B264" t="s">
+        <v>382</v>
+      </c>
+      <c r="C264" t="s">
+        <v>383</v>
+      </c>
+      <c r="D264" t="s">
+        <v>12</v>
+      </c>
+      <c r="E264" t="s">
+        <v>385</v>
+      </c>
+      <c r="F264" t="n">
+        <v>250</v>
+      </c>
+      <c r="G264" t="n">
+        <v>16</v>
+      </c>
+      <c r="H264" t="n">
+        <v>16</v>
+      </c>
+      <c r="I264" t="n">
+        <v>16</v>
+      </c>
+      <c r="J264"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>130</v>
+      </c>
+      <c r="B265" t="s">
+        <v>382</v>
+      </c>
+      <c r="C265" t="s">
+        <v>383</v>
+      </c>
+      <c r="D265" t="s">
+        <v>12</v>
+      </c>
+      <c r="E265" t="s">
+        <v>386</v>
+      </c>
+      <c r="F265" t="n">
+        <v>310</v>
+      </c>
+      <c r="G265" t="n">
+        <v>15</v>
+      </c>
+      <c r="H265" t="n">
+        <v>15</v>
+      </c>
+      <c r="I265" t="n">
+        <v>15</v>
+      </c>
+      <c r="J265"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>131</v>
+      </c>
+      <c r="B266" t="s">
+        <v>382</v>
+      </c>
+      <c r="C266" t="s">
+        <v>383</v>
+      </c>
+      <c r="D266" t="s">
+        <v>12</v>
+      </c>
+      <c r="E266" t="s">
+        <v>387</v>
+      </c>
+      <c r="F266" t="n">
+        <v>116</v>
+      </c>
+      <c r="G266" t="n">
+        <v>13</v>
+      </c>
+      <c r="H266" t="n">
+        <v>13</v>
+      </c>
+      <c r="I266" t="n">
+        <v>13</v>
+      </c>
+      <c r="J266"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>132</v>
+      </c>
+      <c r="B267" t="s">
+        <v>382</v>
+      </c>
+      <c r="C267" t="s">
+        <v>382</v>
+      </c>
+      <c r="D267" t="s">
+        <v>12</v>
+      </c>
+      <c r="E267" t="s">
+        <v>388</v>
+      </c>
+      <c r="F267" t="n">
+        <v>811</v>
+      </c>
+      <c r="G267" t="n">
+        <v>186</v>
+      </c>
+      <c r="H267" t="n">
+        <v>15</v>
+      </c>
+      <c r="I267" t="n">
+        <v>45</v>
+      </c>
+      <c r="J267"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>133</v>
+      </c>
+      <c r="B268" t="s">
+        <v>382</v>
+      </c>
+      <c r="C268" t="s">
+        <v>389</v>
+      </c>
+      <c r="D268" t="s">
+        <v>12</v>
+      </c>
+      <c r="E268" t="s">
+        <v>390</v>
+      </c>
+      <c r="F268" t="n">
+        <v>175</v>
+      </c>
+      <c r="G268" t="n">
+        <v>23</v>
+      </c>
+      <c r="H268" t="n">
+        <v>23</v>
+      </c>
+      <c r="I268" t="n">
+        <v>23</v>
+      </c>
+      <c r="J268"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>134</v>
+      </c>
+      <c r="B269" t="s">
+        <v>382</v>
+      </c>
+      <c r="C269" t="s">
+        <v>389</v>
+      </c>
+      <c r="D269" t="s">
+        <v>12</v>
+      </c>
+      <c r="E269" t="s">
+        <v>391</v>
+      </c>
+      <c r="F269" t="n">
+        <v>950</v>
+      </c>
+      <c r="G269" t="n">
+        <v>125</v>
+      </c>
+      <c r="H269" t="n">
+        <v>125</v>
+      </c>
+      <c r="I269" t="n">
+        <v>125</v>
+      </c>
+      <c r="J269"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>135</v>
+      </c>
+      <c r="B270" t="s">
+        <v>382</v>
+      </c>
+      <c r="C270" t="s">
+        <v>392</v>
+      </c>
+      <c r="D270" t="s">
+        <v>12</v>
+      </c>
+      <c r="E270" t="s">
+        <v>393</v>
+      </c>
+      <c r="F270" t="n">
+        <v>709</v>
+      </c>
+      <c r="G270" t="n">
+        <v>42</v>
+      </c>
+      <c r="H270" t="n">
+        <v>42</v>
+      </c>
+      <c r="I270" t="n">
+        <v>42</v>
+      </c>
+      <c r="J270"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>136</v>
+      </c>
+      <c r="B271" t="s">
+        <v>382</v>
+      </c>
+      <c r="C271" t="s">
+        <v>394</v>
+      </c>
+      <c r="D271" t="s">
+        <v>12</v>
+      </c>
+      <c r="E271" t="s">
+        <v>395</v>
+      </c>
+      <c r="F271" t="n">
+        <v>841</v>
+      </c>
+      <c r="G271" t="n">
+        <v>46</v>
+      </c>
+      <c r="H271" t="n">
+        <v>46</v>
+      </c>
+      <c r="I271" t="n">
+        <v>46</v>
+      </c>
+      <c r="J271"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>137</v>
+      </c>
+      <c r="B272" t="s">
+        <v>382</v>
+      </c>
+      <c r="C272" t="s">
+        <v>396</v>
+      </c>
+      <c r="D272" t="s">
+        <v>12</v>
+      </c>
+      <c r="E272" t="s">
+        <v>397</v>
+      </c>
+      <c r="F272" t="n">
+        <v>1007</v>
+      </c>
+      <c r="G272" t="n">
+        <v>89</v>
+      </c>
+      <c r="H272" t="n">
+        <v>19</v>
+      </c>
+      <c r="I272"/>
+      <c r="J272"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>138</v>
+      </c>
+      <c r="B273" t="s">
+        <v>382</v>
+      </c>
+      <c r="C273" t="s">
+        <v>396</v>
+      </c>
+      <c r="D273" t="s">
+        <v>12</v>
+      </c>
+      <c r="E273" t="s">
+        <v>398</v>
+      </c>
+      <c r="F273" t="n">
+        <v>519</v>
+      </c>
+      <c r="G273" t="n">
+        <v>45</v>
+      </c>
+      <c r="H273" t="n">
+        <v>45</v>
+      </c>
+      <c r="I273" t="n">
+        <v>45</v>
+      </c>
+      <c r="J273"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>139</v>
+      </c>
+      <c r="B274" t="s">
+        <v>382</v>
+      </c>
+      <c r="C274" t="s">
+        <v>394</v>
+      </c>
+      <c r="D274" t="s">
+        <v>12</v>
+      </c>
+      <c r="E274" t="s">
+        <v>399</v>
+      </c>
+      <c r="F274" t="n">
+        <v>328</v>
+      </c>
+      <c r="G274" t="n">
+        <v>37</v>
+      </c>
+      <c r="H274" t="n">
+        <v>37</v>
+      </c>
+      <c r="I274" t="n">
+        <v>37</v>
+      </c>
+      <c r="J274"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>140</v>
+      </c>
+      <c r="B275" t="s">
+        <v>400</v>
+      </c>
+      <c r="C275" t="s">
+        <v>401</v>
+      </c>
+      <c r="D275" t="s">
+        <v>12</v>
+      </c>
+      <c r="E275" t="s">
+        <v>402</v>
+      </c>
+      <c r="F275" t="n">
+        <v>395</v>
+      </c>
+      <c r="G275"/>
+      <c r="H275"/>
+      <c r="I275"/>
+      <c r="J275" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>141</v>
+      </c>
+      <c r="B276" t="s">
+        <v>400</v>
+      </c>
+      <c r="C276" t="s">
+        <v>403</v>
+      </c>
+      <c r="D276" t="s">
+        <v>12</v>
+      </c>
+      <c r="E276" t="s">
+        <v>404</v>
+      </c>
+      <c r="F276" t="n">
+        <v>385</v>
+      </c>
+      <c r="G276"/>
+      <c r="H276"/>
+      <c r="I276"/>
+      <c r="J276"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>142</v>
+      </c>
+      <c r="B277" t="s">
+        <v>400</v>
+      </c>
+      <c r="C277" t="s">
+        <v>401</v>
+      </c>
+      <c r="D277" t="s">
+        <v>12</v>
+      </c>
+      <c r="E277" t="s">
+        <v>405</v>
+      </c>
+      <c r="F277" t="n">
+        <v>219</v>
+      </c>
+      <c r="G277"/>
+      <c r="H277"/>
+      <c r="I277"/>
+      <c r="J277"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>143</v>
+      </c>
+      <c r="B278" t="s">
+        <v>400</v>
+      </c>
+      <c r="C278" t="s">
+        <v>406</v>
+      </c>
+      <c r="D278" t="s">
+        <v>12</v>
+      </c>
+      <c r="E278" t="s">
+        <v>407</v>
+      </c>
+      <c r="F278" t="n">
+        <v>197</v>
+      </c>
+      <c r="G278" t="n">
+        <v>32</v>
+      </c>
+      <c r="H278" t="n">
+        <v>32</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>144</v>
+      </c>
+      <c r="B279" t="s">
+        <v>400</v>
+      </c>
+      <c r="C279" t="s">
+        <v>403</v>
+      </c>
+      <c r="D279" t="s">
+        <v>12</v>
+      </c>
+      <c r="E279" t="s">
+        <v>408</v>
+      </c>
+      <c r="F279" t="n">
+        <v>290</v>
+      </c>
+      <c r="G279" t="n">
+        <v>30</v>
+      </c>
+      <c r="H279" t="n">
+        <v>18</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>145</v>
+      </c>
+      <c r="B280" t="s">
+        <v>400</v>
+      </c>
+      <c r="C280" t="s">
+        <v>406</v>
+      </c>
+      <c r="D280" t="s">
+        <v>12</v>
+      </c>
+      <c r="E280" t="s">
+        <v>409</v>
+      </c>
+      <c r="F280" t="n">
+        <v>193</v>
+      </c>
+      <c r="G280" t="n">
+        <v>24</v>
+      </c>
+      <c r="H280" t="n">
+        <v>23</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>146</v>
+      </c>
+      <c r="B281" t="s">
+        <v>400</v>
+      </c>
+      <c r="C281" t="s">
+        <v>406</v>
+      </c>
+      <c r="D281" t="s">
+        <v>12</v>
+      </c>
+      <c r="E281" t="s">
+        <v>410</v>
+      </c>
+      <c r="F281" t="n">
+        <v>232</v>
+      </c>
+      <c r="G281" t="n">
+        <v>39</v>
+      </c>
+      <c r="H281" t="n">
+        <v>15</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>147</v>
+      </c>
+      <c r="B282" t="s">
+        <v>400</v>
+      </c>
+      <c r="C282" t="s">
+        <v>406</v>
+      </c>
+      <c r="D282" t="s">
+        <v>12</v>
+      </c>
+      <c r="E282" t="s">
+        <v>411</v>
+      </c>
+      <c r="F282" t="n">
+        <v>53</v>
+      </c>
+      <c r="G282" t="n">
+        <v>6</v>
+      </c>
+      <c r="H282" t="n">
+        <v>6</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>148</v>
+      </c>
+      <c r="B283" t="s">
+        <v>400</v>
+      </c>
+      <c r="C283" t="s">
+        <v>406</v>
+      </c>
+      <c r="D283" t="s">
+        <v>12</v>
+      </c>
+      <c r="E283" t="s">
+        <v>412</v>
+      </c>
+      <c r="F283" t="n">
+        <v>279</v>
+      </c>
+      <c r="G283" t="n">
+        <v>37</v>
+      </c>
+      <c r="H283" t="n">
+        <v>37</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>149</v>
+      </c>
+      <c r="B284" t="s">
+        <v>400</v>
+      </c>
+      <c r="C284" t="s">
+        <v>406</v>
+      </c>
+      <c r="D284" t="s">
+        <v>12</v>
+      </c>
+      <c r="E284" t="s">
+        <v>413</v>
+      </c>
+      <c r="F284" t="n">
+        <v>679</v>
+      </c>
+      <c r="G284" t="n">
+        <v>47</v>
+      </c>
+      <c r="H284" t="n">
+        <v>9</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>150</v>
+      </c>
+      <c r="B285" t="s">
+        <v>400</v>
+      </c>
+      <c r="C285" t="s">
+        <v>406</v>
+      </c>
+      <c r="D285" t="s">
+        <v>12</v>
+      </c>
+      <c r="E285" t="s">
+        <v>414</v>
+      </c>
+      <c r="F285" t="n">
+        <v>502</v>
+      </c>
+      <c r="G285" t="n">
+        <v>36</v>
+      </c>
+      <c r="H285" t="n">
+        <v>9</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>151</v>
+      </c>
+      <c r="B286" t="s">
+        <v>400</v>
+      </c>
+      <c r="C286" t="s">
+        <v>406</v>
+      </c>
+      <c r="D286" t="s">
+        <v>12</v>
+      </c>
+      <c r="E286" t="s">
+        <v>415</v>
+      </c>
+      <c r="F286" t="n">
+        <v>285</v>
+      </c>
+      <c r="G286" t="n">
+        <v>22</v>
+      </c>
+      <c r="H286" t="n">
+        <v>22</v>
+      </c>
+      <c r="I286" t="n">
+        <v>10</v>
+      </c>
+      <c r="J286"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>152</v>
+      </c>
+      <c r="B287" t="s">
+        <v>400</v>
+      </c>
+      <c r="C287" t="s">
+        <v>403</v>
+      </c>
+      <c r="D287" t="s">
+        <v>12</v>
+      </c>
+      <c r="E287" t="s">
+        <v>416</v>
+      </c>
+      <c r="F287" t="n">
+        <v>324</v>
+      </c>
+      <c r="G287" t="n">
+        <v>32</v>
+      </c>
+      <c r="H287" t="n">
+        <v>12</v>
+      </c>
+      <c r="I287" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>153</v>
+      </c>
+      <c r="B288" t="s">
+        <v>400</v>
+      </c>
+      <c r="C288" t="s">
+        <v>406</v>
+      </c>
+      <c r="D288" t="s">
+        <v>12</v>
+      </c>
+      <c r="E288" t="s">
+        <v>417</v>
+      </c>
+      <c r="F288" t="n">
+        <v>423</v>
+      </c>
+      <c r="G288" t="n">
+        <v>36</v>
+      </c>
+      <c r="H288" t="n">
+        <v>36</v>
+      </c>
+      <c r="I288" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>154</v>
+      </c>
+      <c r="B289" t="s">
+        <v>400</v>
+      </c>
+      <c r="C289" t="s">
+        <v>406</v>
+      </c>
+      <c r="D289" t="s">
+        <v>12</v>
+      </c>
+      <c r="E289" t="s">
+        <v>418</v>
+      </c>
+      <c r="F289" t="n">
+        <v>569</v>
+      </c>
+      <c r="G289" t="n">
+        <v>62</v>
+      </c>
+      <c r="H289" t="n">
+        <v>62</v>
+      </c>
+      <c r="I289" t="n">
+        <v>36</v>
+      </c>
+      <c r="J289"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>155</v>
+      </c>
+      <c r="B290" t="s">
+        <v>400</v>
+      </c>
+      <c r="C290" t="s">
+        <v>419</v>
+      </c>
+      <c r="D290" t="s">
+        <v>12</v>
+      </c>
+      <c r="E290" t="s">
+        <v>420</v>
+      </c>
+      <c r="F290" t="n">
+        <v>253</v>
+      </c>
+      <c r="G290" t="n">
+        <v>57</v>
+      </c>
+      <c r="H290" t="n">
+        <v>4</v>
+      </c>
+      <c r="I290" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>156</v>
+      </c>
+      <c r="B291" t="s">
+        <v>400</v>
+      </c>
+      <c r="C291" t="s">
+        <v>419</v>
+      </c>
+      <c r="D291" t="s">
+        <v>12</v>
+      </c>
+      <c r="E291" t="s">
+        <v>421</v>
+      </c>
+      <c r="F291" t="n">
+        <v>206</v>
+      </c>
+      <c r="G291" t="n">
+        <v>21</v>
+      </c>
+      <c r="H291" t="n">
+        <v>21</v>
+      </c>
+      <c r="I291" t="n">
+        <v>21</v>
+      </c>
+      <c r="J291"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>157</v>
+      </c>
+      <c r="B292" t="s">
+        <v>400</v>
+      </c>
+      <c r="C292" t="s">
+        <v>419</v>
+      </c>
+      <c r="D292" t="s">
+        <v>12</v>
+      </c>
+      <c r="E292" t="s">
+        <v>422</v>
+      </c>
+      <c r="F292" t="n">
+        <v>223</v>
+      </c>
+      <c r="G292" t="n">
+        <v>20</v>
+      </c>
+      <c r="H292" t="n">
+        <v>20</v>
+      </c>
+      <c r="I292" t="n">
+        <v>20</v>
+      </c>
+      <c r="J292"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>158</v>
+      </c>
+      <c r="B293" t="s">
+        <v>400</v>
+      </c>
+      <c r="C293" t="s">
+        <v>419</v>
+      </c>
+      <c r="D293" t="s">
+        <v>12</v>
+      </c>
+      <c r="E293" t="s">
+        <v>423</v>
+      </c>
+      <c r="F293" t="n">
+        <v>547</v>
+      </c>
+      <c r="G293" t="n">
+        <v>68</v>
+      </c>
+      <c r="H293" t="n">
+        <v>68</v>
+      </c>
+      <c r="I293" t="n">
+        <v>68</v>
+      </c>
+      <c r="J293"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>159</v>
+      </c>
+      <c r="B294" t="s">
+        <v>400</v>
+      </c>
+      <c r="C294" t="s">
+        <v>419</v>
+      </c>
+      <c r="D294" t="s">
+        <v>12</v>
+      </c>
+      <c r="E294" t="s">
+        <v>424</v>
+      </c>
+      <c r="F294" t="n">
+        <v>279</v>
+      </c>
+      <c r="G294" t="n">
+        <v>26</v>
+      </c>
+      <c r="H294" t="n">
+        <v>26</v>
+      </c>
+      <c r="I294" t="n">
+        <v>26</v>
+      </c>
+      <c r="J294"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>160</v>
+      </c>
+      <c r="B295" t="s">
+        <v>400</v>
+      </c>
+      <c r="C295" t="s">
+        <v>419</v>
+      </c>
+      <c r="D295" t="s">
+        <v>12</v>
+      </c>
+      <c r="E295" t="s">
+        <v>425</v>
+      </c>
+      <c r="F295" t="n">
+        <v>215</v>
+      </c>
+      <c r="G295" t="n">
+        <v>42</v>
+      </c>
+      <c r="H295" t="n">
+        <v>42</v>
+      </c>
+      <c r="I295" t="n">
+        <v>42</v>
+      </c>
+      <c r="J295"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>161</v>
+      </c>
+      <c r="B296" t="s">
+        <v>400</v>
+      </c>
+      <c r="C296" t="s">
+        <v>419</v>
+      </c>
+      <c r="D296" t="s">
+        <v>12</v>
+      </c>
+      <c r="E296" t="s">
+        <v>426</v>
+      </c>
+      <c r="F296" t="n">
+        <v>220</v>
+      </c>
+      <c r="G296" t="n">
+        <v>49</v>
+      </c>
+      <c r="H296" t="n">
+        <v>49</v>
+      </c>
+      <c r="I296" t="n">
+        <v>49</v>
+      </c>
+      <c r="J296"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>162</v>
+      </c>
+      <c r="B297" t="s">
+        <v>400</v>
+      </c>
+      <c r="C297" t="s">
+        <v>419</v>
+      </c>
+      <c r="D297" t="s">
+        <v>12</v>
+      </c>
+      <c r="E297" t="s">
+        <v>427</v>
+      </c>
+      <c r="F297" t="n">
+        <v>299</v>
+      </c>
+      <c r="G297" t="n">
+        <v>40</v>
+      </c>
+      <c r="H297" t="n">
+        <v>40</v>
+      </c>
+      <c r="I297" t="n">
+        <v>40</v>
+      </c>
+      <c r="J297"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>163</v>
+      </c>
+      <c r="B298" t="s">
+        <v>400</v>
+      </c>
+      <c r="C298" t="s">
+        <v>406</v>
+      </c>
+      <c r="D298" t="s">
+        <v>12</v>
+      </c>
+      <c r="E298" t="s">
+        <v>428</v>
+      </c>
+      <c r="F298" t="n">
+        <v>405</v>
+      </c>
+      <c r="G298" t="n">
+        <v>60</v>
+      </c>
+      <c r="H298" t="n">
+        <v>60</v>
+      </c>
+      <c r="I298" t="n">
+        <v>60</v>
+      </c>
+      <c r="J298"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>164</v>
+      </c>
+      <c r="B299" t="s">
+        <v>400</v>
+      </c>
+      <c r="C299" t="s">
+        <v>419</v>
+      </c>
+      <c r="D299" t="s">
+        <v>12</v>
+      </c>
+      <c r="E299" t="s">
+        <v>429</v>
+      </c>
+      <c r="F299" t="n">
+        <v>993</v>
+      </c>
+      <c r="G299" t="n">
+        <v>72</v>
+      </c>
+      <c r="H299" t="n">
+        <v>72</v>
+      </c>
+      <c r="I299" t="n">
+        <v>72</v>
+      </c>
+      <c r="J299"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>165</v>
+      </c>
+      <c r="B300" t="s">
+        <v>400</v>
+      </c>
+      <c r="C300" t="s">
+        <v>406</v>
+      </c>
+      <c r="D300" t="s">
+        <v>12</v>
+      </c>
+      <c r="E300" t="s">
+        <v>430</v>
+      </c>
+      <c r="F300" t="n">
+        <v>531</v>
+      </c>
+      <c r="G300" t="n">
+        <v>60</v>
+      </c>
+      <c r="H300" t="n">
+        <v>60</v>
+      </c>
+      <c r="I300" t="n">
+        <v>60</v>
+      </c>
+      <c r="J300"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>166</v>
+      </c>
+      <c r="B301" t="s">
+        <v>400</v>
+      </c>
+      <c r="C301" t="s">
+        <v>419</v>
+      </c>
+      <c r="D301" t="s">
+        <v>12</v>
+      </c>
+      <c r="E301" t="s">
+        <v>431</v>
+      </c>
+      <c r="F301" t="n">
+        <v>270</v>
+      </c>
+      <c r="G301" t="n">
+        <v>54</v>
+      </c>
+      <c r="H301" t="n">
+        <v>54</v>
+      </c>
+      <c r="I301" t="n">
+        <v>54</v>
+      </c>
+      <c r="J301"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>167</v>
+      </c>
+      <c r="B302" t="s">
+        <v>400</v>
+      </c>
+      <c r="C302" t="s">
+        <v>403</v>
+      </c>
+      <c r="D302" t="s">
+        <v>12</v>
+      </c>
+      <c r="E302" t="s">
+        <v>432</v>
+      </c>
+      <c r="F302" t="n">
+        <v>374</v>
+      </c>
+      <c r="G302"/>
+      <c r="H302"/>
+      <c r="I302"/>
+      <c r="J302"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>168</v>
+      </c>
+      <c r="B303" t="s">
+        <v>400</v>
+      </c>
+      <c r="C303" t="s">
+        <v>403</v>
+      </c>
+      <c r="D303" t="s">
+        <v>12</v>
+      </c>
+      <c r="E303" t="s">
+        <v>433</v>
+      </c>
+      <c r="F303" t="n">
+        <v>313</v>
+      </c>
+      <c r="G303"/>
+      <c r="H303"/>
+      <c r="I303"/>
+      <c r="J303"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>169</v>
+      </c>
+      <c r="B304" t="s">
+        <v>400</v>
+      </c>
+      <c r="C304" t="s">
+        <v>434</v>
+      </c>
+      <c r="D304" t="s">
+        <v>12</v>
+      </c>
+      <c r="E304" t="s">
+        <v>435</v>
+      </c>
+      <c r="F304" t="n">
+        <v>430</v>
+      </c>
+      <c r="G304" t="n">
+        <v>47</v>
+      </c>
+      <c r="H304" t="n">
+        <v>46</v>
+      </c>
+      <c r="I304" t="n">
+        <v>47</v>
+      </c>
+      <c r="J304"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>170</v>
+      </c>
+      <c r="B305" t="s">
+        <v>400</v>
+      </c>
+      <c r="C305" t="s">
+        <v>60</v>
+      </c>
+      <c r="D305" t="s">
+        <v>12</v>
+      </c>
+      <c r="E305" t="s">
+        <v>436</v>
+      </c>
+      <c r="F305"/>
+      <c r="G305"/>
+      <c r="H305"/>
+      <c r="I305"/>
+      <c r="J305"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>171</v>
+      </c>
+      <c r="B306" t="s">
+        <v>400</v>
+      </c>
+      <c r="C306" t="s">
+        <v>419</v>
+      </c>
+      <c r="D306" t="s">
+        <v>12</v>
+      </c>
+      <c r="E306" t="s">
+        <v>437</v>
+      </c>
+      <c r="F306" t="n">
+        <v>300</v>
+      </c>
+      <c r="G306" t="n">
+        <v>34</v>
+      </c>
+      <c r="H306" t="n">
+        <v>34</v>
+      </c>
+      <c r="I306" t="n">
+        <v>34</v>
+      </c>
+      <c r="J306"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>172</v>
+      </c>
+      <c r="B307" t="s">
+        <v>400</v>
+      </c>
+      <c r="C307" t="s">
+        <v>60</v>
+      </c>
+      <c r="D307" t="s">
+        <v>12</v>
+      </c>
+      <c r="E307" t="s">
+        <v>418</v>
+      </c>
+      <c r="F307" t="n">
+        <v>569</v>
+      </c>
+      <c r="G307" t="n">
+        <v>62</v>
+      </c>
+      <c r="H307" t="n">
+        <v>62</v>
+      </c>
+      <c r="I307" t="n">
+        <v>62</v>
+      </c>
+      <c r="J307"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>173</v>
+      </c>
+      <c r="B308" t="s">
+        <v>400</v>
+      </c>
+      <c r="C308" t="s">
+        <v>60</v>
+      </c>
+      <c r="D308" t="s">
+        <v>12</v>
+      </c>
+      <c r="E308" t="s">
+        <v>428</v>
+      </c>
+      <c r="F308" t="n">
+        <v>405</v>
+      </c>
+      <c r="G308" t="n">
+        <v>60</v>
+      </c>
+      <c r="H308" t="n">
+        <v>60</v>
+      </c>
+      <c r="I308" t="n">
+        <v>60</v>
+      </c>
+      <c r="J308"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>174</v>
+      </c>
+      <c r="B309" t="s">
+        <v>400</v>
+      </c>
+      <c r="C309" t="s">
+        <v>60</v>
+      </c>
+      <c r="D309" t="s">
+        <v>12</v>
+      </c>
+      <c r="E309" t="s">
+        <v>422</v>
+      </c>
+      <c r="F309" t="n">
+        <v>223</v>
+      </c>
+      <c r="G309" t="n">
+        <v>20</v>
+      </c>
+      <c r="H309" t="n">
+        <v>20</v>
+      </c>
+      <c r="I309" t="n">
+        <v>20</v>
+      </c>
+      <c r="J309"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>175</v>
+      </c>
+      <c r="B310" t="s">
+        <v>400</v>
+      </c>
+      <c r="C310" t="s">
+        <v>60</v>
+      </c>
+      <c r="D310" t="s">
+        <v>12</v>
+      </c>
+      <c r="E310" t="s">
+        <v>407</v>
+      </c>
+      <c r="F310" t="n">
+        <v>197</v>
+      </c>
+      <c r="G310" t="n">
+        <v>32</v>
+      </c>
+      <c r="H310" t="n">
+        <v>32</v>
+      </c>
+      <c r="I310" t="n">
+        <v>32</v>
+      </c>
+      <c r="J310"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>176</v>
+      </c>
+      <c r="B311" t="s">
+        <v>400</v>
+      </c>
+      <c r="C311" t="s">
+        <v>60</v>
+      </c>
+      <c r="D311" t="s">
+        <v>12</v>
+      </c>
+      <c r="E311" t="s">
+        <v>430</v>
+      </c>
+      <c r="F311" t="n">
+        <v>531</v>
+      </c>
+      <c r="G311" t="n">
+        <v>60</v>
+      </c>
+      <c r="H311" t="n">
+        <v>60</v>
+      </c>
+      <c r="I311" t="n">
+        <v>60</v>
+      </c>
+      <c r="J311"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>177</v>
+      </c>
+      <c r="B312" t="s">
+        <v>400</v>
+      </c>
+      <c r="C312" t="s">
+        <v>60</v>
+      </c>
+      <c r="D312" t="s">
+        <v>12</v>
+      </c>
+      <c r="E312" t="s">
+        <v>412</v>
+      </c>
+      <c r="F312" t="n">
+        <v>279</v>
+      </c>
+      <c r="G312" t="n">
+        <v>37</v>
+      </c>
+      <c r="H312" t="n">
+        <v>37</v>
+      </c>
+      <c r="I312" t="n">
+        <v>37</v>
+      </c>
+      <c r="J312"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>178</v>
+      </c>
+      <c r="B313" t="s">
+        <v>400</v>
+      </c>
+      <c r="C313" t="s">
+        <v>438</v>
+      </c>
+      <c r="D313" t="s">
+        <v>12</v>
+      </c>
+      <c r="E313" t="s">
+        <v>439</v>
+      </c>
+      <c r="F313" t="n">
+        <v>290</v>
+      </c>
+      <c r="G313"/>
+      <c r="H313"/>
+      <c r="I313"/>
+      <c r="J313"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>179</v>
+      </c>
+      <c r="B314" t="s">
+        <v>400</v>
+      </c>
+      <c r="C314" t="s">
+        <v>438</v>
+      </c>
+      <c r="D314" t="s">
+        <v>12</v>
+      </c>
+      <c r="E314" t="s">
+        <v>440</v>
+      </c>
+      <c r="F314" t="n">
+        <v>237</v>
+      </c>
+      <c r="G314"/>
+      <c r="H314"/>
+      <c r="I314"/>
+      <c r="J314"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>180</v>
+      </c>
+      <c r="B315" t="s">
+        <v>400</v>
+      </c>
+      <c r="C315" t="s">
+        <v>419</v>
+      </c>
+      <c r="D315" t="s">
+        <v>12</v>
+      </c>
+      <c r="E315" t="s">
+        <v>441</v>
+      </c>
+      <c r="F315" t="n">
+        <v>547</v>
+      </c>
+      <c r="G315"/>
+      <c r="H315"/>
+      <c r="I315"/>
+      <c r="J315"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>181</v>
+      </c>
+      <c r="B316" t="s">
+        <v>400</v>
+      </c>
+      <c r="C316" t="s">
+        <v>419</v>
+      </c>
+      <c r="D316" t="s">
+        <v>12</v>
+      </c>
+      <c r="E316" t="s">
+        <v>442</v>
+      </c>
+      <c r="F316" t="n">
+        <v>215</v>
+      </c>
+      <c r="G316"/>
+      <c r="H316"/>
+      <c r="I316"/>
+      <c r="J316"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>182</v>
+      </c>
+      <c r="B317" t="s">
+        <v>400</v>
+      </c>
+      <c r="C317" t="s">
+        <v>419</v>
+      </c>
+      <c r="D317" t="s">
+        <v>12</v>
+      </c>
+      <c r="E317" t="s">
+        <v>443</v>
+      </c>
+      <c r="F317" t="n">
+        <v>284</v>
+      </c>
+      <c r="G317"/>
+      <c r="H317"/>
+      <c r="I317"/>
+      <c r="J317"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>183</v>
+      </c>
+      <c r="B318" t="s">
+        <v>400</v>
+      </c>
+      <c r="C318" t="s">
+        <v>419</v>
+      </c>
+      <c r="D318" t="s">
+        <v>12</v>
+      </c>
+      <c r="E318" t="s">
+        <v>444</v>
+      </c>
+      <c r="F318" t="n">
+        <v>567</v>
+      </c>
+      <c r="G318"/>
+      <c r="H318"/>
+      <c r="I318"/>
+      <c r="J318"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>184</v>
+      </c>
+      <c r="B319" t="s">
+        <v>400</v>
+      </c>
+      <c r="C319" t="s">
+        <v>60</v>
+      </c>
+      <c r="D319" t="s">
+        <v>12</v>
+      </c>
+      <c r="E319" t="s">
+        <v>445</v>
+      </c>
+      <c r="F319"/>
+      <c r="G319"/>
+      <c r="H319"/>
+      <c r="I319"/>
+      <c r="J319"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>185</v>
+      </c>
+      <c r="B320" t="s">
+        <v>400</v>
+      </c>
+      <c r="C320" t="s">
+        <v>406</v>
+      </c>
+      <c r="D320" t="s">
+        <v>12</v>
+      </c>
+      <c r="E320" t="s">
+        <v>446</v>
+      </c>
+      <c r="F320" t="n">
+        <v>330</v>
+      </c>
+      <c r="G320"/>
+      <c r="H320"/>
+      <c r="I320"/>
+      <c r="J320"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>186</v>
+      </c>
+      <c r="B321" t="s">
+        <v>400</v>
+      </c>
+      <c r="C321" t="s">
+        <v>401</v>
+      </c>
+      <c r="D321" t="s">
+        <v>12</v>
+      </c>
+      <c r="E321" t="s">
+        <v>447</v>
+      </c>
+      <c r="F321" t="n">
+        <v>324</v>
+      </c>
+      <c r="G321" t="n">
+        <v>25</v>
+      </c>
+      <c r="H321" t="n">
+        <v>23</v>
+      </c>
+      <c r="I321"/>
+      <c r="J321"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>187</v>
+      </c>
+      <c r="B322" t="s">
+        <v>400</v>
+      </c>
+      <c r="C322" t="s">
+        <v>401</v>
+      </c>
+      <c r="D322" t="s">
+        <v>12</v>
+      </c>
+      <c r="E322" t="s">
+        <v>448</v>
+      </c>
+      <c r="F322" t="n">
+        <v>125</v>
+      </c>
+      <c r="G322" t="n">
+        <v>14</v>
+      </c>
+      <c r="H322" t="n">
+        <v>14</v>
+      </c>
+      <c r="I322"/>
+      <c r="J322"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>188</v>
+      </c>
+      <c r="B323" t="s">
+        <v>400</v>
+      </c>
+      <c r="C323" t="s">
+        <v>438</v>
+      </c>
+      <c r="D323" t="s">
+        <v>12</v>
+      </c>
+      <c r="E323" t="s">
+        <v>449</v>
+      </c>
+      <c r="F323" t="n">
+        <v>118</v>
+      </c>
+      <c r="G323" t="n">
+        <v>12</v>
+      </c>
+      <c r="H323" t="n">
+        <v>10</v>
+      </c>
+      <c r="I323"/>
+      <c r="J323"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>189</v>
+      </c>
+      <c r="B324" t="s">
+        <v>400</v>
+      </c>
+      <c r="C324" t="s">
+        <v>419</v>
+      </c>
+      <c r="D324" t="s">
+        <v>12</v>
+      </c>
+      <c r="E324" t="s">
+        <v>450</v>
+      </c>
+      <c r="F324" t="n">
+        <v>231</v>
+      </c>
+      <c r="G324" t="n">
+        <v>12</v>
+      </c>
+      <c r="H324" t="n">
+        <v>11</v>
+      </c>
+      <c r="I324"/>
+      <c r="J324"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>190</v>
+      </c>
+      <c r="B325" t="s">
+        <v>400</v>
+      </c>
+      <c r="C325" t="s">
+        <v>451</v>
+      </c>
+      <c r="D325" t="s">
+        <v>12</v>
+      </c>
+      <c r="E325" t="s">
+        <v>452</v>
+      </c>
+      <c r="F325" t="n">
+        <v>125</v>
+      </c>
+      <c r="G325" t="n">
+        <v>10</v>
+      </c>
+      <c r="H325" t="n">
+        <v>8</v>
+      </c>
+      <c r="I325"/>
+      <c r="J325"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/inst/extdata/basisghana.xlsx
+++ b/inst/extdata/basisghana.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="726">
   <si>
     <t xml:space="preserve">no</t>
   </si>
@@ -1371,6 +1371,825 @@
   </si>
   <si>
     <t xml:space="preserve">Benguri No.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daffiama Bussie Iss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sazie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samanbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulbaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suluguo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daffiama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dakyenaayiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bussie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulbaah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kandayiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamahegu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buoyiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chebaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dagubaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tangazu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balirgbee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dakpaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toyenpari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worbare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jempensi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAFFIAMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAKYIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WUCHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUOLADENGYIRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUSSIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZINGBERIDIRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SABOGU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHALLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAGONGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KENKELE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANOUYIRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tozie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lambure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jirapa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuggo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orifani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuoluong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naibong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duori-Guri (Guri)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gbertuori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balantaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puokangbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somboro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bagri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dikpe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalsegra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Babile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanchera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birifoh-char</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nadowli Kaleo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takpo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zupiiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siiru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charikpong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gudouri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meguo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nadowli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naribu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yaali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabaala Yeruu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lutangu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charisombo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dassiga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaleo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diboro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duuronpari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gbogyiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonpare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kpateriyiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kpazie Muolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuntaali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mojan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sigidouri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toyaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sombo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donjan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gbierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kankanzie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baadabuo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piirung-Yiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kpazie-Takpo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nandom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baseble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puffien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tantuo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ketuo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dagbateng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na-Imwine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nabugagn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sissala West</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fielmua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chetu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foliteng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gwollu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kunni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kandia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limmiere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Du West</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sangbaga 1&amp;2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dajan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gbal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dakuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatchu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyentie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyeviel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mosiire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lierom Buo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pipelime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wa East</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yayonyiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulenga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sahe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kakalapuo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viaha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sawuobe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bilin-Un</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jellu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manpie Yiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tambilipuo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulezu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gohpaani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morni Yiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nafuriyiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampuoyrir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zang-Kura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zinye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zinye Kunasiyiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bule No. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wa West</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dorimon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jambusi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mwabasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gongoglo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheatanga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ladaateng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nurikuteng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gurungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kpenateng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanziri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dakari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dapilayiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mwinberateng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tawoncheli No. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solekura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jagluu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yorbokura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wechiau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saaru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guomaali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamaara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zogli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anyourakura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ba-Orjon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batonuriyiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dakaarayiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapilayiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuobakiyereyiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tawoncheli No. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tie-Yiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yasoyiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuonuuri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kogle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pituo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gbaalwob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorkpetey-Yiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solinbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vieri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pigbengben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wechau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dochera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dompie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junuokura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konduoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bienye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dassaayiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kukpali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mwantanga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daribateng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dolinguo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maanyeyiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olloteng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simpuoyiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanuori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sooereyiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tambile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wechiaubor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wekaba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dagmaayiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mgmemberayiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakaarayiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bakurateng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daboziiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapuu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuunyenteng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lassiabile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mepkaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piiriteng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bunikye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daloyiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damwateng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dariyiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jelleriyiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mekpa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tagdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weleyiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mwalayiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balisery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gbongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lambussie Karni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laabilziri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lambusie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelfinsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kokoligu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dindee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontawii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lambussie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hachagangn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bognuo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duragan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kpanagan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyubule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hineteng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Girigan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelegan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tubergan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyangor</t>
   </si>
 </sst>
 </file>
@@ -11320,6 +12139,6884 @@
       <c r="I325"/>
       <c r="J325"/>
     </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>1</v>
+      </c>
+      <c r="B326" t="s">
+        <v>453</v>
+      </c>
+      <c r="C326" t="s">
+        <v>454</v>
+      </c>
+      <c r="D326" t="s">
+        <v>12</v>
+      </c>
+      <c r="E326" t="s">
+        <v>455</v>
+      </c>
+      <c r="F326" t="n">
+        <v>110</v>
+      </c>
+      <c r="G326" t="n">
+        <v>9</v>
+      </c>
+      <c r="H326" t="n">
+        <v>8</v>
+      </c>
+      <c r="I326" t="n">
+        <v>8</v>
+      </c>
+      <c r="J326" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>2</v>
+      </c>
+      <c r="B327" t="s">
+        <v>453</v>
+      </c>
+      <c r="C327" t="s">
+        <v>454</v>
+      </c>
+      <c r="D327" t="s">
+        <v>12</v>
+      </c>
+      <c r="E327" t="s">
+        <v>456</v>
+      </c>
+      <c r="F327" t="n">
+        <v>669</v>
+      </c>
+      <c r="G327" t="n">
+        <v>68</v>
+      </c>
+      <c r="H327" t="n">
+        <v>62</v>
+      </c>
+      <c r="I327" t="n">
+        <v>62</v>
+      </c>
+      <c r="J327"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>3</v>
+      </c>
+      <c r="B328" t="s">
+        <v>453</v>
+      </c>
+      <c r="C328" t="s">
+        <v>454</v>
+      </c>
+      <c r="D328" t="s">
+        <v>12</v>
+      </c>
+      <c r="E328" t="s">
+        <v>457</v>
+      </c>
+      <c r="F328" t="n">
+        <v>589</v>
+      </c>
+      <c r="G328" t="n">
+        <v>38</v>
+      </c>
+      <c r="H328" t="n">
+        <v>34</v>
+      </c>
+      <c r="I328" t="n">
+        <v>38</v>
+      </c>
+      <c r="J328"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>4</v>
+      </c>
+      <c r="B329" t="s">
+        <v>453</v>
+      </c>
+      <c r="C329" t="s">
+        <v>454</v>
+      </c>
+      <c r="D329" t="s">
+        <v>12</v>
+      </c>
+      <c r="E329" t="s">
+        <v>458</v>
+      </c>
+      <c r="F329" t="n">
+        <v>203</v>
+      </c>
+      <c r="G329" t="n">
+        <v>31</v>
+      </c>
+      <c r="H329" t="n">
+        <v>30</v>
+      </c>
+      <c r="I329" t="n">
+        <v>30</v>
+      </c>
+      <c r="J329"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>5</v>
+      </c>
+      <c r="B330" t="s">
+        <v>453</v>
+      </c>
+      <c r="C330" t="s">
+        <v>454</v>
+      </c>
+      <c r="D330" t="s">
+        <v>12</v>
+      </c>
+      <c r="E330" t="s">
+        <v>459</v>
+      </c>
+      <c r="F330" t="n">
+        <v>213</v>
+      </c>
+      <c r="G330" t="n">
+        <v>32</v>
+      </c>
+      <c r="H330" t="n">
+        <v>32</v>
+      </c>
+      <c r="I330" t="n">
+        <v>30</v>
+      </c>
+      <c r="J330"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>6</v>
+      </c>
+      <c r="B331" t="s">
+        <v>453</v>
+      </c>
+      <c r="C331" t="s">
+        <v>460</v>
+      </c>
+      <c r="D331" t="s">
+        <v>12</v>
+      </c>
+      <c r="E331" t="s">
+        <v>461</v>
+      </c>
+      <c r="F331" t="n">
+        <v>162</v>
+      </c>
+      <c r="G331" t="n">
+        <v>16</v>
+      </c>
+      <c r="H331" t="n">
+        <v>16</v>
+      </c>
+      <c r="I331" t="n">
+        <v>15</v>
+      </c>
+      <c r="J331"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>7</v>
+      </c>
+      <c r="B332" t="s">
+        <v>453</v>
+      </c>
+      <c r="C332" t="s">
+        <v>462</v>
+      </c>
+      <c r="D332" t="s">
+        <v>12</v>
+      </c>
+      <c r="E332" t="s">
+        <v>463</v>
+      </c>
+      <c r="F332" t="n">
+        <v>408</v>
+      </c>
+      <c r="G332" t="n">
+        <v>21</v>
+      </c>
+      <c r="H332" t="n">
+        <v>20</v>
+      </c>
+      <c r="I332" t="n">
+        <v>20</v>
+      </c>
+      <c r="J332"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>8</v>
+      </c>
+      <c r="B333" t="s">
+        <v>453</v>
+      </c>
+      <c r="C333" t="s">
+        <v>462</v>
+      </c>
+      <c r="D333" t="s">
+        <v>12</v>
+      </c>
+      <c r="E333" t="s">
+        <v>464</v>
+      </c>
+      <c r="F333" t="n">
+        <v>528</v>
+      </c>
+      <c r="G333" t="n">
+        <v>51</v>
+      </c>
+      <c r="H333" t="n">
+        <v>46</v>
+      </c>
+      <c r="I333" t="n">
+        <v>45</v>
+      </c>
+      <c r="J333"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>9</v>
+      </c>
+      <c r="B334" t="s">
+        <v>453</v>
+      </c>
+      <c r="C334" t="s">
+        <v>462</v>
+      </c>
+      <c r="D334" t="s">
+        <v>12</v>
+      </c>
+      <c r="E334" t="s">
+        <v>465</v>
+      </c>
+      <c r="F334" t="n">
+        <v>29</v>
+      </c>
+      <c r="G334" t="n">
+        <v>10</v>
+      </c>
+      <c r="H334" t="n">
+        <v>9</v>
+      </c>
+      <c r="I334" t="n">
+        <v>9</v>
+      </c>
+      <c r="J334"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>10</v>
+      </c>
+      <c r="B335" t="s">
+        <v>453</v>
+      </c>
+      <c r="C335" t="s">
+        <v>462</v>
+      </c>
+      <c r="D335" t="s">
+        <v>12</v>
+      </c>
+      <c r="E335" t="s">
+        <v>466</v>
+      </c>
+      <c r="F335" t="n">
+        <v>522</v>
+      </c>
+      <c r="G335" t="n">
+        <v>110</v>
+      </c>
+      <c r="H335" t="n">
+        <v>46</v>
+      </c>
+      <c r="I335" t="n">
+        <v>44</v>
+      </c>
+      <c r="J335"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>11</v>
+      </c>
+      <c r="B336" t="s">
+        <v>453</v>
+      </c>
+      <c r="C336" t="s">
+        <v>462</v>
+      </c>
+      <c r="D336" t="s">
+        <v>12</v>
+      </c>
+      <c r="E336" t="s">
+        <v>467</v>
+      </c>
+      <c r="F336" t="n">
+        <v>597</v>
+      </c>
+      <c r="G336" t="n">
+        <v>39</v>
+      </c>
+      <c r="H336" t="n">
+        <v>39</v>
+      </c>
+      <c r="I336" t="n">
+        <v>39</v>
+      </c>
+      <c r="J336"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>12</v>
+      </c>
+      <c r="B337" t="s">
+        <v>453</v>
+      </c>
+      <c r="C337" t="s">
+        <v>462</v>
+      </c>
+      <c r="D337" t="s">
+        <v>12</v>
+      </c>
+      <c r="E337" t="s">
+        <v>468</v>
+      </c>
+      <c r="F337" t="n">
+        <v>479</v>
+      </c>
+      <c r="G337" t="n">
+        <v>52</v>
+      </c>
+      <c r="H337" t="n">
+        <v>44</v>
+      </c>
+      <c r="I337" t="n">
+        <v>50</v>
+      </c>
+      <c r="J337"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>13</v>
+      </c>
+      <c r="B338" t="s">
+        <v>453</v>
+      </c>
+      <c r="C338" t="s">
+        <v>462</v>
+      </c>
+      <c r="D338" t="s">
+        <v>12</v>
+      </c>
+      <c r="E338" t="s">
+        <v>469</v>
+      </c>
+      <c r="F338" t="n">
+        <v>278</v>
+      </c>
+      <c r="G338" t="n">
+        <v>41</v>
+      </c>
+      <c r="H338" t="n">
+        <v>38</v>
+      </c>
+      <c r="I338" t="n">
+        <v>41</v>
+      </c>
+      <c r="J338"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>14</v>
+      </c>
+      <c r="B339" t="s">
+        <v>453</v>
+      </c>
+      <c r="C339" t="s">
+        <v>462</v>
+      </c>
+      <c r="D339" t="s">
+        <v>12</v>
+      </c>
+      <c r="E339" t="s">
+        <v>470</v>
+      </c>
+      <c r="F339" t="n">
+        <v>218</v>
+      </c>
+      <c r="G339" t="n">
+        <v>58</v>
+      </c>
+      <c r="H339" t="n">
+        <v>41</v>
+      </c>
+      <c r="I339" t="n">
+        <v>53</v>
+      </c>
+      <c r="J339"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>15</v>
+      </c>
+      <c r="B340" t="s">
+        <v>453</v>
+      </c>
+      <c r="C340" t="s">
+        <v>462</v>
+      </c>
+      <c r="D340" t="s">
+        <v>12</v>
+      </c>
+      <c r="E340" t="s">
+        <v>471</v>
+      </c>
+      <c r="F340" t="n">
+        <v>149</v>
+      </c>
+      <c r="G340" t="n">
+        <v>14</v>
+      </c>
+      <c r="H340" t="n">
+        <v>12</v>
+      </c>
+      <c r="I340" t="n">
+        <v>14</v>
+      </c>
+      <c r="J340"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>16</v>
+      </c>
+      <c r="B341" t="s">
+        <v>453</v>
+      </c>
+      <c r="C341" t="s">
+        <v>462</v>
+      </c>
+      <c r="D341" t="s">
+        <v>12</v>
+      </c>
+      <c r="E341" t="s">
+        <v>472</v>
+      </c>
+      <c r="F341" t="n">
+        <v>60</v>
+      </c>
+      <c r="G341" t="n">
+        <v>22</v>
+      </c>
+      <c r="H341" t="n">
+        <v>17</v>
+      </c>
+      <c r="I341" t="n">
+        <v>22</v>
+      </c>
+      <c r="J341"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>17</v>
+      </c>
+      <c r="B342" t="s">
+        <v>453</v>
+      </c>
+      <c r="C342" t="s">
+        <v>460</v>
+      </c>
+      <c r="D342" t="s">
+        <v>12</v>
+      </c>
+      <c r="E342" t="s">
+        <v>473</v>
+      </c>
+      <c r="F342" t="n">
+        <v>151</v>
+      </c>
+      <c r="G342" t="n">
+        <v>20</v>
+      </c>
+      <c r="H342" t="n">
+        <v>19</v>
+      </c>
+      <c r="I342" t="n">
+        <v>18</v>
+      </c>
+      <c r="J342"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>18</v>
+      </c>
+      <c r="B343" t="s">
+        <v>453</v>
+      </c>
+      <c r="C343" t="s">
+        <v>460</v>
+      </c>
+      <c r="D343" t="s">
+        <v>12</v>
+      </c>
+      <c r="E343" t="s">
+        <v>474</v>
+      </c>
+      <c r="F343" t="n">
+        <v>539</v>
+      </c>
+      <c r="G343" t="n">
+        <v>73</v>
+      </c>
+      <c r="H343" t="n">
+        <v>38</v>
+      </c>
+      <c r="I343" t="n">
+        <v>38</v>
+      </c>
+      <c r="J343"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>19</v>
+      </c>
+      <c r="B344" t="s">
+        <v>453</v>
+      </c>
+      <c r="C344" t="s">
+        <v>460</v>
+      </c>
+      <c r="D344" t="s">
+        <v>12</v>
+      </c>
+      <c r="E344" t="s">
+        <v>475</v>
+      </c>
+      <c r="F344" t="n">
+        <v>268</v>
+      </c>
+      <c r="G344" t="n">
+        <v>30</v>
+      </c>
+      <c r="H344" t="n">
+        <v>30</v>
+      </c>
+      <c r="I344" t="n">
+        <v>30</v>
+      </c>
+      <c r="J344"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>20</v>
+      </c>
+      <c r="B345" t="s">
+        <v>453</v>
+      </c>
+      <c r="C345" t="s">
+        <v>460</v>
+      </c>
+      <c r="D345" t="s">
+        <v>12</v>
+      </c>
+      <c r="E345" t="s">
+        <v>476</v>
+      </c>
+      <c r="F345" t="n">
+        <v>158</v>
+      </c>
+      <c r="G345" t="n">
+        <v>16</v>
+      </c>
+      <c r="H345" t="n">
+        <v>16</v>
+      </c>
+      <c r="I345" t="n">
+        <v>13</v>
+      </c>
+      <c r="J345"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>21</v>
+      </c>
+      <c r="B346" t="s">
+        <v>453</v>
+      </c>
+      <c r="C346" t="s">
+        <v>460</v>
+      </c>
+      <c r="D346" t="s">
+        <v>12</v>
+      </c>
+      <c r="E346" t="s">
+        <v>477</v>
+      </c>
+      <c r="F346" t="n">
+        <v>312</v>
+      </c>
+      <c r="G346" t="n">
+        <v>33</v>
+      </c>
+      <c r="H346" t="n">
+        <v>31</v>
+      </c>
+      <c r="I346" t="n">
+        <v>30</v>
+      </c>
+      <c r="J346"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>22</v>
+      </c>
+      <c r="B347" t="s">
+        <v>453</v>
+      </c>
+      <c r="C347" t="s">
+        <v>454</v>
+      </c>
+      <c r="D347" t="s">
+        <v>12</v>
+      </c>
+      <c r="E347" t="s">
+        <v>478</v>
+      </c>
+      <c r="F347" t="n">
+        <v>427</v>
+      </c>
+      <c r="G347" t="n">
+        <v>22</v>
+      </c>
+      <c r="H347" t="n">
+        <v>21</v>
+      </c>
+      <c r="I347" t="n">
+        <v>0</v>
+      </c>
+      <c r="J347"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>23</v>
+      </c>
+      <c r="B348" t="s">
+        <v>453</v>
+      </c>
+      <c r="C348" t="s">
+        <v>454</v>
+      </c>
+      <c r="D348" t="s">
+        <v>12</v>
+      </c>
+      <c r="E348" t="s">
+        <v>478</v>
+      </c>
+      <c r="F348" t="n">
+        <v>138</v>
+      </c>
+      <c r="G348" t="n">
+        <v>16</v>
+      </c>
+      <c r="H348" t="n">
+        <v>16</v>
+      </c>
+      <c r="I348" t="n">
+        <v>20</v>
+      </c>
+      <c r="J348"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>24</v>
+      </c>
+      <c r="B349" t="s">
+        <v>453</v>
+      </c>
+      <c r="C349" t="s">
+        <v>462</v>
+      </c>
+      <c r="D349" t="s">
+        <v>12</v>
+      </c>
+      <c r="E349" t="s">
+        <v>478</v>
+      </c>
+      <c r="F349" t="n">
+        <v>602</v>
+      </c>
+      <c r="G349" t="n">
+        <v>42</v>
+      </c>
+      <c r="H349" t="n">
+        <v>42</v>
+      </c>
+      <c r="I349" t="n">
+        <v>0</v>
+      </c>
+      <c r="J349"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>25</v>
+      </c>
+      <c r="B350" t="s">
+        <v>453</v>
+      </c>
+      <c r="C350" t="s">
+        <v>462</v>
+      </c>
+      <c r="D350" t="s">
+        <v>12</v>
+      </c>
+      <c r="E350" t="s">
+        <v>478</v>
+      </c>
+      <c r="F350" t="n">
+        <v>97</v>
+      </c>
+      <c r="G350" t="n">
+        <v>11</v>
+      </c>
+      <c r="H350" t="n">
+        <v>10</v>
+      </c>
+      <c r="I350" t="n">
+        <v>0</v>
+      </c>
+      <c r="J350"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>26</v>
+      </c>
+      <c r="B351" t="s">
+        <v>453</v>
+      </c>
+      <c r="C351" t="s">
+        <v>462</v>
+      </c>
+      <c r="D351" t="s">
+        <v>12</v>
+      </c>
+      <c r="E351" t="s">
+        <v>478</v>
+      </c>
+      <c r="F351" t="n">
+        <v>104</v>
+      </c>
+      <c r="G351" t="n">
+        <v>13</v>
+      </c>
+      <c r="H351" t="n">
+        <v>12</v>
+      </c>
+      <c r="I351" t="n">
+        <v>0</v>
+      </c>
+      <c r="J351"/>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>27</v>
+      </c>
+      <c r="B352" t="s">
+        <v>453</v>
+      </c>
+      <c r="C352" t="s">
+        <v>479</v>
+      </c>
+      <c r="D352" t="s">
+        <v>12</v>
+      </c>
+      <c r="E352" t="s">
+        <v>480</v>
+      </c>
+      <c r="F352" t="n">
+        <v>175</v>
+      </c>
+      <c r="G352" t="n">
+        <v>21</v>
+      </c>
+      <c r="H352" t="n">
+        <v>21</v>
+      </c>
+      <c r="I352" t="n">
+        <v>32</v>
+      </c>
+      <c r="J352"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>28</v>
+      </c>
+      <c r="B353" t="s">
+        <v>453</v>
+      </c>
+      <c r="C353" t="s">
+        <v>479</v>
+      </c>
+      <c r="D353" t="s">
+        <v>12</v>
+      </c>
+      <c r="E353" t="s">
+        <v>481</v>
+      </c>
+      <c r="F353" t="n">
+        <v>82</v>
+      </c>
+      <c r="G353" t="n">
+        <v>10</v>
+      </c>
+      <c r="H353" t="n">
+        <v>10</v>
+      </c>
+      <c r="I353" t="n">
+        <v>10</v>
+      </c>
+      <c r="J353"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>29</v>
+      </c>
+      <c r="B354" t="s">
+        <v>453</v>
+      </c>
+      <c r="C354" t="s">
+        <v>479</v>
+      </c>
+      <c r="D354" t="s">
+        <v>12</v>
+      </c>
+      <c r="E354" t="s">
+        <v>482</v>
+      </c>
+      <c r="F354" t="n">
+        <v>71</v>
+      </c>
+      <c r="G354" t="n">
+        <v>8</v>
+      </c>
+      <c r="H354" t="n">
+        <v>8</v>
+      </c>
+      <c r="I354" t="n">
+        <v>8</v>
+      </c>
+      <c r="J354"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>30</v>
+      </c>
+      <c r="B355" t="s">
+        <v>453</v>
+      </c>
+      <c r="C355" t="s">
+        <v>483</v>
+      </c>
+      <c r="D355" t="s">
+        <v>12</v>
+      </c>
+      <c r="E355" t="s">
+        <v>484</v>
+      </c>
+      <c r="F355" t="n">
+        <v>79</v>
+      </c>
+      <c r="G355" t="n">
+        <v>10</v>
+      </c>
+      <c r="H355" t="n">
+        <v>10</v>
+      </c>
+      <c r="I355" t="n">
+        <v>10</v>
+      </c>
+      <c r="J355"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>31</v>
+      </c>
+      <c r="B356" t="s">
+        <v>453</v>
+      </c>
+      <c r="C356" t="s">
+        <v>485</v>
+      </c>
+      <c r="D356" t="s">
+        <v>12</v>
+      </c>
+      <c r="E356" t="s">
+        <v>486</v>
+      </c>
+      <c r="F356" t="n">
+        <v>126</v>
+      </c>
+      <c r="G356" t="n">
+        <v>18</v>
+      </c>
+      <c r="H356" t="n">
+        <v>18</v>
+      </c>
+      <c r="I356" t="n">
+        <v>28</v>
+      </c>
+      <c r="J356"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>32</v>
+      </c>
+      <c r="B357" t="s">
+        <v>453</v>
+      </c>
+      <c r="C357" t="s">
+        <v>485</v>
+      </c>
+      <c r="D357" t="s">
+        <v>12</v>
+      </c>
+      <c r="E357" t="s">
+        <v>487</v>
+      </c>
+      <c r="F357" t="n">
+        <v>384</v>
+      </c>
+      <c r="G357" t="n">
+        <v>60</v>
+      </c>
+      <c r="H357" t="n">
+        <v>49</v>
+      </c>
+      <c r="I357" t="n">
+        <v>30</v>
+      </c>
+      <c r="J357"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>33</v>
+      </c>
+      <c r="B358" t="s">
+        <v>453</v>
+      </c>
+      <c r="C358" t="s">
+        <v>485</v>
+      </c>
+      <c r="D358" t="s">
+        <v>12</v>
+      </c>
+      <c r="E358" t="s">
+        <v>488</v>
+      </c>
+      <c r="F358" t="n">
+        <v>96</v>
+      </c>
+      <c r="G358" t="n">
+        <v>12</v>
+      </c>
+      <c r="H358" t="n">
+        <v>12</v>
+      </c>
+      <c r="I358" t="n">
+        <v>12</v>
+      </c>
+      <c r="J358"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>34</v>
+      </c>
+      <c r="B359" t="s">
+        <v>453</v>
+      </c>
+      <c r="C359" t="s">
+        <v>485</v>
+      </c>
+      <c r="D359" t="s">
+        <v>12</v>
+      </c>
+      <c r="E359" t="s">
+        <v>489</v>
+      </c>
+      <c r="F359" t="n">
+        <v>364</v>
+      </c>
+      <c r="G359" t="n">
+        <v>28</v>
+      </c>
+      <c r="H359" t="n">
+        <v>28</v>
+      </c>
+      <c r="I359" t="n">
+        <v>52</v>
+      </c>
+      <c r="J359"/>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>35</v>
+      </c>
+      <c r="B360" t="s">
+        <v>453</v>
+      </c>
+      <c r="C360" t="s">
+        <v>485</v>
+      </c>
+      <c r="D360" t="s">
+        <v>12</v>
+      </c>
+      <c r="E360" t="s">
+        <v>490</v>
+      </c>
+      <c r="F360" t="n">
+        <v>238</v>
+      </c>
+      <c r="G360" t="n">
+        <v>34</v>
+      </c>
+      <c r="H360" t="n">
+        <v>34</v>
+      </c>
+      <c r="I360" t="n">
+        <v>34</v>
+      </c>
+      <c r="J360"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>36</v>
+      </c>
+      <c r="B361" t="s">
+        <v>453</v>
+      </c>
+      <c r="C361" t="s">
+        <v>60</v>
+      </c>
+      <c r="D361" t="s">
+        <v>12</v>
+      </c>
+      <c r="E361" t="s">
+        <v>491</v>
+      </c>
+      <c r="F361" t="n">
+        <v>35</v>
+      </c>
+      <c r="G361" t="n">
+        <v>7</v>
+      </c>
+      <c r="H361" t="n">
+        <v>7</v>
+      </c>
+      <c r="I361" t="n">
+        <v>14</v>
+      </c>
+      <c r="J361"/>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>37</v>
+      </c>
+      <c r="B362" t="s">
+        <v>453</v>
+      </c>
+      <c r="C362" t="s">
+        <v>485</v>
+      </c>
+      <c r="D362" t="s">
+        <v>12</v>
+      </c>
+      <c r="E362" t="s">
+        <v>492</v>
+      </c>
+      <c r="F362"/>
+      <c r="G362" t="n">
+        <v>40</v>
+      </c>
+      <c r="H362" t="n">
+        <v>39</v>
+      </c>
+      <c r="I362" t="n">
+        <v>39</v>
+      </c>
+      <c r="J362"/>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>38</v>
+      </c>
+      <c r="B363" t="s">
+        <v>493</v>
+      </c>
+      <c r="C363" t="s">
+        <v>494</v>
+      </c>
+      <c r="D363" t="s">
+        <v>12</v>
+      </c>
+      <c r="E363" t="s">
+        <v>495</v>
+      </c>
+      <c r="F363" t="n">
+        <v>771</v>
+      </c>
+      <c r="G363" t="n">
+        <v>28</v>
+      </c>
+      <c r="H363" t="n">
+        <v>24</v>
+      </c>
+      <c r="I363" t="n">
+        <v>22</v>
+      </c>
+      <c r="J363" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>39</v>
+      </c>
+      <c r="B364" t="s">
+        <v>493</v>
+      </c>
+      <c r="C364" t="s">
+        <v>494</v>
+      </c>
+      <c r="D364" t="s">
+        <v>12</v>
+      </c>
+      <c r="E364" t="s">
+        <v>496</v>
+      </c>
+      <c r="F364" t="n">
+        <v>1596</v>
+      </c>
+      <c r="G364" t="n">
+        <v>87</v>
+      </c>
+      <c r="H364" t="n">
+        <v>48</v>
+      </c>
+      <c r="I364" t="n">
+        <v>30</v>
+      </c>
+      <c r="J364"/>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>40</v>
+      </c>
+      <c r="B365" t="s">
+        <v>493</v>
+      </c>
+      <c r="C365" t="s">
+        <v>497</v>
+      </c>
+      <c r="D365" t="s">
+        <v>12</v>
+      </c>
+      <c r="E365" t="s">
+        <v>498</v>
+      </c>
+      <c r="F365" t="n">
+        <v>338</v>
+      </c>
+      <c r="G365" t="n">
+        <v>26</v>
+      </c>
+      <c r="H365" t="n">
+        <v>24</v>
+      </c>
+      <c r="I365" t="n">
+        <v>5</v>
+      </c>
+      <c r="J365"/>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>41</v>
+      </c>
+      <c r="B366" t="s">
+        <v>493</v>
+      </c>
+      <c r="C366" t="s">
+        <v>499</v>
+      </c>
+      <c r="D366" t="s">
+        <v>12</v>
+      </c>
+      <c r="E366" t="s">
+        <v>500</v>
+      </c>
+      <c r="F366" t="n">
+        <v>128</v>
+      </c>
+      <c r="G366" t="n">
+        <v>17</v>
+      </c>
+      <c r="H366" t="n">
+        <v>15</v>
+      </c>
+      <c r="I366" t="n">
+        <v>6</v>
+      </c>
+      <c r="J366"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>42</v>
+      </c>
+      <c r="B367" t="s">
+        <v>493</v>
+      </c>
+      <c r="C367" t="s">
+        <v>494</v>
+      </c>
+      <c r="D367" t="s">
+        <v>12</v>
+      </c>
+      <c r="E367" t="s">
+        <v>501</v>
+      </c>
+      <c r="F367" t="n">
+        <v>343</v>
+      </c>
+      <c r="G367" t="n">
+        <v>25</v>
+      </c>
+      <c r="H367" t="n">
+        <v>24</v>
+      </c>
+      <c r="I367" t="n">
+        <v>8</v>
+      </c>
+      <c r="J367"/>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>43</v>
+      </c>
+      <c r="B368" t="s">
+        <v>493</v>
+      </c>
+      <c r="C368" t="s">
+        <v>502</v>
+      </c>
+      <c r="D368" t="s">
+        <v>12</v>
+      </c>
+      <c r="E368" t="s">
+        <v>503</v>
+      </c>
+      <c r="F368" t="n">
+        <v>300</v>
+      </c>
+      <c r="G368" t="n">
+        <v>29</v>
+      </c>
+      <c r="H368" t="n">
+        <v>25</v>
+      </c>
+      <c r="I368" t="n">
+        <v>12</v>
+      </c>
+      <c r="J368"/>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>44</v>
+      </c>
+      <c r="B369" t="s">
+        <v>493</v>
+      </c>
+      <c r="C369" t="s">
+        <v>504</v>
+      </c>
+      <c r="D369" t="s">
+        <v>12</v>
+      </c>
+      <c r="E369" t="s">
+        <v>505</v>
+      </c>
+      <c r="F369" t="n">
+        <v>131</v>
+      </c>
+      <c r="G369" t="n">
+        <v>16</v>
+      </c>
+      <c r="H369" t="n">
+        <v>12</v>
+      </c>
+      <c r="I369" t="n">
+        <v>10</v>
+      </c>
+      <c r="J369"/>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>45</v>
+      </c>
+      <c r="B370" t="s">
+        <v>493</v>
+      </c>
+      <c r="C370" t="s">
+        <v>502</v>
+      </c>
+      <c r="D370" t="s">
+        <v>12</v>
+      </c>
+      <c r="E370" t="s">
+        <v>506</v>
+      </c>
+      <c r="F370" t="n">
+        <v>264</v>
+      </c>
+      <c r="G370" t="n">
+        <v>44</v>
+      </c>
+      <c r="H370" t="n">
+        <v>25</v>
+      </c>
+      <c r="I370" t="n">
+        <v>20</v>
+      </c>
+      <c r="J370"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>46</v>
+      </c>
+      <c r="B371" t="s">
+        <v>507</v>
+      </c>
+      <c r="C371" t="s">
+        <v>507</v>
+      </c>
+      <c r="D371" t="s">
+        <v>12</v>
+      </c>
+      <c r="E371" t="s">
+        <v>508</v>
+      </c>
+      <c r="F371" t="n">
+        <v>1850</v>
+      </c>
+      <c r="G371" t="n">
+        <v>120</v>
+      </c>
+      <c r="H371" t="n">
+        <v>103</v>
+      </c>
+      <c r="I371" t="n">
+        <v>45</v>
+      </c>
+      <c r="J371" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>47</v>
+      </c>
+      <c r="B372" t="s">
+        <v>507</v>
+      </c>
+      <c r="C372" t="s">
+        <v>507</v>
+      </c>
+      <c r="D372" t="s">
+        <v>12</v>
+      </c>
+      <c r="E372" t="s">
+        <v>509</v>
+      </c>
+      <c r="F372" t="n">
+        <v>344</v>
+      </c>
+      <c r="G372" t="n">
+        <v>91</v>
+      </c>
+      <c r="H372" t="n">
+        <v>78</v>
+      </c>
+      <c r="I372" t="n">
+        <v>18</v>
+      </c>
+      <c r="J372"/>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>48</v>
+      </c>
+      <c r="B373" t="s">
+        <v>507</v>
+      </c>
+      <c r="C373" t="s">
+        <v>507</v>
+      </c>
+      <c r="D373" t="s">
+        <v>12</v>
+      </c>
+      <c r="E373" t="s">
+        <v>510</v>
+      </c>
+      <c r="F373" t="n">
+        <v>524</v>
+      </c>
+      <c r="G373" t="n">
+        <v>84</v>
+      </c>
+      <c r="H373" t="n">
+        <v>71</v>
+      </c>
+      <c r="I373" t="n">
+        <v>55</v>
+      </c>
+      <c r="J373"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>49</v>
+      </c>
+      <c r="B374" t="s">
+        <v>507</v>
+      </c>
+      <c r="C374" t="s">
+        <v>511</v>
+      </c>
+      <c r="D374" t="s">
+        <v>12</v>
+      </c>
+      <c r="E374" t="s">
+        <v>512</v>
+      </c>
+      <c r="F374" t="n">
+        <v>253</v>
+      </c>
+      <c r="G374" t="n">
+        <v>43</v>
+      </c>
+      <c r="H374" t="n">
+        <v>35</v>
+      </c>
+      <c r="I374" t="n">
+        <v>22</v>
+      </c>
+      <c r="J374"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>50</v>
+      </c>
+      <c r="B375" t="s">
+        <v>507</v>
+      </c>
+      <c r="C375" t="s">
+        <v>511</v>
+      </c>
+      <c r="D375" t="s">
+        <v>12</v>
+      </c>
+      <c r="E375" t="s">
+        <v>513</v>
+      </c>
+      <c r="F375" t="n">
+        <v>338</v>
+      </c>
+      <c r="G375" t="n">
+        <v>76</v>
+      </c>
+      <c r="H375" t="n">
+        <v>68</v>
+      </c>
+      <c r="I375" t="n">
+        <v>52</v>
+      </c>
+      <c r="J375"/>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>51</v>
+      </c>
+      <c r="B376" t="s">
+        <v>514</v>
+      </c>
+      <c r="C376" t="s">
+        <v>515</v>
+      </c>
+      <c r="D376" t="s">
+        <v>12</v>
+      </c>
+      <c r="E376" t="s">
+        <v>516</v>
+      </c>
+      <c r="F376" t="n">
+        <v>382</v>
+      </c>
+      <c r="G376" t="n">
+        <v>33</v>
+      </c>
+      <c r="H376" t="n">
+        <v>9</v>
+      </c>
+      <c r="I376" t="n">
+        <v>10</v>
+      </c>
+      <c r="J376" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>52</v>
+      </c>
+      <c r="B377" t="s">
+        <v>514</v>
+      </c>
+      <c r="C377" t="s">
+        <v>515</v>
+      </c>
+      <c r="D377" t="s">
+        <v>12</v>
+      </c>
+      <c r="E377" t="s">
+        <v>517</v>
+      </c>
+      <c r="F377" t="n">
+        <v>243</v>
+      </c>
+      <c r="G377" t="n">
+        <v>31</v>
+      </c>
+      <c r="H377" t="n">
+        <v>29</v>
+      </c>
+      <c r="I377" t="n">
+        <v>26</v>
+      </c>
+      <c r="J377"/>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>53</v>
+      </c>
+      <c r="B378" t="s">
+        <v>514</v>
+      </c>
+      <c r="C378" t="s">
+        <v>518</v>
+      </c>
+      <c r="D378" t="s">
+        <v>12</v>
+      </c>
+      <c r="E378" t="s">
+        <v>519</v>
+      </c>
+      <c r="F378" t="n">
+        <v>500</v>
+      </c>
+      <c r="G378" t="n">
+        <v>29</v>
+      </c>
+      <c r="H378" t="n">
+        <v>27</v>
+      </c>
+      <c r="I378" t="n">
+        <v>25</v>
+      </c>
+      <c r="J378"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>54</v>
+      </c>
+      <c r="B379" t="s">
+        <v>514</v>
+      </c>
+      <c r="C379" t="s">
+        <v>515</v>
+      </c>
+      <c r="D379" t="s">
+        <v>12</v>
+      </c>
+      <c r="E379" t="s">
+        <v>520</v>
+      </c>
+      <c r="F379" t="n">
+        <v>175</v>
+      </c>
+      <c r="G379" t="n">
+        <v>10</v>
+      </c>
+      <c r="H379" t="n">
+        <v>10</v>
+      </c>
+      <c r="I379" t="n">
+        <v>10</v>
+      </c>
+      <c r="J379"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>55</v>
+      </c>
+      <c r="B380" t="s">
+        <v>514</v>
+      </c>
+      <c r="C380" t="s">
+        <v>515</v>
+      </c>
+      <c r="D380" t="s">
+        <v>12</v>
+      </c>
+      <c r="E380" t="s">
+        <v>521</v>
+      </c>
+      <c r="F380" t="n">
+        <v>452</v>
+      </c>
+      <c r="G380" t="n">
+        <v>15</v>
+      </c>
+      <c r="H380" t="n">
+        <v>15</v>
+      </c>
+      <c r="I380" t="n">
+        <v>11</v>
+      </c>
+      <c r="J380"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>56</v>
+      </c>
+      <c r="B381" t="s">
+        <v>514</v>
+      </c>
+      <c r="C381" t="s">
+        <v>515</v>
+      </c>
+      <c r="D381" t="s">
+        <v>12</v>
+      </c>
+      <c r="E381" t="s">
+        <v>522</v>
+      </c>
+      <c r="F381" t="n">
+        <v>154</v>
+      </c>
+      <c r="G381" t="n">
+        <v>28</v>
+      </c>
+      <c r="H381" t="n">
+        <v>32</v>
+      </c>
+      <c r="I381" t="n">
+        <v>28</v>
+      </c>
+      <c r="J381"/>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>57</v>
+      </c>
+      <c r="B382" t="s">
+        <v>514</v>
+      </c>
+      <c r="C382" t="s">
+        <v>523</v>
+      </c>
+      <c r="D382" t="s">
+        <v>12</v>
+      </c>
+      <c r="E382" t="s">
+        <v>524</v>
+      </c>
+      <c r="F382" t="n">
+        <v>191</v>
+      </c>
+      <c r="G382" t="n">
+        <v>25</v>
+      </c>
+      <c r="H382" t="n">
+        <v>23</v>
+      </c>
+      <c r="I382" t="n">
+        <v>10</v>
+      </c>
+      <c r="J382"/>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>58</v>
+      </c>
+      <c r="B383" t="s">
+        <v>514</v>
+      </c>
+      <c r="C383" t="s">
+        <v>518</v>
+      </c>
+      <c r="D383" t="s">
+        <v>12</v>
+      </c>
+      <c r="E383" t="s">
+        <v>525</v>
+      </c>
+      <c r="F383" t="n">
+        <v>766</v>
+      </c>
+      <c r="G383" t="n">
+        <v>21</v>
+      </c>
+      <c r="H383" t="n">
+        <v>18</v>
+      </c>
+      <c r="I383" t="n">
+        <v>14</v>
+      </c>
+      <c r="J383"/>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>59</v>
+      </c>
+      <c r="B384" t="s">
+        <v>514</v>
+      </c>
+      <c r="C384" t="s">
+        <v>518</v>
+      </c>
+      <c r="D384" t="s">
+        <v>12</v>
+      </c>
+      <c r="E384" t="s">
+        <v>526</v>
+      </c>
+      <c r="F384" t="n">
+        <v>349</v>
+      </c>
+      <c r="G384" t="n">
+        <v>23</v>
+      </c>
+      <c r="H384" t="n">
+        <v>19</v>
+      </c>
+      <c r="I384" t="n">
+        <v>12</v>
+      </c>
+      <c r="J384"/>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>60</v>
+      </c>
+      <c r="B385" t="s">
+        <v>514</v>
+      </c>
+      <c r="C385" t="s">
+        <v>518</v>
+      </c>
+      <c r="D385" t="s">
+        <v>12</v>
+      </c>
+      <c r="E385" t="s">
+        <v>527</v>
+      </c>
+      <c r="F385" t="n">
+        <v>104</v>
+      </c>
+      <c r="G385" t="n">
+        <v>20</v>
+      </c>
+      <c r="H385" t="n">
+        <v>16</v>
+      </c>
+      <c r="I385" t="n">
+        <v>10</v>
+      </c>
+      <c r="J385"/>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>61</v>
+      </c>
+      <c r="B386" t="s">
+        <v>514</v>
+      </c>
+      <c r="C386" t="s">
+        <v>518</v>
+      </c>
+      <c r="D386" t="s">
+        <v>12</v>
+      </c>
+      <c r="E386" t="s">
+        <v>528</v>
+      </c>
+      <c r="F386" t="n">
+        <v>250</v>
+      </c>
+      <c r="G386" t="n">
+        <v>35</v>
+      </c>
+      <c r="H386" t="n">
+        <v>35</v>
+      </c>
+      <c r="I386" t="n">
+        <v>0</v>
+      </c>
+      <c r="J386"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>62</v>
+      </c>
+      <c r="B387" t="s">
+        <v>514</v>
+      </c>
+      <c r="C387" t="s">
+        <v>518</v>
+      </c>
+      <c r="D387" t="s">
+        <v>12</v>
+      </c>
+      <c r="E387" t="s">
+        <v>529</v>
+      </c>
+      <c r="F387" t="n">
+        <v>993</v>
+      </c>
+      <c r="G387" t="n">
+        <v>55</v>
+      </c>
+      <c r="H387" t="n">
+        <v>55</v>
+      </c>
+      <c r="I387" t="n">
+        <v>70</v>
+      </c>
+      <c r="J387"/>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>63</v>
+      </c>
+      <c r="B388" t="s">
+        <v>514</v>
+      </c>
+      <c r="C388" t="s">
+        <v>518</v>
+      </c>
+      <c r="D388" t="s">
+        <v>12</v>
+      </c>
+      <c r="E388" t="s">
+        <v>530</v>
+      </c>
+      <c r="F388" t="n">
+        <v>80</v>
+      </c>
+      <c r="G388" t="n">
+        <v>7</v>
+      </c>
+      <c r="H388" t="n">
+        <v>7</v>
+      </c>
+      <c r="I388" t="n">
+        <v>6</v>
+      </c>
+      <c r="J388"/>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>64</v>
+      </c>
+      <c r="B389" t="s">
+        <v>514</v>
+      </c>
+      <c r="C389" t="s">
+        <v>518</v>
+      </c>
+      <c r="D389" t="s">
+        <v>12</v>
+      </c>
+      <c r="E389" t="s">
+        <v>531</v>
+      </c>
+      <c r="F389" t="n">
+        <v>189</v>
+      </c>
+      <c r="G389" t="n">
+        <v>11</v>
+      </c>
+      <c r="H389" t="n">
+        <v>11</v>
+      </c>
+      <c r="I389" t="n">
+        <v>9</v>
+      </c>
+      <c r="J389"/>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>65</v>
+      </c>
+      <c r="B390" t="s">
+        <v>514</v>
+      </c>
+      <c r="C390" t="s">
+        <v>532</v>
+      </c>
+      <c r="D390" t="s">
+        <v>12</v>
+      </c>
+      <c r="E390" t="s">
+        <v>533</v>
+      </c>
+      <c r="F390" t="n">
+        <v>119</v>
+      </c>
+      <c r="G390" t="n">
+        <v>10</v>
+      </c>
+      <c r="H390" t="n">
+        <v>10</v>
+      </c>
+      <c r="I390" t="n">
+        <v>20</v>
+      </c>
+      <c r="J390"/>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>66</v>
+      </c>
+      <c r="B391" t="s">
+        <v>514</v>
+      </c>
+      <c r="C391" t="s">
+        <v>523</v>
+      </c>
+      <c r="D391" t="s">
+        <v>12</v>
+      </c>
+      <c r="E391" t="s">
+        <v>534</v>
+      </c>
+      <c r="F391" t="n">
+        <v>235</v>
+      </c>
+      <c r="G391" t="n">
+        <v>20</v>
+      </c>
+      <c r="H391" t="n">
+        <v>20</v>
+      </c>
+      <c r="I391" t="n">
+        <v>17</v>
+      </c>
+      <c r="J391"/>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>67</v>
+      </c>
+      <c r="B392" t="s">
+        <v>514</v>
+      </c>
+      <c r="C392" t="s">
+        <v>523</v>
+      </c>
+      <c r="D392" t="s">
+        <v>12</v>
+      </c>
+      <c r="E392" t="s">
+        <v>535</v>
+      </c>
+      <c r="F392" t="n">
+        <v>78</v>
+      </c>
+      <c r="G392" t="n">
+        <v>10</v>
+      </c>
+      <c r="H392" t="n">
+        <v>10</v>
+      </c>
+      <c r="I392" t="n">
+        <v>10</v>
+      </c>
+      <c r="J392"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>68</v>
+      </c>
+      <c r="B393" t="s">
+        <v>514</v>
+      </c>
+      <c r="C393" t="s">
+        <v>523</v>
+      </c>
+      <c r="D393" t="s">
+        <v>12</v>
+      </c>
+      <c r="E393" t="s">
+        <v>536</v>
+      </c>
+      <c r="F393" t="n">
+        <v>178</v>
+      </c>
+      <c r="G393" t="n">
+        <v>9</v>
+      </c>
+      <c r="H393" t="n">
+        <v>10</v>
+      </c>
+      <c r="I393" t="n">
+        <v>9</v>
+      </c>
+      <c r="J393"/>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>69</v>
+      </c>
+      <c r="B394" t="s">
+        <v>514</v>
+      </c>
+      <c r="C394" t="s">
+        <v>523</v>
+      </c>
+      <c r="D394" t="s">
+        <v>12</v>
+      </c>
+      <c r="E394" t="s">
+        <v>537</v>
+      </c>
+      <c r="F394" t="n">
+        <v>66</v>
+      </c>
+      <c r="G394" t="n">
+        <v>7</v>
+      </c>
+      <c r="H394" t="n">
+        <v>9</v>
+      </c>
+      <c r="I394" t="n">
+        <v>9</v>
+      </c>
+      <c r="J394"/>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>70</v>
+      </c>
+      <c r="B395" t="s">
+        <v>514</v>
+      </c>
+      <c r="C395" t="s">
+        <v>523</v>
+      </c>
+      <c r="D395" t="s">
+        <v>12</v>
+      </c>
+      <c r="E395" t="s">
+        <v>538</v>
+      </c>
+      <c r="F395" t="n">
+        <v>100</v>
+      </c>
+      <c r="G395" t="n">
+        <v>11</v>
+      </c>
+      <c r="H395" t="n">
+        <v>11</v>
+      </c>
+      <c r="I395" t="n">
+        <v>10</v>
+      </c>
+      <c r="J395"/>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>71</v>
+      </c>
+      <c r="B396" t="s">
+        <v>514</v>
+      </c>
+      <c r="C396" t="s">
+        <v>523</v>
+      </c>
+      <c r="D396" t="s">
+        <v>12</v>
+      </c>
+      <c r="E396" t="s">
+        <v>539</v>
+      </c>
+      <c r="F396" t="n">
+        <v>345</v>
+      </c>
+      <c r="G396" t="n">
+        <v>27</v>
+      </c>
+      <c r="H396" t="n">
+        <v>27</v>
+      </c>
+      <c r="I396" t="n">
+        <v>27</v>
+      </c>
+      <c r="J396"/>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>72</v>
+      </c>
+      <c r="B397" t="s">
+        <v>514</v>
+      </c>
+      <c r="C397" t="s">
+        <v>523</v>
+      </c>
+      <c r="D397" t="s">
+        <v>12</v>
+      </c>
+      <c r="E397" t="s">
+        <v>540</v>
+      </c>
+      <c r="F397" t="n">
+        <v>550</v>
+      </c>
+      <c r="G397" t="n">
+        <v>46</v>
+      </c>
+      <c r="H397" t="n">
+        <v>46</v>
+      </c>
+      <c r="I397" t="n">
+        <v>46</v>
+      </c>
+      <c r="J397"/>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>73</v>
+      </c>
+      <c r="B398" t="s">
+        <v>514</v>
+      </c>
+      <c r="C398" t="s">
+        <v>523</v>
+      </c>
+      <c r="D398" t="s">
+        <v>12</v>
+      </c>
+      <c r="E398" t="s">
+        <v>541</v>
+      </c>
+      <c r="F398" t="n">
+        <v>185</v>
+      </c>
+      <c r="G398" t="n">
+        <v>21</v>
+      </c>
+      <c r="H398" t="n">
+        <v>21</v>
+      </c>
+      <c r="I398" t="n">
+        <v>15</v>
+      </c>
+      <c r="J398"/>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>74</v>
+      </c>
+      <c r="B399" t="s">
+        <v>514</v>
+      </c>
+      <c r="C399" t="s">
+        <v>523</v>
+      </c>
+      <c r="D399" t="s">
+        <v>12</v>
+      </c>
+      <c r="E399" t="s">
+        <v>542</v>
+      </c>
+      <c r="F399" t="n">
+        <v>72</v>
+      </c>
+      <c r="G399" t="n">
+        <v>9</v>
+      </c>
+      <c r="H399" t="n">
+        <v>10</v>
+      </c>
+      <c r="I399" t="n">
+        <v>10</v>
+      </c>
+      <c r="J399"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>75</v>
+      </c>
+      <c r="B400" t="s">
+        <v>514</v>
+      </c>
+      <c r="C400" t="s">
+        <v>523</v>
+      </c>
+      <c r="D400" t="s">
+        <v>12</v>
+      </c>
+      <c r="E400" t="s">
+        <v>543</v>
+      </c>
+      <c r="F400" t="n">
+        <v>360</v>
+      </c>
+      <c r="G400" t="n">
+        <v>37</v>
+      </c>
+      <c r="H400" t="n">
+        <v>30</v>
+      </c>
+      <c r="I400" t="n">
+        <v>40</v>
+      </c>
+      <c r="J400"/>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>76</v>
+      </c>
+      <c r="B401" t="s">
+        <v>514</v>
+      </c>
+      <c r="C401" t="s">
+        <v>523</v>
+      </c>
+      <c r="D401" t="s">
+        <v>12</v>
+      </c>
+      <c r="E401" t="s">
+        <v>544</v>
+      </c>
+      <c r="F401" t="n">
+        <v>148</v>
+      </c>
+      <c r="G401" t="n">
+        <v>8</v>
+      </c>
+      <c r="H401" t="n">
+        <v>9</v>
+      </c>
+      <c r="I401" t="n">
+        <v>12</v>
+      </c>
+      <c r="J401"/>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>77</v>
+      </c>
+      <c r="B402" t="s">
+        <v>514</v>
+      </c>
+      <c r="C402" t="s">
+        <v>545</v>
+      </c>
+      <c r="D402" t="s">
+        <v>12</v>
+      </c>
+      <c r="E402" t="s">
+        <v>546</v>
+      </c>
+      <c r="F402" t="n">
+        <v>456</v>
+      </c>
+      <c r="G402" t="n">
+        <v>33</v>
+      </c>
+      <c r="H402" t="n">
+        <v>33</v>
+      </c>
+      <c r="I402" t="n">
+        <v>25</v>
+      </c>
+      <c r="J402"/>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>78</v>
+      </c>
+      <c r="B403" t="s">
+        <v>514</v>
+      </c>
+      <c r="C403" t="s">
+        <v>515</v>
+      </c>
+      <c r="D403" t="s">
+        <v>12</v>
+      </c>
+      <c r="E403" t="s">
+        <v>547</v>
+      </c>
+      <c r="F403" t="n">
+        <v>42</v>
+      </c>
+      <c r="G403" t="n">
+        <v>9</v>
+      </c>
+      <c r="H403" t="n">
+        <v>9</v>
+      </c>
+      <c r="I403" t="n">
+        <v>1</v>
+      </c>
+      <c r="J403"/>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>79</v>
+      </c>
+      <c r="B404" t="s">
+        <v>514</v>
+      </c>
+      <c r="C404" t="s">
+        <v>545</v>
+      </c>
+      <c r="D404" t="s">
+        <v>12</v>
+      </c>
+      <c r="E404" t="s">
+        <v>548</v>
+      </c>
+      <c r="F404" t="n">
+        <v>98</v>
+      </c>
+      <c r="G404" t="n">
+        <v>14</v>
+      </c>
+      <c r="H404" t="n">
+        <v>14</v>
+      </c>
+      <c r="I404" t="n">
+        <v>15</v>
+      </c>
+      <c r="J404"/>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>80</v>
+      </c>
+      <c r="B405" t="s">
+        <v>514</v>
+      </c>
+      <c r="C405" t="s">
+        <v>462</v>
+      </c>
+      <c r="D405" t="s">
+        <v>12</v>
+      </c>
+      <c r="E405" t="s">
+        <v>549</v>
+      </c>
+      <c r="F405" t="n">
+        <v>328</v>
+      </c>
+      <c r="G405" t="n">
+        <v>32</v>
+      </c>
+      <c r="H405" t="n">
+        <v>31</v>
+      </c>
+      <c r="I405" t="n">
+        <v>20</v>
+      </c>
+      <c r="J405"/>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>81</v>
+      </c>
+      <c r="B406" t="s">
+        <v>514</v>
+      </c>
+      <c r="C406" t="s">
+        <v>523</v>
+      </c>
+      <c r="D406" t="s">
+        <v>12</v>
+      </c>
+      <c r="E406" t="s">
+        <v>550</v>
+      </c>
+      <c r="F406" t="n">
+        <v>92</v>
+      </c>
+      <c r="G406" t="n">
+        <v>13</v>
+      </c>
+      <c r="H406" t="n">
+        <v>13</v>
+      </c>
+      <c r="I406" t="n">
+        <v>10</v>
+      </c>
+      <c r="J406"/>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>82</v>
+      </c>
+      <c r="B407" t="s">
+        <v>514</v>
+      </c>
+      <c r="C407" t="s">
+        <v>518</v>
+      </c>
+      <c r="D407" t="s">
+        <v>12</v>
+      </c>
+      <c r="E407" t="s">
+        <v>551</v>
+      </c>
+      <c r="F407" t="n">
+        <v>495</v>
+      </c>
+      <c r="G407" t="n">
+        <v>26</v>
+      </c>
+      <c r="H407" t="n">
+        <v>26</v>
+      </c>
+      <c r="I407" t="n">
+        <v>32</v>
+      </c>
+      <c r="J407"/>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>83</v>
+      </c>
+      <c r="B408" t="s">
+        <v>514</v>
+      </c>
+      <c r="C408" t="s">
+        <v>523</v>
+      </c>
+      <c r="D408" t="s">
+        <v>12</v>
+      </c>
+      <c r="E408" t="s">
+        <v>552</v>
+      </c>
+      <c r="F408" t="n">
+        <v>93</v>
+      </c>
+      <c r="G408" t="n">
+        <v>13</v>
+      </c>
+      <c r="H408" t="n">
+        <v>15</v>
+      </c>
+      <c r="I408" t="n">
+        <v>21</v>
+      </c>
+      <c r="J408"/>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>84</v>
+      </c>
+      <c r="B409" t="s">
+        <v>514</v>
+      </c>
+      <c r="C409" t="s">
+        <v>523</v>
+      </c>
+      <c r="D409" t="s">
+        <v>12</v>
+      </c>
+      <c r="E409" t="s">
+        <v>553</v>
+      </c>
+      <c r="F409" t="n">
+        <v>169</v>
+      </c>
+      <c r="G409" t="n">
+        <v>13</v>
+      </c>
+      <c r="H409" t="n">
+        <v>13</v>
+      </c>
+      <c r="I409" t="n">
+        <v>7</v>
+      </c>
+      <c r="J409"/>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>85</v>
+      </c>
+      <c r="B410" t="s">
+        <v>554</v>
+      </c>
+      <c r="C410" t="s">
+        <v>555</v>
+      </c>
+      <c r="D410" t="s">
+        <v>12</v>
+      </c>
+      <c r="E410" t="s">
+        <v>556</v>
+      </c>
+      <c r="F410" t="n">
+        <v>58</v>
+      </c>
+      <c r="G410" t="n">
+        <v>6</v>
+      </c>
+      <c r="H410" t="n">
+        <v>5</v>
+      </c>
+      <c r="I410" t="n">
+        <v>8</v>
+      </c>
+      <c r="J410" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>86</v>
+      </c>
+      <c r="B411" t="s">
+        <v>554</v>
+      </c>
+      <c r="C411" t="s">
+        <v>555</v>
+      </c>
+      <c r="D411" t="s">
+        <v>12</v>
+      </c>
+      <c r="E411" t="s">
+        <v>557</v>
+      </c>
+      <c r="F411" t="n">
+        <v>296</v>
+      </c>
+      <c r="G411" t="n">
+        <v>57</v>
+      </c>
+      <c r="H411" t="n">
+        <v>52</v>
+      </c>
+      <c r="I411" t="n">
+        <v>30</v>
+      </c>
+      <c r="J411"/>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>87</v>
+      </c>
+      <c r="B412" t="s">
+        <v>554</v>
+      </c>
+      <c r="C412" t="s">
+        <v>558</v>
+      </c>
+      <c r="D412" t="s">
+        <v>12</v>
+      </c>
+      <c r="E412" t="s">
+        <v>559</v>
+      </c>
+      <c r="F412" t="n">
+        <v>357</v>
+      </c>
+      <c r="G412" t="n">
+        <v>51</v>
+      </c>
+      <c r="H412" t="n">
+        <v>50</v>
+      </c>
+      <c r="I412" t="n">
+        <v>32</v>
+      </c>
+      <c r="J412"/>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>88</v>
+      </c>
+      <c r="B413" t="s">
+        <v>554</v>
+      </c>
+      <c r="C413" t="s">
+        <v>558</v>
+      </c>
+      <c r="D413" t="s">
+        <v>12</v>
+      </c>
+      <c r="E413" t="s">
+        <v>560</v>
+      </c>
+      <c r="F413" t="n">
+        <v>530</v>
+      </c>
+      <c r="G413" t="n">
+        <v>62</v>
+      </c>
+      <c r="H413" t="n">
+        <v>67</v>
+      </c>
+      <c r="I413" t="n">
+        <v>26</v>
+      </c>
+      <c r="J413"/>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>89</v>
+      </c>
+      <c r="B414" t="s">
+        <v>554</v>
+      </c>
+      <c r="C414" t="s">
+        <v>558</v>
+      </c>
+      <c r="D414" t="s">
+        <v>12</v>
+      </c>
+      <c r="E414" t="s">
+        <v>561</v>
+      </c>
+      <c r="F414" t="n">
+        <v>957</v>
+      </c>
+      <c r="G414" t="n">
+        <v>72</v>
+      </c>
+      <c r="H414" t="n">
+        <v>62</v>
+      </c>
+      <c r="I414" t="n">
+        <v>46</v>
+      </c>
+      <c r="J414"/>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>90</v>
+      </c>
+      <c r="B415" t="s">
+        <v>554</v>
+      </c>
+      <c r="C415" t="s">
+        <v>558</v>
+      </c>
+      <c r="D415" t="s">
+        <v>12</v>
+      </c>
+      <c r="E415" t="s">
+        <v>562</v>
+      </c>
+      <c r="F415" t="n">
+        <v>654</v>
+      </c>
+      <c r="G415" t="n">
+        <v>56</v>
+      </c>
+      <c r="H415" t="n">
+        <v>69</v>
+      </c>
+      <c r="I415" t="n">
+        <v>38</v>
+      </c>
+      <c r="J415"/>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>91</v>
+      </c>
+      <c r="B416" t="s">
+        <v>554</v>
+      </c>
+      <c r="C416" t="s">
+        <v>554</v>
+      </c>
+      <c r="D416" t="s">
+        <v>12</v>
+      </c>
+      <c r="E416" t="s">
+        <v>563</v>
+      </c>
+      <c r="F416" t="n">
+        <v>238</v>
+      </c>
+      <c r="G416" t="n">
+        <v>19</v>
+      </c>
+      <c r="H416" t="n">
+        <v>18</v>
+      </c>
+      <c r="I416" t="n">
+        <v>18</v>
+      </c>
+      <c r="J416"/>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>92</v>
+      </c>
+      <c r="B417" t="s">
+        <v>554</v>
+      </c>
+      <c r="C417" t="s">
+        <v>554</v>
+      </c>
+      <c r="D417" t="s">
+        <v>12</v>
+      </c>
+      <c r="E417" t="s">
+        <v>564</v>
+      </c>
+      <c r="F417" t="n">
+        <v>596</v>
+      </c>
+      <c r="G417" t="n">
+        <v>106</v>
+      </c>
+      <c r="H417" t="n">
+        <v>100</v>
+      </c>
+      <c r="I417" t="n">
+        <v>45</v>
+      </c>
+      <c r="J417"/>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>93</v>
+      </c>
+      <c r="B418" t="s">
+        <v>565</v>
+      </c>
+      <c r="C418" t="s">
+        <v>566</v>
+      </c>
+      <c r="D418" t="s">
+        <v>12</v>
+      </c>
+      <c r="E418" t="s">
+        <v>567</v>
+      </c>
+      <c r="F418" t="n">
+        <v>485</v>
+      </c>
+      <c r="G418" t="n">
+        <v>84</v>
+      </c>
+      <c r="H418" t="n">
+        <v>32</v>
+      </c>
+      <c r="I418" t="n">
+        <v>32</v>
+      </c>
+      <c r="J418" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>94</v>
+      </c>
+      <c r="B419" t="s">
+        <v>565</v>
+      </c>
+      <c r="C419" t="s">
+        <v>566</v>
+      </c>
+      <c r="D419" t="s">
+        <v>12</v>
+      </c>
+      <c r="E419" t="s">
+        <v>568</v>
+      </c>
+      <c r="F419" t="n">
+        <v>419</v>
+      </c>
+      <c r="G419" t="n">
+        <v>23</v>
+      </c>
+      <c r="H419" t="n">
+        <v>20</v>
+      </c>
+      <c r="I419" t="n">
+        <v>18</v>
+      </c>
+      <c r="J419"/>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>95</v>
+      </c>
+      <c r="B420" t="s">
+        <v>565</v>
+      </c>
+      <c r="C420" t="s">
+        <v>569</v>
+      </c>
+      <c r="D420" t="s">
+        <v>12</v>
+      </c>
+      <c r="E420" t="s">
+        <v>570</v>
+      </c>
+      <c r="F420" t="n">
+        <v>113</v>
+      </c>
+      <c r="G420" t="n">
+        <v>12</v>
+      </c>
+      <c r="H420" t="n">
+        <v>20</v>
+      </c>
+      <c r="I420" t="n">
+        <v>15</v>
+      </c>
+      <c r="J420"/>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>96</v>
+      </c>
+      <c r="B421" t="s">
+        <v>565</v>
+      </c>
+      <c r="C421" t="s">
+        <v>571</v>
+      </c>
+      <c r="D421" t="s">
+        <v>12</v>
+      </c>
+      <c r="E421" t="s">
+        <v>572</v>
+      </c>
+      <c r="F421" t="n">
+        <v>668</v>
+      </c>
+      <c r="G421" t="n">
+        <v>46</v>
+      </c>
+      <c r="H421" t="n">
+        <v>23</v>
+      </c>
+      <c r="I421" t="n">
+        <v>20</v>
+      </c>
+      <c r="J421"/>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>97</v>
+      </c>
+      <c r="B422" t="s">
+        <v>565</v>
+      </c>
+      <c r="C422" t="s">
+        <v>573</v>
+      </c>
+      <c r="D422" t="s">
+        <v>12</v>
+      </c>
+      <c r="E422" t="s">
+        <v>574</v>
+      </c>
+      <c r="F422" t="n">
+        <v>48</v>
+      </c>
+      <c r="G422" t="n">
+        <v>12</v>
+      </c>
+      <c r="H422" t="n">
+        <v>15</v>
+      </c>
+      <c r="I422" t="n">
+        <v>10</v>
+      </c>
+      <c r="J422"/>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>98</v>
+      </c>
+      <c r="B423" t="s">
+        <v>565</v>
+      </c>
+      <c r="C423" t="s">
+        <v>575</v>
+      </c>
+      <c r="D423" t="s">
+        <v>12</v>
+      </c>
+      <c r="E423" t="s">
+        <v>576</v>
+      </c>
+      <c r="F423" t="n">
+        <v>208</v>
+      </c>
+      <c r="G423" t="n">
+        <v>35</v>
+      </c>
+      <c r="H423" t="n">
+        <v>15</v>
+      </c>
+      <c r="I423" t="n">
+        <v>12</v>
+      </c>
+      <c r="J423"/>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>99</v>
+      </c>
+      <c r="B424" t="s">
+        <v>565</v>
+      </c>
+      <c r="C424" t="s">
+        <v>575</v>
+      </c>
+      <c r="D424" t="s">
+        <v>12</v>
+      </c>
+      <c r="E424" t="s">
+        <v>577</v>
+      </c>
+      <c r="F424" t="n">
+        <v>386</v>
+      </c>
+      <c r="G424" t="n">
+        <v>26</v>
+      </c>
+      <c r="H424" t="n">
+        <v>28</v>
+      </c>
+      <c r="I424" t="n">
+        <v>26</v>
+      </c>
+      <c r="J424"/>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>100</v>
+      </c>
+      <c r="B425" t="s">
+        <v>565</v>
+      </c>
+      <c r="C425" t="s">
+        <v>569</v>
+      </c>
+      <c r="D425" t="s">
+        <v>12</v>
+      </c>
+      <c r="E425" t="s">
+        <v>578</v>
+      </c>
+      <c r="F425" t="n">
+        <v>75</v>
+      </c>
+      <c r="G425" t="n">
+        <v>13</v>
+      </c>
+      <c r="H425" t="n">
+        <v>10</v>
+      </c>
+      <c r="I425" t="n">
+        <v>5</v>
+      </c>
+      <c r="J425"/>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>101</v>
+      </c>
+      <c r="B426" t="s">
+        <v>565</v>
+      </c>
+      <c r="C426" t="s">
+        <v>569</v>
+      </c>
+      <c r="D426" t="s">
+        <v>12</v>
+      </c>
+      <c r="E426" t="s">
+        <v>579</v>
+      </c>
+      <c r="F426" t="n">
+        <v>720</v>
+      </c>
+      <c r="G426" t="n">
+        <v>26</v>
+      </c>
+      <c r="H426" t="n">
+        <v>30</v>
+      </c>
+      <c r="I426" t="n">
+        <v>15</v>
+      </c>
+      <c r="J426"/>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>102</v>
+      </c>
+      <c r="B427" t="s">
+        <v>565</v>
+      </c>
+      <c r="C427" t="s">
+        <v>575</v>
+      </c>
+      <c r="D427" t="s">
+        <v>12</v>
+      </c>
+      <c r="E427" t="s">
+        <v>580</v>
+      </c>
+      <c r="F427" t="n">
+        <v>729</v>
+      </c>
+      <c r="G427" t="n">
+        <v>78</v>
+      </c>
+      <c r="H427" t="n">
+        <v>12</v>
+      </c>
+      <c r="I427" t="n">
+        <v>12</v>
+      </c>
+      <c r="J427"/>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>103</v>
+      </c>
+      <c r="B428" t="s">
+        <v>565</v>
+      </c>
+      <c r="C428" t="s">
+        <v>575</v>
+      </c>
+      <c r="D428" t="s">
+        <v>12</v>
+      </c>
+      <c r="E428" t="s">
+        <v>581</v>
+      </c>
+      <c r="F428" t="n">
+        <v>1022</v>
+      </c>
+      <c r="G428" t="n">
+        <v>113</v>
+      </c>
+      <c r="H428" t="n">
+        <v>30</v>
+      </c>
+      <c r="I428" t="n">
+        <v>25</v>
+      </c>
+      <c r="J428"/>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>104</v>
+      </c>
+      <c r="B429" t="s">
+        <v>565</v>
+      </c>
+      <c r="C429" t="s">
+        <v>575</v>
+      </c>
+      <c r="D429" t="s">
+        <v>12</v>
+      </c>
+      <c r="E429" t="s">
+        <v>582</v>
+      </c>
+      <c r="F429" t="n">
+        <v>504</v>
+      </c>
+      <c r="G429" t="n">
+        <v>32</v>
+      </c>
+      <c r="H429" t="n">
+        <v>23</v>
+      </c>
+      <c r="I429" t="n">
+        <v>20</v>
+      </c>
+      <c r="J429"/>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>105</v>
+      </c>
+      <c r="B430" t="s">
+        <v>565</v>
+      </c>
+      <c r="C430" t="s">
+        <v>575</v>
+      </c>
+      <c r="D430" t="s">
+        <v>12</v>
+      </c>
+      <c r="E430" t="s">
+        <v>583</v>
+      </c>
+      <c r="F430" t="n">
+        <v>660</v>
+      </c>
+      <c r="G430" t="n">
+        <v>99</v>
+      </c>
+      <c r="H430" t="n">
+        <v>33</v>
+      </c>
+      <c r="I430" t="n">
+        <v>30</v>
+      </c>
+      <c r="J430"/>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>106</v>
+      </c>
+      <c r="B431" t="s">
+        <v>565</v>
+      </c>
+      <c r="C431" t="s">
+        <v>575</v>
+      </c>
+      <c r="D431" t="s">
+        <v>12</v>
+      </c>
+      <c r="E431" t="s">
+        <v>584</v>
+      </c>
+      <c r="F431" t="n">
+        <v>407</v>
+      </c>
+      <c r="G431" t="n">
+        <v>33</v>
+      </c>
+      <c r="H431" t="n">
+        <v>25</v>
+      </c>
+      <c r="I431" t="n">
+        <v>20</v>
+      </c>
+      <c r="J431"/>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>107</v>
+      </c>
+      <c r="B432" t="s">
+        <v>565</v>
+      </c>
+      <c r="C432" t="s">
+        <v>569</v>
+      </c>
+      <c r="D432" t="s">
+        <v>12</v>
+      </c>
+      <c r="E432" t="s">
+        <v>585</v>
+      </c>
+      <c r="F432" t="n">
+        <v>720</v>
+      </c>
+      <c r="G432" t="n">
+        <v>78</v>
+      </c>
+      <c r="H432" t="n">
+        <v>28</v>
+      </c>
+      <c r="I432" t="n">
+        <v>20</v>
+      </c>
+      <c r="J432"/>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>108</v>
+      </c>
+      <c r="B433" t="s">
+        <v>565</v>
+      </c>
+      <c r="C433" t="s">
+        <v>575</v>
+      </c>
+      <c r="D433" t="s">
+        <v>12</v>
+      </c>
+      <c r="E433" t="s">
+        <v>586</v>
+      </c>
+      <c r="F433" t="n">
+        <v>192</v>
+      </c>
+      <c r="G433" t="n">
+        <v>48</v>
+      </c>
+      <c r="H433" t="n">
+        <v>20</v>
+      </c>
+      <c r="I433" t="n">
+        <v>12</v>
+      </c>
+      <c r="J433"/>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>109</v>
+      </c>
+      <c r="B434" t="s">
+        <v>565</v>
+      </c>
+      <c r="C434" t="s">
+        <v>566</v>
+      </c>
+      <c r="D434" t="s">
+        <v>12</v>
+      </c>
+      <c r="E434" t="s">
+        <v>587</v>
+      </c>
+      <c r="F434" t="n">
+        <v>45</v>
+      </c>
+      <c r="G434" t="n">
+        <v>6</v>
+      </c>
+      <c r="H434" t="n">
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>6</v>
+      </c>
+      <c r="J434"/>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>110</v>
+      </c>
+      <c r="B435" t="s">
+        <v>565</v>
+      </c>
+      <c r="C435" t="s">
+        <v>575</v>
+      </c>
+      <c r="D435" t="s">
+        <v>12</v>
+      </c>
+      <c r="E435" t="s">
+        <v>588</v>
+      </c>
+      <c r="F435" t="n">
+        <v>518</v>
+      </c>
+      <c r="G435" t="n">
+        <v>35</v>
+      </c>
+      <c r="H435" t="n">
+        <v>29</v>
+      </c>
+      <c r="I435" t="n">
+        <v>10</v>
+      </c>
+      <c r="J435"/>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>111</v>
+      </c>
+      <c r="B436" t="s">
+        <v>565</v>
+      </c>
+      <c r="C436" t="s">
+        <v>575</v>
+      </c>
+      <c r="D436" t="s">
+        <v>12</v>
+      </c>
+      <c r="E436" t="s">
+        <v>589</v>
+      </c>
+      <c r="F436" t="n">
+        <v>320</v>
+      </c>
+      <c r="G436" t="n">
+        <v>122</v>
+      </c>
+      <c r="H436" t="n">
+        <v>21</v>
+      </c>
+      <c r="I436" t="n">
+        <v>18</v>
+      </c>
+      <c r="J436"/>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>112</v>
+      </c>
+      <c r="B437" t="s">
+        <v>590</v>
+      </c>
+      <c r="C437" t="s">
+        <v>591</v>
+      </c>
+      <c r="D437" t="s">
+        <v>12</v>
+      </c>
+      <c r="E437" t="s">
+        <v>592</v>
+      </c>
+      <c r="F437" t="n">
+        <v>573</v>
+      </c>
+      <c r="G437" t="n">
+        <v>115</v>
+      </c>
+      <c r="H437" t="n">
+        <v>42</v>
+      </c>
+      <c r="I437" t="n">
+        <v>30</v>
+      </c>
+      <c r="J437" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>113</v>
+      </c>
+      <c r="B438" t="s">
+        <v>590</v>
+      </c>
+      <c r="C438" t="s">
+        <v>593</v>
+      </c>
+      <c r="D438" t="s">
+        <v>12</v>
+      </c>
+      <c r="E438" t="s">
+        <v>594</v>
+      </c>
+      <c r="F438" t="n">
+        <v>213</v>
+      </c>
+      <c r="G438" t="n">
+        <v>48</v>
+      </c>
+      <c r="H438" t="n">
+        <v>15</v>
+      </c>
+      <c r="I438" t="n">
+        <v>12</v>
+      </c>
+      <c r="J438"/>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>114</v>
+      </c>
+      <c r="B439" t="s">
+        <v>590</v>
+      </c>
+      <c r="C439" t="s">
+        <v>593</v>
+      </c>
+      <c r="D439" t="s">
+        <v>12</v>
+      </c>
+      <c r="E439" t="s">
+        <v>595</v>
+      </c>
+      <c r="F439" t="n">
+        <v>389</v>
+      </c>
+      <c r="G439" t="n">
+        <v>98</v>
+      </c>
+      <c r="H439" t="n">
+        <v>25</v>
+      </c>
+      <c r="I439" t="n">
+        <v>25</v>
+      </c>
+      <c r="J439"/>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>115</v>
+      </c>
+      <c r="B440" t="s">
+        <v>590</v>
+      </c>
+      <c r="C440" t="s">
+        <v>593</v>
+      </c>
+      <c r="D440" t="s">
+        <v>12</v>
+      </c>
+      <c r="E440" t="s">
+        <v>596</v>
+      </c>
+      <c r="F440" t="n">
+        <v>165</v>
+      </c>
+      <c r="G440" t="n">
+        <v>27</v>
+      </c>
+      <c r="H440" t="n">
+        <v>26</v>
+      </c>
+      <c r="I440" t="n">
+        <v>25</v>
+      </c>
+      <c r="J440"/>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>116</v>
+      </c>
+      <c r="B441" t="s">
+        <v>590</v>
+      </c>
+      <c r="C441" t="s">
+        <v>593</v>
+      </c>
+      <c r="D441" t="s">
+        <v>12</v>
+      </c>
+      <c r="E441" t="s">
+        <v>597</v>
+      </c>
+      <c r="F441" t="n">
+        <v>426</v>
+      </c>
+      <c r="G441" t="n">
+        <v>37</v>
+      </c>
+      <c r="H441" t="n">
+        <v>25</v>
+      </c>
+      <c r="I441" t="n">
+        <v>19</v>
+      </c>
+      <c r="J441"/>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>117</v>
+      </c>
+      <c r="B442" t="s">
+        <v>590</v>
+      </c>
+      <c r="C442" t="s">
+        <v>591</v>
+      </c>
+      <c r="D442" t="s">
+        <v>12</v>
+      </c>
+      <c r="E442" t="s">
+        <v>598</v>
+      </c>
+      <c r="F442" t="n">
+        <v>347</v>
+      </c>
+      <c r="G442" t="n">
+        <v>147</v>
+      </c>
+      <c r="H442" t="n">
+        <v>27</v>
+      </c>
+      <c r="I442" t="n">
+        <v>16</v>
+      </c>
+      <c r="J442"/>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>118</v>
+      </c>
+      <c r="B443" t="s">
+        <v>590</v>
+      </c>
+      <c r="C443" t="s">
+        <v>593</v>
+      </c>
+      <c r="D443" t="s">
+        <v>12</v>
+      </c>
+      <c r="E443" t="s">
+        <v>599</v>
+      </c>
+      <c r="F443" t="n">
+        <v>130</v>
+      </c>
+      <c r="G443" t="n">
+        <v>15</v>
+      </c>
+      <c r="H443" t="n">
+        <v>23</v>
+      </c>
+      <c r="I443" t="n">
+        <v>15</v>
+      </c>
+      <c r="J443"/>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>119</v>
+      </c>
+      <c r="B444" t="s">
+        <v>590</v>
+      </c>
+      <c r="C444" t="s">
+        <v>591</v>
+      </c>
+      <c r="D444" t="s">
+        <v>12</v>
+      </c>
+      <c r="E444" t="s">
+        <v>600</v>
+      </c>
+      <c r="F444" t="n">
+        <v>126</v>
+      </c>
+      <c r="G444" t="n">
+        <v>16</v>
+      </c>
+      <c r="H444" t="n">
+        <v>27</v>
+      </c>
+      <c r="I444" t="n">
+        <v>20</v>
+      </c>
+      <c r="J444"/>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>120</v>
+      </c>
+      <c r="B445" t="s">
+        <v>590</v>
+      </c>
+      <c r="C445" t="s">
+        <v>591</v>
+      </c>
+      <c r="D445" t="s">
+        <v>12</v>
+      </c>
+      <c r="E445" t="s">
+        <v>601</v>
+      </c>
+      <c r="F445" t="n">
+        <v>108</v>
+      </c>
+      <c r="G445" t="n">
+        <v>12</v>
+      </c>
+      <c r="H445" t="n">
+        <v>11</v>
+      </c>
+      <c r="I445" t="n">
+        <v>11</v>
+      </c>
+      <c r="J445"/>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>121</v>
+      </c>
+      <c r="B446" t="s">
+        <v>590</v>
+      </c>
+      <c r="C446" t="s">
+        <v>591</v>
+      </c>
+      <c r="D446" t="s">
+        <v>12</v>
+      </c>
+      <c r="E446" t="s">
+        <v>602</v>
+      </c>
+      <c r="F446" t="n">
+        <v>248</v>
+      </c>
+      <c r="G446" t="n">
+        <v>31</v>
+      </c>
+      <c r="H446" t="n">
+        <v>42</v>
+      </c>
+      <c r="I446" t="n">
+        <v>20</v>
+      </c>
+      <c r="J446"/>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>122</v>
+      </c>
+      <c r="B447" t="s">
+        <v>590</v>
+      </c>
+      <c r="C447" t="s">
+        <v>593</v>
+      </c>
+      <c r="D447" t="s">
+        <v>12</v>
+      </c>
+      <c r="E447" t="s">
+        <v>603</v>
+      </c>
+      <c r="F447" t="n">
+        <v>224</v>
+      </c>
+      <c r="G447" t="n">
+        <v>21</v>
+      </c>
+      <c r="H447" t="n">
+        <v>10</v>
+      </c>
+      <c r="I447"/>
+      <c r="J447"/>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>123</v>
+      </c>
+      <c r="B448" t="s">
+        <v>590</v>
+      </c>
+      <c r="C448" t="s">
+        <v>593</v>
+      </c>
+      <c r="D448" t="s">
+        <v>12</v>
+      </c>
+      <c r="E448" t="s">
+        <v>604</v>
+      </c>
+      <c r="F448" t="n">
+        <v>35</v>
+      </c>
+      <c r="G448" t="n">
+        <v>7</v>
+      </c>
+      <c r="H448" t="n">
+        <v>5</v>
+      </c>
+      <c r="I448"/>
+      <c r="J448"/>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>124</v>
+      </c>
+      <c r="B449" t="s">
+        <v>590</v>
+      </c>
+      <c r="C449" t="s">
+        <v>591</v>
+      </c>
+      <c r="D449" t="s">
+        <v>12</v>
+      </c>
+      <c r="E449" t="s">
+        <v>605</v>
+      </c>
+      <c r="F449" t="n">
+        <v>31</v>
+      </c>
+      <c r="G449" t="n">
+        <v>15</v>
+      </c>
+      <c r="H449" t="n">
+        <v>13</v>
+      </c>
+      <c r="I449"/>
+      <c r="J449"/>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>125</v>
+      </c>
+      <c r="B450" t="s">
+        <v>590</v>
+      </c>
+      <c r="C450" t="s">
+        <v>591</v>
+      </c>
+      <c r="D450" t="s">
+        <v>12</v>
+      </c>
+      <c r="E450" t="s">
+        <v>606</v>
+      </c>
+      <c r="F450" t="n">
+        <v>131</v>
+      </c>
+      <c r="G450" t="n">
+        <v>15</v>
+      </c>
+      <c r="H450" t="n">
+        <v>13</v>
+      </c>
+      <c r="I450"/>
+      <c r="J450"/>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>126</v>
+      </c>
+      <c r="B451" t="s">
+        <v>590</v>
+      </c>
+      <c r="C451" t="s">
+        <v>591</v>
+      </c>
+      <c r="D451" t="s">
+        <v>12</v>
+      </c>
+      <c r="E451" t="s">
+        <v>607</v>
+      </c>
+      <c r="F451" t="n">
+        <v>210</v>
+      </c>
+      <c r="G451" t="n">
+        <v>41</v>
+      </c>
+      <c r="H451" t="n">
+        <v>23</v>
+      </c>
+      <c r="I451"/>
+      <c r="J451"/>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>127</v>
+      </c>
+      <c r="B452" t="s">
+        <v>590</v>
+      </c>
+      <c r="C452" t="s">
+        <v>591</v>
+      </c>
+      <c r="D452" t="s">
+        <v>12</v>
+      </c>
+      <c r="E452" t="s">
+        <v>608</v>
+      </c>
+      <c r="F452" t="n">
+        <v>311</v>
+      </c>
+      <c r="G452" t="n">
+        <v>58</v>
+      </c>
+      <c r="H452" t="n">
+        <v>40</v>
+      </c>
+      <c r="I452" t="n">
+        <v>30</v>
+      </c>
+      <c r="J452"/>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>128</v>
+      </c>
+      <c r="B453" t="s">
+        <v>590</v>
+      </c>
+      <c r="C453" t="s">
+        <v>591</v>
+      </c>
+      <c r="D453" t="s">
+        <v>12</v>
+      </c>
+      <c r="E453" t="s">
+        <v>609</v>
+      </c>
+      <c r="F453" t="n">
+        <v>499</v>
+      </c>
+      <c r="G453" t="n">
+        <v>30</v>
+      </c>
+      <c r="H453" t="n">
+        <v>19</v>
+      </c>
+      <c r="I453"/>
+      <c r="J453"/>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>129</v>
+      </c>
+      <c r="B454" t="s">
+        <v>590</v>
+      </c>
+      <c r="C454" t="s">
+        <v>591</v>
+      </c>
+      <c r="D454" t="s">
+        <v>12</v>
+      </c>
+      <c r="E454" t="s">
+        <v>610</v>
+      </c>
+      <c r="F454" t="n">
+        <v>35</v>
+      </c>
+      <c r="G454" t="n">
+        <v>6</v>
+      </c>
+      <c r="H454" t="n">
+        <v>5</v>
+      </c>
+      <c r="I454"/>
+      <c r="J454"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>130</v>
+      </c>
+      <c r="B455" t="s">
+        <v>590</v>
+      </c>
+      <c r="C455" t="s">
+        <v>60</v>
+      </c>
+      <c r="D455" t="s">
+        <v>12</v>
+      </c>
+      <c r="E455" t="s">
+        <v>611</v>
+      </c>
+      <c r="F455" t="n">
+        <v>341</v>
+      </c>
+      <c r="G455" t="n">
+        <v>26</v>
+      </c>
+      <c r="H455" t="n">
+        <v>22</v>
+      </c>
+      <c r="I455" t="n">
+        <v>22</v>
+      </c>
+      <c r="J455"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>131</v>
+      </c>
+      <c r="B456" t="s">
+        <v>612</v>
+      </c>
+      <c r="C456" t="s">
+        <v>613</v>
+      </c>
+      <c r="D456" t="s">
+        <v>12</v>
+      </c>
+      <c r="E456" t="s">
+        <v>614</v>
+      </c>
+      <c r="F456" t="n">
+        <v>456</v>
+      </c>
+      <c r="G456" t="n">
+        <v>53</v>
+      </c>
+      <c r="H456" t="n">
+        <v>53</v>
+      </c>
+      <c r="I456" t="n">
+        <v>45</v>
+      </c>
+      <c r="J456" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>132</v>
+      </c>
+      <c r="B457" t="s">
+        <v>612</v>
+      </c>
+      <c r="C457" t="s">
+        <v>613</v>
+      </c>
+      <c r="D457" t="s">
+        <v>12</v>
+      </c>
+      <c r="E457" t="s">
+        <v>615</v>
+      </c>
+      <c r="F457" t="n">
+        <v>730</v>
+      </c>
+      <c r="G457" t="n">
+        <v>61</v>
+      </c>
+      <c r="H457" t="n">
+        <v>60</v>
+      </c>
+      <c r="I457" t="n">
+        <v>50</v>
+      </c>
+      <c r="J457"/>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>133</v>
+      </c>
+      <c r="B458" t="s">
+        <v>612</v>
+      </c>
+      <c r="C458" t="s">
+        <v>613</v>
+      </c>
+      <c r="D458" t="s">
+        <v>12</v>
+      </c>
+      <c r="E458" t="s">
+        <v>616</v>
+      </c>
+      <c r="F458" t="n">
+        <v>264</v>
+      </c>
+      <c r="G458" t="n">
+        <v>27</v>
+      </c>
+      <c r="H458" t="n">
+        <v>35</v>
+      </c>
+      <c r="I458" t="n">
+        <v>20</v>
+      </c>
+      <c r="J458"/>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>134</v>
+      </c>
+      <c r="B459" t="s">
+        <v>612</v>
+      </c>
+      <c r="C459" t="s">
+        <v>613</v>
+      </c>
+      <c r="D459" t="s">
+        <v>12</v>
+      </c>
+      <c r="E459" t="s">
+        <v>617</v>
+      </c>
+      <c r="F459" t="n">
+        <v>309</v>
+      </c>
+      <c r="G459" t="n">
+        <v>31</v>
+      </c>
+      <c r="H459" t="n">
+        <v>34</v>
+      </c>
+      <c r="I459" t="n">
+        <v>25</v>
+      </c>
+      <c r="J459"/>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>135</v>
+      </c>
+      <c r="B460" t="s">
+        <v>612</v>
+      </c>
+      <c r="C460" t="s">
+        <v>618</v>
+      </c>
+      <c r="D460" t="s">
+        <v>12</v>
+      </c>
+      <c r="E460" t="s">
+        <v>619</v>
+      </c>
+      <c r="F460" t="n">
+        <v>835</v>
+      </c>
+      <c r="G460" t="n">
+        <v>59</v>
+      </c>
+      <c r="H460" t="n">
+        <v>54</v>
+      </c>
+      <c r="I460" t="n">
+        <v>35</v>
+      </c>
+      <c r="J460"/>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>136</v>
+      </c>
+      <c r="B461" t="s">
+        <v>612</v>
+      </c>
+      <c r="C461" t="s">
+        <v>620</v>
+      </c>
+      <c r="D461" t="s">
+        <v>12</v>
+      </c>
+      <c r="E461" t="s">
+        <v>621</v>
+      </c>
+      <c r="F461" t="n">
+        <v>306</v>
+      </c>
+      <c r="G461" t="n">
+        <v>55</v>
+      </c>
+      <c r="H461" t="n">
+        <v>54</v>
+      </c>
+      <c r="I461" t="n">
+        <v>35</v>
+      </c>
+      <c r="J461"/>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>137</v>
+      </c>
+      <c r="B462" t="s">
+        <v>612</v>
+      </c>
+      <c r="C462" t="s">
+        <v>613</v>
+      </c>
+      <c r="D462" t="s">
+        <v>12</v>
+      </c>
+      <c r="E462" t="s">
+        <v>622</v>
+      </c>
+      <c r="F462" t="n">
+        <v>475</v>
+      </c>
+      <c r="G462" t="n">
+        <v>88</v>
+      </c>
+      <c r="H462" t="n">
+        <v>82</v>
+      </c>
+      <c r="I462" t="n">
+        <v>42</v>
+      </c>
+      <c r="J462"/>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>138</v>
+      </c>
+      <c r="B463" t="s">
+        <v>612</v>
+      </c>
+      <c r="C463" t="s">
+        <v>623</v>
+      </c>
+      <c r="D463" t="s">
+        <v>12</v>
+      </c>
+      <c r="E463" t="s">
+        <v>624</v>
+      </c>
+      <c r="F463" t="n">
+        <v>900</v>
+      </c>
+      <c r="G463" t="n">
+        <v>84</v>
+      </c>
+      <c r="H463" t="n">
+        <v>81</v>
+      </c>
+      <c r="I463" t="n">
+        <v>92</v>
+      </c>
+      <c r="J463"/>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>139</v>
+      </c>
+      <c r="B464" t="s">
+        <v>612</v>
+      </c>
+      <c r="C464" t="s">
+        <v>623</v>
+      </c>
+      <c r="D464" t="s">
+        <v>12</v>
+      </c>
+      <c r="E464" t="s">
+        <v>625</v>
+      </c>
+      <c r="F464" t="n">
+        <v>94</v>
+      </c>
+      <c r="G464" t="n">
+        <v>34</v>
+      </c>
+      <c r="H464" t="n">
+        <v>31</v>
+      </c>
+      <c r="I464" t="n">
+        <v>25</v>
+      </c>
+      <c r="J464"/>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>140</v>
+      </c>
+      <c r="B465" t="s">
+        <v>612</v>
+      </c>
+      <c r="C465" t="s">
+        <v>623</v>
+      </c>
+      <c r="D465" t="s">
+        <v>12</v>
+      </c>
+      <c r="E465" t="s">
+        <v>626</v>
+      </c>
+      <c r="F465" t="n">
+        <v>166</v>
+      </c>
+      <c r="G465" t="n">
+        <v>25</v>
+      </c>
+      <c r="H465" t="n">
+        <v>33</v>
+      </c>
+      <c r="I465" t="n">
+        <v>25</v>
+      </c>
+      <c r="J465"/>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>141</v>
+      </c>
+      <c r="B466" t="s">
+        <v>612</v>
+      </c>
+      <c r="C466" t="s">
+        <v>623</v>
+      </c>
+      <c r="D466" t="s">
+        <v>12</v>
+      </c>
+      <c r="E466" t="s">
+        <v>627</v>
+      </c>
+      <c r="F466" t="n">
+        <v>303</v>
+      </c>
+      <c r="G466" t="n">
+        <v>61</v>
+      </c>
+      <c r="H466" t="n">
+        <v>61</v>
+      </c>
+      <c r="I466" t="n">
+        <v>46</v>
+      </c>
+      <c r="J466"/>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>142</v>
+      </c>
+      <c r="B467" t="s">
+        <v>612</v>
+      </c>
+      <c r="C467" t="s">
+        <v>623</v>
+      </c>
+      <c r="D467" t="s">
+        <v>12</v>
+      </c>
+      <c r="E467" t="s">
+        <v>628</v>
+      </c>
+      <c r="F467" t="n">
+        <v>116</v>
+      </c>
+      <c r="G467" t="n">
+        <v>14</v>
+      </c>
+      <c r="H467" t="n">
+        <v>14</v>
+      </c>
+      <c r="I467" t="n">
+        <v>12</v>
+      </c>
+      <c r="J467"/>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>143</v>
+      </c>
+      <c r="B468" t="s">
+        <v>612</v>
+      </c>
+      <c r="C468" t="s">
+        <v>623</v>
+      </c>
+      <c r="D468" t="s">
+        <v>12</v>
+      </c>
+      <c r="E468" t="s">
+        <v>629</v>
+      </c>
+      <c r="F468" t="n">
+        <v>1649</v>
+      </c>
+      <c r="G468" t="n">
+        <v>68</v>
+      </c>
+      <c r="H468" t="n">
+        <v>60</v>
+      </c>
+      <c r="I468" t="n">
+        <v>45</v>
+      </c>
+      <c r="J468"/>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>144</v>
+      </c>
+      <c r="B469" t="s">
+        <v>612</v>
+      </c>
+      <c r="C469" t="s">
+        <v>623</v>
+      </c>
+      <c r="D469" t="s">
+        <v>12</v>
+      </c>
+      <c r="E469" t="s">
+        <v>630</v>
+      </c>
+      <c r="F469" t="n">
+        <v>36</v>
+      </c>
+      <c r="G469" t="n">
+        <v>5</v>
+      </c>
+      <c r="H469" t="n">
+        <v>4</v>
+      </c>
+      <c r="I469" t="n">
+        <v>4</v>
+      </c>
+      <c r="J469"/>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>145</v>
+      </c>
+      <c r="B470" t="s">
+        <v>612</v>
+      </c>
+      <c r="C470" t="s">
+        <v>623</v>
+      </c>
+      <c r="D470" t="s">
+        <v>12</v>
+      </c>
+      <c r="E470" t="s">
+        <v>631</v>
+      </c>
+      <c r="F470" t="n">
+        <v>844</v>
+      </c>
+      <c r="G470" t="n">
+        <v>82</v>
+      </c>
+      <c r="H470" t="n">
+        <v>77</v>
+      </c>
+      <c r="I470" t="n">
+        <v>56</v>
+      </c>
+      <c r="J470"/>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>146</v>
+      </c>
+      <c r="B471" t="s">
+        <v>612</v>
+      </c>
+      <c r="C471" t="s">
+        <v>623</v>
+      </c>
+      <c r="D471" t="s">
+        <v>12</v>
+      </c>
+      <c r="E471" t="s">
+        <v>623</v>
+      </c>
+      <c r="F471" t="n">
+        <v>1159</v>
+      </c>
+      <c r="G471" t="n">
+        <v>148</v>
+      </c>
+      <c r="H471" t="n">
+        <v>125</v>
+      </c>
+      <c r="I471" t="n">
+        <v>45</v>
+      </c>
+      <c r="J471"/>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>147</v>
+      </c>
+      <c r="B472" t="s">
+        <v>612</v>
+      </c>
+      <c r="C472" t="s">
+        <v>623</v>
+      </c>
+      <c r="D472" t="s">
+        <v>12</v>
+      </c>
+      <c r="E472" t="s">
+        <v>632</v>
+      </c>
+      <c r="F472" t="n">
+        <v>423</v>
+      </c>
+      <c r="G472" t="n">
+        <v>43</v>
+      </c>
+      <c r="H472" t="n">
+        <v>43</v>
+      </c>
+      <c r="I472" t="n">
+        <v>43</v>
+      </c>
+      <c r="J472"/>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>148</v>
+      </c>
+      <c r="B473" t="s">
+        <v>612</v>
+      </c>
+      <c r="C473" t="s">
+        <v>623</v>
+      </c>
+      <c r="D473" t="s">
+        <v>12</v>
+      </c>
+      <c r="E473" t="s">
+        <v>633</v>
+      </c>
+      <c r="F473" t="n">
+        <v>112</v>
+      </c>
+      <c r="G473" t="n">
+        <v>9</v>
+      </c>
+      <c r="H473" t="n">
+        <v>9</v>
+      </c>
+      <c r="I473"/>
+      <c r="J473"/>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>149</v>
+      </c>
+      <c r="B474" t="s">
+        <v>612</v>
+      </c>
+      <c r="C474" t="s">
+        <v>623</v>
+      </c>
+      <c r="D474" t="s">
+        <v>12</v>
+      </c>
+      <c r="E474" t="s">
+        <v>634</v>
+      </c>
+      <c r="F474" t="n">
+        <v>622</v>
+      </c>
+      <c r="G474" t="n">
+        <v>73</v>
+      </c>
+      <c r="H474" t="n">
+        <v>68</v>
+      </c>
+      <c r="I474" t="n">
+        <v>61</v>
+      </c>
+      <c r="J474"/>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>150</v>
+      </c>
+      <c r="B475" t="s">
+        <v>612</v>
+      </c>
+      <c r="C475" t="s">
+        <v>623</v>
+      </c>
+      <c r="D475" t="s">
+        <v>12</v>
+      </c>
+      <c r="E475" t="s">
+        <v>635</v>
+      </c>
+      <c r="F475" t="n">
+        <v>395</v>
+      </c>
+      <c r="G475" t="n">
+        <v>38</v>
+      </c>
+      <c r="H475" t="n">
+        <v>38</v>
+      </c>
+      <c r="I475"/>
+      <c r="J475"/>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>151</v>
+      </c>
+      <c r="B476" t="s">
+        <v>612</v>
+      </c>
+      <c r="C476" t="s">
+        <v>636</v>
+      </c>
+      <c r="D476" t="s">
+        <v>12</v>
+      </c>
+      <c r="E476" t="s">
+        <v>637</v>
+      </c>
+      <c r="F476" t="n">
+        <v>200</v>
+      </c>
+      <c r="G476" t="n">
+        <v>22</v>
+      </c>
+      <c r="H476" t="n">
+        <v>22</v>
+      </c>
+      <c r="I476"/>
+      <c r="J476"/>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>152</v>
+      </c>
+      <c r="B477" t="s">
+        <v>612</v>
+      </c>
+      <c r="C477" t="s">
+        <v>613</v>
+      </c>
+      <c r="D477" t="s">
+        <v>12</v>
+      </c>
+      <c r="E477" t="s">
+        <v>638</v>
+      </c>
+      <c r="F477" t="n">
+        <v>300</v>
+      </c>
+      <c r="G477" t="n">
+        <v>47</v>
+      </c>
+      <c r="H477" t="n">
+        <v>27</v>
+      </c>
+      <c r="I477" t="n">
+        <v>5</v>
+      </c>
+      <c r="J477"/>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>153</v>
+      </c>
+      <c r="B478" t="s">
+        <v>612</v>
+      </c>
+      <c r="C478" t="s">
+        <v>613</v>
+      </c>
+      <c r="D478" t="s">
+        <v>12</v>
+      </c>
+      <c r="E478" t="s">
+        <v>639</v>
+      </c>
+      <c r="F478" t="n">
+        <v>237</v>
+      </c>
+      <c r="G478" t="n">
+        <v>28</v>
+      </c>
+      <c r="H478" t="n">
+        <v>27</v>
+      </c>
+      <c r="I478" t="n">
+        <v>27</v>
+      </c>
+      <c r="J478"/>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>154</v>
+      </c>
+      <c r="B479" t="s">
+        <v>612</v>
+      </c>
+      <c r="C479" t="s">
+        <v>613</v>
+      </c>
+      <c r="D479" t="s">
+        <v>12</v>
+      </c>
+      <c r="E479" t="s">
+        <v>640</v>
+      </c>
+      <c r="F479" t="n">
+        <v>203</v>
+      </c>
+      <c r="G479" t="n">
+        <v>27</v>
+      </c>
+      <c r="H479" t="n">
+        <v>26</v>
+      </c>
+      <c r="I479" t="n">
+        <v>23</v>
+      </c>
+      <c r="J479"/>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>155</v>
+      </c>
+      <c r="B480" t="s">
+        <v>612</v>
+      </c>
+      <c r="C480" t="s">
+        <v>613</v>
+      </c>
+      <c r="D480" t="s">
+        <v>12</v>
+      </c>
+      <c r="E480" t="s">
+        <v>641</v>
+      </c>
+      <c r="F480" t="n">
+        <v>128</v>
+      </c>
+      <c r="G480" t="n">
+        <v>20</v>
+      </c>
+      <c r="H480" t="n">
+        <v>22</v>
+      </c>
+      <c r="I480" t="n">
+        <v>22</v>
+      </c>
+      <c r="J480"/>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>156</v>
+      </c>
+      <c r="B481" t="s">
+        <v>612</v>
+      </c>
+      <c r="C481" t="s">
+        <v>613</v>
+      </c>
+      <c r="D481" t="s">
+        <v>12</v>
+      </c>
+      <c r="E481" t="s">
+        <v>642</v>
+      </c>
+      <c r="F481" t="n">
+        <v>120</v>
+      </c>
+      <c r="G481" t="n">
+        <v>15</v>
+      </c>
+      <c r="H481" t="n">
+        <v>17</v>
+      </c>
+      <c r="I481" t="n">
+        <v>9</v>
+      </c>
+      <c r="J481"/>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>157</v>
+      </c>
+      <c r="B482" t="s">
+        <v>612</v>
+      </c>
+      <c r="C482" t="s">
+        <v>623</v>
+      </c>
+      <c r="D482" t="s">
+        <v>12</v>
+      </c>
+      <c r="E482" t="s">
+        <v>643</v>
+      </c>
+      <c r="F482" t="n">
+        <v>388</v>
+      </c>
+      <c r="G482" t="n">
+        <v>42</v>
+      </c>
+      <c r="H482" t="n">
+        <v>42</v>
+      </c>
+      <c r="I482" t="n">
+        <v>50</v>
+      </c>
+      <c r="J482"/>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>158</v>
+      </c>
+      <c r="B483" t="s">
+        <v>612</v>
+      </c>
+      <c r="C483" t="s">
+        <v>623</v>
+      </c>
+      <c r="D483" t="s">
+        <v>12</v>
+      </c>
+      <c r="E483" t="s">
+        <v>644</v>
+      </c>
+      <c r="F483" t="n">
+        <v>202</v>
+      </c>
+      <c r="G483" t="n">
+        <v>34</v>
+      </c>
+      <c r="H483" t="n">
+        <v>31</v>
+      </c>
+      <c r="I483" t="n">
+        <v>10</v>
+      </c>
+      <c r="J483"/>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>159</v>
+      </c>
+      <c r="B484" t="s">
+        <v>612</v>
+      </c>
+      <c r="C484" t="s">
+        <v>623</v>
+      </c>
+      <c r="D484" t="s">
+        <v>12</v>
+      </c>
+      <c r="E484" t="s">
+        <v>645</v>
+      </c>
+      <c r="F484" t="n">
+        <v>505</v>
+      </c>
+      <c r="G484" t="n">
+        <v>44</v>
+      </c>
+      <c r="H484" t="n">
+        <v>44</v>
+      </c>
+      <c r="I484" t="n">
+        <v>3</v>
+      </c>
+      <c r="J484"/>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>160</v>
+      </c>
+      <c r="B485" t="s">
+        <v>612</v>
+      </c>
+      <c r="C485" t="s">
+        <v>623</v>
+      </c>
+      <c r="D485" t="s">
+        <v>12</v>
+      </c>
+      <c r="E485" t="s">
+        <v>646</v>
+      </c>
+      <c r="F485" t="n">
+        <v>111</v>
+      </c>
+      <c r="G485" t="n">
+        <v>7</v>
+      </c>
+      <c r="H485" t="n">
+        <v>13</v>
+      </c>
+      <c r="I485" t="n">
+        <v>13</v>
+      </c>
+      <c r="J485"/>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>161</v>
+      </c>
+      <c r="B486" t="s">
+        <v>612</v>
+      </c>
+      <c r="C486" t="s">
+        <v>623</v>
+      </c>
+      <c r="D486" t="s">
+        <v>12</v>
+      </c>
+      <c r="E486" t="s">
+        <v>647</v>
+      </c>
+      <c r="F486" t="n">
+        <v>96</v>
+      </c>
+      <c r="G486" t="n">
+        <v>10</v>
+      </c>
+      <c r="H486" t="n">
+        <v>9</v>
+      </c>
+      <c r="I486" t="n">
+        <v>3</v>
+      </c>
+      <c r="J486"/>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>162</v>
+      </c>
+      <c r="B487" t="s">
+        <v>612</v>
+      </c>
+      <c r="C487" t="s">
+        <v>623</v>
+      </c>
+      <c r="D487" t="s">
+        <v>12</v>
+      </c>
+      <c r="E487" t="s">
+        <v>648</v>
+      </c>
+      <c r="F487" t="n">
+        <v>91</v>
+      </c>
+      <c r="G487" t="n">
+        <v>36</v>
+      </c>
+      <c r="H487" t="n">
+        <v>36</v>
+      </c>
+      <c r="I487" t="n">
+        <v>42</v>
+      </c>
+      <c r="J487"/>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>163</v>
+      </c>
+      <c r="B488" t="s">
+        <v>612</v>
+      </c>
+      <c r="C488" t="s">
+        <v>623</v>
+      </c>
+      <c r="D488" t="s">
+        <v>12</v>
+      </c>
+      <c r="E488" t="s">
+        <v>649</v>
+      </c>
+      <c r="F488" t="n">
+        <v>478</v>
+      </c>
+      <c r="G488" t="n">
+        <v>56</v>
+      </c>
+      <c r="H488" t="n">
+        <v>54</v>
+      </c>
+      <c r="I488" t="n">
+        <v>60</v>
+      </c>
+      <c r="J488"/>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>164</v>
+      </c>
+      <c r="B489" t="s">
+        <v>612</v>
+      </c>
+      <c r="C489" t="s">
+        <v>623</v>
+      </c>
+      <c r="D489" t="s">
+        <v>12</v>
+      </c>
+      <c r="E489" t="s">
+        <v>650</v>
+      </c>
+      <c r="F489" t="n">
+        <v>154</v>
+      </c>
+      <c r="G489" t="n">
+        <v>15</v>
+      </c>
+      <c r="H489" t="n">
+        <v>15</v>
+      </c>
+      <c r="I489" t="n">
+        <v>9</v>
+      </c>
+      <c r="J489"/>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>165</v>
+      </c>
+      <c r="B490" t="s">
+        <v>612</v>
+      </c>
+      <c r="C490" t="s">
+        <v>623</v>
+      </c>
+      <c r="D490" t="s">
+        <v>12</v>
+      </c>
+      <c r="E490" t="s">
+        <v>651</v>
+      </c>
+      <c r="F490" t="n">
+        <v>203</v>
+      </c>
+      <c r="G490" t="n">
+        <v>34</v>
+      </c>
+      <c r="H490" t="n">
+        <v>34</v>
+      </c>
+      <c r="I490" t="n">
+        <v>34</v>
+      </c>
+      <c r="J490"/>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>166</v>
+      </c>
+      <c r="B491" t="s">
+        <v>612</v>
+      </c>
+      <c r="C491" t="s">
+        <v>623</v>
+      </c>
+      <c r="D491" t="s">
+        <v>12</v>
+      </c>
+      <c r="E491" t="s">
+        <v>652</v>
+      </c>
+      <c r="F491" t="n">
+        <v>970</v>
+      </c>
+      <c r="G491" t="n">
+        <v>144</v>
+      </c>
+      <c r="H491" t="n">
+        <v>122</v>
+      </c>
+      <c r="I491" t="n">
+        <v>60</v>
+      </c>
+      <c r="J491"/>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>167</v>
+      </c>
+      <c r="B492" t="s">
+        <v>612</v>
+      </c>
+      <c r="C492" t="s">
+        <v>613</v>
+      </c>
+      <c r="D492" t="s">
+        <v>12</v>
+      </c>
+      <c r="E492" t="s">
+        <v>653</v>
+      </c>
+      <c r="F492" t="n">
+        <v>159</v>
+      </c>
+      <c r="G492" t="n">
+        <v>31</v>
+      </c>
+      <c r="H492" t="n">
+        <v>23</v>
+      </c>
+      <c r="I492" t="n">
+        <v>31</v>
+      </c>
+      <c r="J492"/>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>168</v>
+      </c>
+      <c r="B493" t="s">
+        <v>612</v>
+      </c>
+      <c r="C493" t="s">
+        <v>618</v>
+      </c>
+      <c r="D493" t="s">
+        <v>12</v>
+      </c>
+      <c r="E493" t="s">
+        <v>654</v>
+      </c>
+      <c r="F493" t="n">
+        <v>150</v>
+      </c>
+      <c r="G493"/>
+      <c r="H493"/>
+      <c r="I493"/>
+      <c r="J493"/>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>169</v>
+      </c>
+      <c r="B494" t="s">
+        <v>612</v>
+      </c>
+      <c r="C494" t="s">
+        <v>618</v>
+      </c>
+      <c r="D494" t="s">
+        <v>12</v>
+      </c>
+      <c r="E494" t="s">
+        <v>655</v>
+      </c>
+      <c r="F494" t="n">
+        <v>60</v>
+      </c>
+      <c r="G494"/>
+      <c r="H494"/>
+      <c r="I494"/>
+      <c r="J494"/>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>170</v>
+      </c>
+      <c r="B495" t="s">
+        <v>612</v>
+      </c>
+      <c r="C495" t="s">
+        <v>623</v>
+      </c>
+      <c r="D495" t="s">
+        <v>12</v>
+      </c>
+      <c r="E495" t="s">
+        <v>656</v>
+      </c>
+      <c r="F495" t="n">
+        <v>807</v>
+      </c>
+      <c r="G495" t="n">
+        <v>74</v>
+      </c>
+      <c r="H495" t="n">
+        <v>61</v>
+      </c>
+      <c r="I495" t="n">
+        <v>59</v>
+      </c>
+      <c r="J495"/>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>171</v>
+      </c>
+      <c r="B496" t="s">
+        <v>612</v>
+      </c>
+      <c r="C496" t="s">
+        <v>623</v>
+      </c>
+      <c r="D496" t="s">
+        <v>12</v>
+      </c>
+      <c r="E496" t="s">
+        <v>657</v>
+      </c>
+      <c r="F496" t="n">
+        <v>198</v>
+      </c>
+      <c r="G496" t="n">
+        <v>12</v>
+      </c>
+      <c r="H496" t="n">
+        <v>12</v>
+      </c>
+      <c r="I496" t="n">
+        <v>12</v>
+      </c>
+      <c r="J496"/>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>172</v>
+      </c>
+      <c r="B497" t="s">
+        <v>612</v>
+      </c>
+      <c r="C497" t="s">
+        <v>623</v>
+      </c>
+      <c r="D497" t="s">
+        <v>12</v>
+      </c>
+      <c r="E497" t="s">
+        <v>658</v>
+      </c>
+      <c r="F497" t="n">
+        <v>276</v>
+      </c>
+      <c r="G497"/>
+      <c r="H497"/>
+      <c r="I497"/>
+      <c r="J497"/>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>173</v>
+      </c>
+      <c r="B498" t="s">
+        <v>612</v>
+      </c>
+      <c r="C498" t="s">
+        <v>659</v>
+      </c>
+      <c r="D498" t="s">
+        <v>12</v>
+      </c>
+      <c r="E498" t="s">
+        <v>660</v>
+      </c>
+      <c r="F498" t="n">
+        <v>193</v>
+      </c>
+      <c r="G498"/>
+      <c r="H498"/>
+      <c r="I498"/>
+      <c r="J498"/>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>174</v>
+      </c>
+      <c r="B499" t="s">
+        <v>612</v>
+      </c>
+      <c r="C499" t="s">
+        <v>661</v>
+      </c>
+      <c r="D499" t="s">
+        <v>12</v>
+      </c>
+      <c r="E499" t="s">
+        <v>662</v>
+      </c>
+      <c r="F499" t="n">
+        <v>145</v>
+      </c>
+      <c r="G499"/>
+      <c r="H499"/>
+      <c r="I499"/>
+      <c r="J499"/>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>175</v>
+      </c>
+      <c r="B500" t="s">
+        <v>612</v>
+      </c>
+      <c r="C500" t="s">
+        <v>661</v>
+      </c>
+      <c r="D500" t="s">
+        <v>12</v>
+      </c>
+      <c r="E500" t="s">
+        <v>663</v>
+      </c>
+      <c r="F500" t="n">
+        <v>128</v>
+      </c>
+      <c r="G500" t="n">
+        <v>13</v>
+      </c>
+      <c r="H500" t="n">
+        <v>13</v>
+      </c>
+      <c r="I500" t="n">
+        <v>2</v>
+      </c>
+      <c r="J500"/>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>176</v>
+      </c>
+      <c r="B501" t="s">
+        <v>612</v>
+      </c>
+      <c r="C501" t="s">
+        <v>60</v>
+      </c>
+      <c r="D501" t="s">
+        <v>12</v>
+      </c>
+      <c r="E501" t="s">
+        <v>664</v>
+      </c>
+      <c r="F501" t="n">
+        <v>204</v>
+      </c>
+      <c r="G501"/>
+      <c r="H501"/>
+      <c r="I501"/>
+      <c r="J501"/>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>177</v>
+      </c>
+      <c r="B502" t="s">
+        <v>612</v>
+      </c>
+      <c r="C502" t="s">
+        <v>60</v>
+      </c>
+      <c r="D502" t="s">
+        <v>12</v>
+      </c>
+      <c r="E502" t="s">
+        <v>665</v>
+      </c>
+      <c r="F502" t="n">
+        <v>188</v>
+      </c>
+      <c r="G502"/>
+      <c r="H502"/>
+      <c r="I502"/>
+      <c r="J502"/>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>178</v>
+      </c>
+      <c r="B503" t="s">
+        <v>612</v>
+      </c>
+      <c r="C503" t="s">
+        <v>60</v>
+      </c>
+      <c r="D503" t="s">
+        <v>12</v>
+      </c>
+      <c r="E503" t="s">
+        <v>666</v>
+      </c>
+      <c r="F503" t="n">
+        <v>156</v>
+      </c>
+      <c r="G503"/>
+      <c r="H503"/>
+      <c r="I503"/>
+      <c r="J503"/>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>179</v>
+      </c>
+      <c r="B504" t="s">
+        <v>612</v>
+      </c>
+      <c r="C504" t="s">
+        <v>636</v>
+      </c>
+      <c r="D504" t="s">
+        <v>12</v>
+      </c>
+      <c r="E504" t="s">
+        <v>667</v>
+      </c>
+      <c r="F504" t="n">
+        <v>535</v>
+      </c>
+      <c r="G504" t="n">
+        <v>67</v>
+      </c>
+      <c r="H504" t="n">
+        <v>63</v>
+      </c>
+      <c r="I504" t="n">
+        <v>50</v>
+      </c>
+      <c r="J504"/>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>180</v>
+      </c>
+      <c r="B505" t="s">
+        <v>612</v>
+      </c>
+      <c r="C505" t="s">
+        <v>613</v>
+      </c>
+      <c r="D505" t="s">
+        <v>12</v>
+      </c>
+      <c r="E505" t="s">
+        <v>668</v>
+      </c>
+      <c r="F505" t="n">
+        <v>33</v>
+      </c>
+      <c r="G505"/>
+      <c r="H505" t="n">
+        <v>3</v>
+      </c>
+      <c r="I505" t="n">
+        <v>3</v>
+      </c>
+      <c r="J505"/>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>181</v>
+      </c>
+      <c r="B506" t="s">
+        <v>612</v>
+      </c>
+      <c r="C506" t="s">
+        <v>613</v>
+      </c>
+      <c r="D506" t="s">
+        <v>12</v>
+      </c>
+      <c r="E506" t="s">
+        <v>669</v>
+      </c>
+      <c r="F506" t="n">
+        <v>530</v>
+      </c>
+      <c r="G506" t="n">
+        <v>20</v>
+      </c>
+      <c r="H506" t="n">
+        <v>10</v>
+      </c>
+      <c r="I506" t="n">
+        <v>5</v>
+      </c>
+      <c r="J506"/>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>182</v>
+      </c>
+      <c r="B507" t="s">
+        <v>612</v>
+      </c>
+      <c r="C507" t="s">
+        <v>613</v>
+      </c>
+      <c r="D507" t="s">
+        <v>12</v>
+      </c>
+      <c r="E507" t="s">
+        <v>670</v>
+      </c>
+      <c r="F507" t="n">
+        <v>225</v>
+      </c>
+      <c r="G507"/>
+      <c r="H507" t="n">
+        <v>24</v>
+      </c>
+      <c r="I507" t="n">
+        <v>24</v>
+      </c>
+      <c r="J507"/>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>183</v>
+      </c>
+      <c r="B508" t="s">
+        <v>612</v>
+      </c>
+      <c r="C508" t="s">
+        <v>618</v>
+      </c>
+      <c r="D508" t="s">
+        <v>12</v>
+      </c>
+      <c r="E508" t="s">
+        <v>671</v>
+      </c>
+      <c r="F508" t="n">
+        <v>208</v>
+      </c>
+      <c r="G508" t="n">
+        <v>34</v>
+      </c>
+      <c r="H508" t="n">
+        <v>45</v>
+      </c>
+      <c r="I508" t="n">
+        <v>45</v>
+      </c>
+      <c r="J508"/>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>184</v>
+      </c>
+      <c r="B509" t="s">
+        <v>612</v>
+      </c>
+      <c r="C509" t="s">
+        <v>618</v>
+      </c>
+      <c r="D509" t="s">
+        <v>12</v>
+      </c>
+      <c r="E509" t="s">
+        <v>672</v>
+      </c>
+      <c r="F509" t="n">
+        <v>205</v>
+      </c>
+      <c r="G509" t="n">
+        <v>22</v>
+      </c>
+      <c r="H509" t="n">
+        <v>37</v>
+      </c>
+      <c r="I509" t="n">
+        <v>28</v>
+      </c>
+      <c r="J509"/>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>185</v>
+      </c>
+      <c r="B510" t="s">
+        <v>612</v>
+      </c>
+      <c r="C510" t="s">
+        <v>618</v>
+      </c>
+      <c r="D510" t="s">
+        <v>12</v>
+      </c>
+      <c r="E510" t="s">
+        <v>673</v>
+      </c>
+      <c r="F510" t="n">
+        <v>263</v>
+      </c>
+      <c r="G510" t="n">
+        <v>26</v>
+      </c>
+      <c r="H510" t="n">
+        <v>27</v>
+      </c>
+      <c r="I510" t="n">
+        <v>26</v>
+      </c>
+      <c r="J510"/>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>186</v>
+      </c>
+      <c r="B511" t="s">
+        <v>612</v>
+      </c>
+      <c r="C511" t="s">
+        <v>618</v>
+      </c>
+      <c r="D511" t="s">
+        <v>12</v>
+      </c>
+      <c r="E511" t="s">
+        <v>674</v>
+      </c>
+      <c r="F511" t="n">
+        <v>363</v>
+      </c>
+      <c r="G511"/>
+      <c r="H511" t="n">
+        <v>38</v>
+      </c>
+      <c r="I511" t="n">
+        <v>37</v>
+      </c>
+      <c r="J511"/>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>187</v>
+      </c>
+      <c r="B512" t="s">
+        <v>612</v>
+      </c>
+      <c r="C512" t="s">
+        <v>618</v>
+      </c>
+      <c r="D512" t="s">
+        <v>12</v>
+      </c>
+      <c r="E512" t="s">
+        <v>675</v>
+      </c>
+      <c r="F512" t="n">
+        <v>321</v>
+      </c>
+      <c r="G512"/>
+      <c r="H512" t="n">
+        <v>30</v>
+      </c>
+      <c r="I512" t="n">
+        <v>30</v>
+      </c>
+      <c r="J512"/>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>188</v>
+      </c>
+      <c r="B513" t="s">
+        <v>612</v>
+      </c>
+      <c r="C513" t="s">
+        <v>618</v>
+      </c>
+      <c r="D513" t="s">
+        <v>12</v>
+      </c>
+      <c r="E513" t="s">
+        <v>676</v>
+      </c>
+      <c r="F513" t="n">
+        <v>157</v>
+      </c>
+      <c r="G513" t="n">
+        <v>20</v>
+      </c>
+      <c r="H513" t="n">
+        <v>19</v>
+      </c>
+      <c r="I513" t="n">
+        <v>19</v>
+      </c>
+      <c r="J513"/>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>189</v>
+      </c>
+      <c r="B514" t="s">
+        <v>612</v>
+      </c>
+      <c r="C514" t="s">
+        <v>618</v>
+      </c>
+      <c r="D514" t="s">
+        <v>12</v>
+      </c>
+      <c r="E514" t="s">
+        <v>677</v>
+      </c>
+      <c r="F514" t="n">
+        <v>264</v>
+      </c>
+      <c r="G514" t="n">
+        <v>29</v>
+      </c>
+      <c r="H514" t="n">
+        <v>43</v>
+      </c>
+      <c r="I514" t="n">
+        <v>37</v>
+      </c>
+      <c r="J514"/>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>190</v>
+      </c>
+      <c r="B515" t="s">
+        <v>612</v>
+      </c>
+      <c r="C515" t="s">
+        <v>618</v>
+      </c>
+      <c r="D515" t="s">
+        <v>12</v>
+      </c>
+      <c r="E515" t="s">
+        <v>678</v>
+      </c>
+      <c r="F515" t="n">
+        <v>195</v>
+      </c>
+      <c r="G515" t="n">
+        <v>14</v>
+      </c>
+      <c r="H515" t="n">
+        <v>17</v>
+      </c>
+      <c r="I515" t="n">
+        <v>17</v>
+      </c>
+      <c r="J515"/>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>191</v>
+      </c>
+      <c r="B516" t="s">
+        <v>612</v>
+      </c>
+      <c r="C516" t="s">
+        <v>618</v>
+      </c>
+      <c r="D516" t="s">
+        <v>12</v>
+      </c>
+      <c r="E516" t="s">
+        <v>679</v>
+      </c>
+      <c r="F516" t="n">
+        <v>245</v>
+      </c>
+      <c r="G516" t="n">
+        <v>26</v>
+      </c>
+      <c r="H516" t="n">
+        <v>33</v>
+      </c>
+      <c r="I516" t="n">
+        <v>25</v>
+      </c>
+      <c r="J516"/>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>192</v>
+      </c>
+      <c r="B517" t="s">
+        <v>612</v>
+      </c>
+      <c r="C517" t="s">
+        <v>618</v>
+      </c>
+      <c r="D517" t="s">
+        <v>12</v>
+      </c>
+      <c r="E517" t="s">
+        <v>680</v>
+      </c>
+      <c r="F517" t="n">
+        <v>516</v>
+      </c>
+      <c r="G517" t="n">
+        <v>64</v>
+      </c>
+      <c r="H517" t="n">
+        <v>63</v>
+      </c>
+      <c r="I517" t="n">
+        <v>25</v>
+      </c>
+      <c r="J517"/>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>193</v>
+      </c>
+      <c r="B518" t="s">
+        <v>612</v>
+      </c>
+      <c r="C518" t="s">
+        <v>618</v>
+      </c>
+      <c r="D518" t="s">
+        <v>12</v>
+      </c>
+      <c r="E518" t="s">
+        <v>681</v>
+      </c>
+      <c r="F518" t="n">
+        <v>307</v>
+      </c>
+      <c r="G518"/>
+      <c r="H518" t="n">
+        <v>34</v>
+      </c>
+      <c r="I518" t="n">
+        <v>34</v>
+      </c>
+      <c r="J518"/>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>194</v>
+      </c>
+      <c r="B519" t="s">
+        <v>612</v>
+      </c>
+      <c r="C519" t="s">
+        <v>623</v>
+      </c>
+      <c r="D519" t="s">
+        <v>12</v>
+      </c>
+      <c r="E519" t="s">
+        <v>682</v>
+      </c>
+      <c r="F519" t="n">
+        <v>108</v>
+      </c>
+      <c r="G519" t="n">
+        <v>25</v>
+      </c>
+      <c r="H519" t="n">
+        <v>21</v>
+      </c>
+      <c r="I519" t="n">
+        <v>0</v>
+      </c>
+      <c r="J519"/>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>195</v>
+      </c>
+      <c r="B520" t="s">
+        <v>612</v>
+      </c>
+      <c r="C520" t="s">
+        <v>623</v>
+      </c>
+      <c r="D520" t="s">
+        <v>12</v>
+      </c>
+      <c r="E520" t="s">
+        <v>683</v>
+      </c>
+      <c r="F520" t="n">
+        <v>101</v>
+      </c>
+      <c r="G520"/>
+      <c r="H520" t="n">
+        <v>10</v>
+      </c>
+      <c r="I520" t="n">
+        <v>0</v>
+      </c>
+      <c r="J520"/>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>196</v>
+      </c>
+      <c r="B521" t="s">
+        <v>612</v>
+      </c>
+      <c r="C521" t="s">
+        <v>623</v>
+      </c>
+      <c r="D521" t="s">
+        <v>12</v>
+      </c>
+      <c r="E521" t="s">
+        <v>684</v>
+      </c>
+      <c r="F521" t="n">
+        <v>207</v>
+      </c>
+      <c r="G521"/>
+      <c r="H521" t="n">
+        <v>18</v>
+      </c>
+      <c r="I521" t="n">
+        <v>11</v>
+      </c>
+      <c r="J521"/>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>197</v>
+      </c>
+      <c r="B522" t="s">
+        <v>612</v>
+      </c>
+      <c r="C522" t="s">
+        <v>659</v>
+      </c>
+      <c r="D522" t="s">
+        <v>12</v>
+      </c>
+      <c r="E522" t="s">
+        <v>685</v>
+      </c>
+      <c r="F522" t="n">
+        <v>173</v>
+      </c>
+      <c r="G522"/>
+      <c r="H522" t="n">
+        <v>18</v>
+      </c>
+      <c r="I522" t="n">
+        <v>18</v>
+      </c>
+      <c r="J522"/>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>198</v>
+      </c>
+      <c r="B523" t="s">
+        <v>612</v>
+      </c>
+      <c r="C523" t="s">
+        <v>659</v>
+      </c>
+      <c r="D523" t="s">
+        <v>12</v>
+      </c>
+      <c r="E523" t="s">
+        <v>686</v>
+      </c>
+      <c r="F523" t="n">
+        <v>115</v>
+      </c>
+      <c r="G523"/>
+      <c r="H523" t="n">
+        <v>19</v>
+      </c>
+      <c r="I523" t="n">
+        <v>19</v>
+      </c>
+      <c r="J523"/>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>199</v>
+      </c>
+      <c r="B524" t="s">
+        <v>612</v>
+      </c>
+      <c r="C524" t="s">
+        <v>659</v>
+      </c>
+      <c r="D524" t="s">
+        <v>12</v>
+      </c>
+      <c r="E524" t="s">
+        <v>687</v>
+      </c>
+      <c r="F524" t="n">
+        <v>370</v>
+      </c>
+      <c r="G524" t="n">
+        <v>29</v>
+      </c>
+      <c r="H524" t="n">
+        <v>30</v>
+      </c>
+      <c r="I524" t="n">
+        <v>15</v>
+      </c>
+      <c r="J524"/>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>200</v>
+      </c>
+      <c r="B525" t="s">
+        <v>612</v>
+      </c>
+      <c r="C525" t="s">
+        <v>659</v>
+      </c>
+      <c r="D525" t="s">
+        <v>12</v>
+      </c>
+      <c r="E525" t="s">
+        <v>688</v>
+      </c>
+      <c r="F525" t="n">
+        <v>108</v>
+      </c>
+      <c r="G525" t="n">
+        <v>10</v>
+      </c>
+      <c r="H525" t="n">
+        <v>10</v>
+      </c>
+      <c r="I525" t="n">
+        <v>10</v>
+      </c>
+      <c r="J525"/>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>201</v>
+      </c>
+      <c r="B526" t="s">
+        <v>612</v>
+      </c>
+      <c r="C526" t="s">
+        <v>659</v>
+      </c>
+      <c r="D526" t="s">
+        <v>12</v>
+      </c>
+      <c r="E526" t="s">
+        <v>689</v>
+      </c>
+      <c r="F526" t="n">
+        <v>120</v>
+      </c>
+      <c r="G526"/>
+      <c r="H526" t="n">
+        <v>10</v>
+      </c>
+      <c r="I526" t="n">
+        <v>10</v>
+      </c>
+      <c r="J526"/>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>202</v>
+      </c>
+      <c r="B527" t="s">
+        <v>612</v>
+      </c>
+      <c r="C527" t="s">
+        <v>659</v>
+      </c>
+      <c r="D527" t="s">
+        <v>12</v>
+      </c>
+      <c r="E527" t="s">
+        <v>690</v>
+      </c>
+      <c r="F527" t="n">
+        <v>109</v>
+      </c>
+      <c r="G527"/>
+      <c r="H527" t="n">
+        <v>8</v>
+      </c>
+      <c r="I527" t="n">
+        <v>8</v>
+      </c>
+      <c r="J527"/>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>203</v>
+      </c>
+      <c r="B528" t="s">
+        <v>612</v>
+      </c>
+      <c r="C528" t="s">
+        <v>659</v>
+      </c>
+      <c r="D528" t="s">
+        <v>12</v>
+      </c>
+      <c r="E528" t="s">
+        <v>691</v>
+      </c>
+      <c r="F528" t="n">
+        <v>351</v>
+      </c>
+      <c r="G528" t="n">
+        <v>20</v>
+      </c>
+      <c r="H528" t="n">
+        <v>38</v>
+      </c>
+      <c r="I528" t="n">
+        <v>20</v>
+      </c>
+      <c r="J528"/>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>204</v>
+      </c>
+      <c r="B529" t="s">
+        <v>612</v>
+      </c>
+      <c r="C529" t="s">
+        <v>659</v>
+      </c>
+      <c r="D529" t="s">
+        <v>12</v>
+      </c>
+      <c r="E529" t="s">
+        <v>692</v>
+      </c>
+      <c r="F529" t="n">
+        <v>119</v>
+      </c>
+      <c r="G529" t="n">
+        <v>14</v>
+      </c>
+      <c r="H529" t="n">
+        <v>27</v>
+      </c>
+      <c r="I529" t="n">
+        <v>5</v>
+      </c>
+      <c r="J529"/>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>205</v>
+      </c>
+      <c r="B530" t="s">
+        <v>612</v>
+      </c>
+      <c r="C530" t="s">
+        <v>636</v>
+      </c>
+      <c r="D530" t="s">
+        <v>12</v>
+      </c>
+      <c r="E530" t="s">
+        <v>693</v>
+      </c>
+      <c r="F530" t="n">
+        <v>234</v>
+      </c>
+      <c r="G530" t="n">
+        <v>22</v>
+      </c>
+      <c r="H530" t="n">
+        <v>21</v>
+      </c>
+      <c r="I530" t="n">
+        <v>22</v>
+      </c>
+      <c r="J530"/>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>206</v>
+      </c>
+      <c r="B531" t="s">
+        <v>612</v>
+      </c>
+      <c r="C531" t="s">
+        <v>636</v>
+      </c>
+      <c r="D531" t="s">
+        <v>12</v>
+      </c>
+      <c r="E531" t="s">
+        <v>694</v>
+      </c>
+      <c r="F531" t="n">
+        <v>86</v>
+      </c>
+      <c r="G531" t="n">
+        <v>14</v>
+      </c>
+      <c r="H531" t="n">
+        <v>12</v>
+      </c>
+      <c r="I531" t="n">
+        <v>4</v>
+      </c>
+      <c r="J531"/>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>207</v>
+      </c>
+      <c r="B532" t="s">
+        <v>612</v>
+      </c>
+      <c r="C532" t="s">
+        <v>636</v>
+      </c>
+      <c r="D532" t="s">
+        <v>12</v>
+      </c>
+      <c r="E532" t="s">
+        <v>695</v>
+      </c>
+      <c r="F532" t="n">
+        <v>128</v>
+      </c>
+      <c r="G532"/>
+      <c r="H532" t="n">
+        <v>20</v>
+      </c>
+      <c r="I532" t="n">
+        <v>9</v>
+      </c>
+      <c r="J532"/>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>208</v>
+      </c>
+      <c r="B533" t="s">
+        <v>612</v>
+      </c>
+      <c r="C533" t="s">
+        <v>636</v>
+      </c>
+      <c r="D533" t="s">
+        <v>12</v>
+      </c>
+      <c r="E533" t="s">
+        <v>696</v>
+      </c>
+      <c r="F533" t="n">
+        <v>138</v>
+      </c>
+      <c r="G533" t="n">
+        <v>12</v>
+      </c>
+      <c r="H533" t="n">
+        <v>14</v>
+      </c>
+      <c r="I533" t="n">
+        <v>1</v>
+      </c>
+      <c r="J533"/>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>209</v>
+      </c>
+      <c r="B534" t="s">
+        <v>612</v>
+      </c>
+      <c r="C534" t="s">
+        <v>636</v>
+      </c>
+      <c r="D534" t="s">
+        <v>12</v>
+      </c>
+      <c r="E534" t="s">
+        <v>697</v>
+      </c>
+      <c r="F534" t="n">
+        <v>254</v>
+      </c>
+      <c r="G534"/>
+      <c r="H534" t="n">
+        <v>25</v>
+      </c>
+      <c r="I534" t="n">
+        <v>23</v>
+      </c>
+      <c r="J534"/>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>210</v>
+      </c>
+      <c r="B535" t="s">
+        <v>612</v>
+      </c>
+      <c r="C535" t="s">
+        <v>636</v>
+      </c>
+      <c r="D535" t="s">
+        <v>12</v>
+      </c>
+      <c r="E535" t="s">
+        <v>698</v>
+      </c>
+      <c r="F535" t="n">
+        <v>51</v>
+      </c>
+      <c r="G535" t="n">
+        <v>7</v>
+      </c>
+      <c r="H535" t="n">
+        <v>6</v>
+      </c>
+      <c r="I535" t="n">
+        <v>3</v>
+      </c>
+      <c r="J535"/>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>211</v>
+      </c>
+      <c r="B536" t="s">
+        <v>612</v>
+      </c>
+      <c r="C536" t="s">
+        <v>636</v>
+      </c>
+      <c r="D536" t="s">
+        <v>12</v>
+      </c>
+      <c r="E536" t="s">
+        <v>699</v>
+      </c>
+      <c r="F536" t="n">
+        <v>74</v>
+      </c>
+      <c r="G536"/>
+      <c r="H536" t="n">
+        <v>12</v>
+      </c>
+      <c r="I536" t="n">
+        <v>12</v>
+      </c>
+      <c r="J536"/>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>212</v>
+      </c>
+      <c r="B537" t="s">
+        <v>612</v>
+      </c>
+      <c r="C537" t="s">
+        <v>618</v>
+      </c>
+      <c r="D537" t="s">
+        <v>12</v>
+      </c>
+      <c r="E537" t="s">
+        <v>700</v>
+      </c>
+      <c r="F537" t="n">
+        <v>247</v>
+      </c>
+      <c r="G537" t="n">
+        <v>21</v>
+      </c>
+      <c r="H537" t="n">
+        <v>18</v>
+      </c>
+      <c r="I537" t="n">
+        <v>4</v>
+      </c>
+      <c r="J537"/>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>213</v>
+      </c>
+      <c r="B538" t="s">
+        <v>612</v>
+      </c>
+      <c r="C538" t="s">
+        <v>636</v>
+      </c>
+      <c r="D538" t="s">
+        <v>12</v>
+      </c>
+      <c r="E538" t="s">
+        <v>701</v>
+      </c>
+      <c r="F538" t="n">
+        <v>105</v>
+      </c>
+      <c r="G538" t="n">
+        <v>10</v>
+      </c>
+      <c r="H538" t="n">
+        <v>10</v>
+      </c>
+      <c r="I538" t="n">
+        <v>5</v>
+      </c>
+      <c r="J538"/>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>214</v>
+      </c>
+      <c r="B539" t="s">
+        <v>612</v>
+      </c>
+      <c r="C539" t="s">
+        <v>60</v>
+      </c>
+      <c r="D539" t="s">
+        <v>12</v>
+      </c>
+      <c r="E539" t="s">
+        <v>702</v>
+      </c>
+      <c r="F539" t="n">
+        <v>94</v>
+      </c>
+      <c r="G539" t="n">
+        <v>37</v>
+      </c>
+      <c r="H539" t="n">
+        <v>32</v>
+      </c>
+      <c r="I539" t="n">
+        <v>30</v>
+      </c>
+      <c r="J539"/>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>215</v>
+      </c>
+      <c r="B540" t="s">
+        <v>612</v>
+      </c>
+      <c r="C540" t="s">
+        <v>613</v>
+      </c>
+      <c r="D540" t="s">
+        <v>12</v>
+      </c>
+      <c r="E540" t="s">
+        <v>703</v>
+      </c>
+      <c r="F540"/>
+      <c r="G540" t="n">
+        <v>31</v>
+      </c>
+      <c r="H540" t="n">
+        <v>29</v>
+      </c>
+      <c r="I540" t="n">
+        <v>27</v>
+      </c>
+      <c r="J540"/>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>216</v>
+      </c>
+      <c r="B541" t="s">
+        <v>704</v>
+      </c>
+      <c r="C541" t="s">
+        <v>705</v>
+      </c>
+      <c r="D541" t="s">
+        <v>12</v>
+      </c>
+      <c r="E541" t="s">
+        <v>706</v>
+      </c>
+      <c r="F541" t="n">
+        <v>275</v>
+      </c>
+      <c r="G541" t="n">
+        <v>19</v>
+      </c>
+      <c r="H541" t="n">
+        <v>18</v>
+      </c>
+      <c r="I541" t="n">
+        <v>18</v>
+      </c>
+      <c r="J541" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>217</v>
+      </c>
+      <c r="B542" t="s">
+        <v>704</v>
+      </c>
+      <c r="C542" t="s">
+        <v>707</v>
+      </c>
+      <c r="D542" t="s">
+        <v>12</v>
+      </c>
+      <c r="E542" t="s">
+        <v>708</v>
+      </c>
+      <c r="F542" t="n">
+        <v>240</v>
+      </c>
+      <c r="G542" t="n">
+        <v>30</v>
+      </c>
+      <c r="H542" t="n">
+        <v>27</v>
+      </c>
+      <c r="I542" t="n">
+        <v>25</v>
+      </c>
+      <c r="J542"/>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>218</v>
+      </c>
+      <c r="B543" t="s">
+        <v>704</v>
+      </c>
+      <c r="C543" t="s">
+        <v>707</v>
+      </c>
+      <c r="D543" t="s">
+        <v>12</v>
+      </c>
+      <c r="E543" t="s">
+        <v>709</v>
+      </c>
+      <c r="F543" t="n">
+        <v>291</v>
+      </c>
+      <c r="G543" t="n">
+        <v>27</v>
+      </c>
+      <c r="H543" t="n">
+        <v>25</v>
+      </c>
+      <c r="I543" t="n">
+        <v>20</v>
+      </c>
+      <c r="J543"/>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>219</v>
+      </c>
+      <c r="B544" t="s">
+        <v>704</v>
+      </c>
+      <c r="C544" t="s">
+        <v>710</v>
+      </c>
+      <c r="D544" t="s">
+        <v>12</v>
+      </c>
+      <c r="E544" t="s">
+        <v>711</v>
+      </c>
+      <c r="F544" t="n">
+        <v>755</v>
+      </c>
+      <c r="G544" t="n">
+        <v>49</v>
+      </c>
+      <c r="H544" t="n">
+        <v>40</v>
+      </c>
+      <c r="I544" t="n">
+        <v>38</v>
+      </c>
+      <c r="J544"/>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>220</v>
+      </c>
+      <c r="B545" t="s">
+        <v>704</v>
+      </c>
+      <c r="C545" t="s">
+        <v>710</v>
+      </c>
+      <c r="D545" t="s">
+        <v>12</v>
+      </c>
+      <c r="E545" t="s">
+        <v>712</v>
+      </c>
+      <c r="F545" t="n">
+        <v>214</v>
+      </c>
+      <c r="G545" t="n">
+        <v>18</v>
+      </c>
+      <c r="H545" t="n">
+        <v>15</v>
+      </c>
+      <c r="I545" t="n">
+        <v>16</v>
+      </c>
+      <c r="J545"/>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>221</v>
+      </c>
+      <c r="B546" t="s">
+        <v>704</v>
+      </c>
+      <c r="C546" t="s">
+        <v>713</v>
+      </c>
+      <c r="D546" t="s">
+        <v>12</v>
+      </c>
+      <c r="E546" t="s">
+        <v>714</v>
+      </c>
+      <c r="F546" t="n">
+        <v>371</v>
+      </c>
+      <c r="G546" t="n">
+        <v>43</v>
+      </c>
+      <c r="H546" t="n">
+        <v>35</v>
+      </c>
+      <c r="I546" t="n">
+        <v>30</v>
+      </c>
+      <c r="J546"/>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>222</v>
+      </c>
+      <c r="B547" t="s">
+        <v>704</v>
+      </c>
+      <c r="C547" t="s">
+        <v>710</v>
+      </c>
+      <c r="D547" t="s">
+        <v>12</v>
+      </c>
+      <c r="E547" t="s">
+        <v>715</v>
+      </c>
+      <c r="F547" t="n">
+        <v>882</v>
+      </c>
+      <c r="G547" t="n">
+        <v>82</v>
+      </c>
+      <c r="H547" t="n">
+        <v>81</v>
+      </c>
+      <c r="I547" t="n">
+        <v>62</v>
+      </c>
+      <c r="J547"/>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>223</v>
+      </c>
+      <c r="B548" t="s">
+        <v>704</v>
+      </c>
+      <c r="C548" t="s">
+        <v>710</v>
+      </c>
+      <c r="D548" t="s">
+        <v>12</v>
+      </c>
+      <c r="E548" t="s">
+        <v>716</v>
+      </c>
+      <c r="F548" t="n">
+        <v>410</v>
+      </c>
+      <c r="G548" t="n">
+        <v>65</v>
+      </c>
+      <c r="H548" t="n">
+        <v>54</v>
+      </c>
+      <c r="I548" t="n">
+        <v>32</v>
+      </c>
+      <c r="J548"/>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>224</v>
+      </c>
+      <c r="B549" t="s">
+        <v>704</v>
+      </c>
+      <c r="C549" t="s">
+        <v>717</v>
+      </c>
+      <c r="D549" t="s">
+        <v>12</v>
+      </c>
+      <c r="E549" t="s">
+        <v>718</v>
+      </c>
+      <c r="F549" t="n">
+        <v>340</v>
+      </c>
+      <c r="G549" t="n">
+        <v>23</v>
+      </c>
+      <c r="H549" t="n">
+        <v>20</v>
+      </c>
+      <c r="I549" t="n">
+        <v>18</v>
+      </c>
+      <c r="J549"/>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>225</v>
+      </c>
+      <c r="B550" t="s">
+        <v>704</v>
+      </c>
+      <c r="C550" t="s">
+        <v>717</v>
+      </c>
+      <c r="D550" t="s">
+        <v>12</v>
+      </c>
+      <c r="E550" t="s">
+        <v>719</v>
+      </c>
+      <c r="F550" t="n">
+        <v>234</v>
+      </c>
+      <c r="G550" t="n">
+        <v>24</v>
+      </c>
+      <c r="H550" t="n">
+        <v>20</v>
+      </c>
+      <c r="I550" t="n">
+        <v>15</v>
+      </c>
+      <c r="J550"/>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>226</v>
+      </c>
+      <c r="B551" t="s">
+        <v>704</v>
+      </c>
+      <c r="C551" t="s">
+        <v>713</v>
+      </c>
+      <c r="D551" t="s">
+        <v>12</v>
+      </c>
+      <c r="E551" t="s">
+        <v>720</v>
+      </c>
+      <c r="F551" t="n">
+        <v>280</v>
+      </c>
+      <c r="G551" t="n">
+        <v>20</v>
+      </c>
+      <c r="H551" t="n">
+        <v>18</v>
+      </c>
+      <c r="I551" t="n">
+        <v>18</v>
+      </c>
+      <c r="J551"/>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>227</v>
+      </c>
+      <c r="B552" t="s">
+        <v>704</v>
+      </c>
+      <c r="C552" t="s">
+        <v>710</v>
+      </c>
+      <c r="D552" t="s">
+        <v>12</v>
+      </c>
+      <c r="E552" t="s">
+        <v>721</v>
+      </c>
+      <c r="F552" t="n">
+        <v>695</v>
+      </c>
+      <c r="G552" t="n">
+        <v>81</v>
+      </c>
+      <c r="H552" t="n">
+        <v>68</v>
+      </c>
+      <c r="I552" t="n">
+        <v>71</v>
+      </c>
+      <c r="J552"/>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>228</v>
+      </c>
+      <c r="B553" t="s">
+        <v>704</v>
+      </c>
+      <c r="C553" t="s">
+        <v>717</v>
+      </c>
+      <c r="D553" t="s">
+        <v>12</v>
+      </c>
+      <c r="E553" t="s">
+        <v>567</v>
+      </c>
+      <c r="F553" t="n">
+        <v>360</v>
+      </c>
+      <c r="G553" t="n">
+        <v>39</v>
+      </c>
+      <c r="H553" t="n">
+        <v>36</v>
+      </c>
+      <c r="I553" t="n">
+        <v>35</v>
+      </c>
+      <c r="J553"/>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>229</v>
+      </c>
+      <c r="B554" t="s">
+        <v>704</v>
+      </c>
+      <c r="C554" t="s">
+        <v>705</v>
+      </c>
+      <c r="D554" t="s">
+        <v>12</v>
+      </c>
+      <c r="E554" t="s">
+        <v>722</v>
+      </c>
+      <c r="F554" t="n">
+        <v>493</v>
+      </c>
+      <c r="G554" t="n">
+        <v>32</v>
+      </c>
+      <c r="H554" t="n">
+        <v>29</v>
+      </c>
+      <c r="I554" t="n">
+        <v>29</v>
+      </c>
+      <c r="J554"/>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>230</v>
+      </c>
+      <c r="B555" t="s">
+        <v>704</v>
+      </c>
+      <c r="C555" t="s">
+        <v>713</v>
+      </c>
+      <c r="D555" t="s">
+        <v>12</v>
+      </c>
+      <c r="E555" t="s">
+        <v>723</v>
+      </c>
+      <c r="F555" t="n">
+        <v>717</v>
+      </c>
+      <c r="G555" t="n">
+        <v>63</v>
+      </c>
+      <c r="H555" t="n">
+        <v>52</v>
+      </c>
+      <c r="I555" t="n">
+        <v>52</v>
+      </c>
+      <c r="J555"/>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>231</v>
+      </c>
+      <c r="B556" t="s">
+        <v>704</v>
+      </c>
+      <c r="C556" t="s">
+        <v>713</v>
+      </c>
+      <c r="D556" t="s">
+        <v>12</v>
+      </c>
+      <c r="E556" t="s">
+        <v>724</v>
+      </c>
+      <c r="F556" t="n">
+        <v>390</v>
+      </c>
+      <c r="G556" t="n">
+        <v>44</v>
+      </c>
+      <c r="H556" t="n">
+        <v>36</v>
+      </c>
+      <c r="I556" t="n">
+        <v>35</v>
+      </c>
+      <c r="J556"/>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>232</v>
+      </c>
+      <c r="B557" t="s">
+        <v>704</v>
+      </c>
+      <c r="C557" t="s">
+        <v>713</v>
+      </c>
+      <c r="D557" t="s">
+        <v>12</v>
+      </c>
+      <c r="E557" t="s">
+        <v>725</v>
+      </c>
+      <c r="F557" t="n">
+        <v>113</v>
+      </c>
+      <c r="G557" t="n">
+        <v>11</v>
+      </c>
+      <c r="H557" t="n">
+        <v>9</v>
+      </c>
+      <c r="I557" t="n">
+        <v>12</v>
+      </c>
+      <c r="J557"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
